--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>列8</t>
   </si>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回样例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命令地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +98,29 @@
   </si>
   <si>
     <t>/access.cgi?action=register_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回报文（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回报文（失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,17 +185,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -447,20 +483,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:K24"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="命令名称" dataDxfId="10"/>
-    <tableColumn id="2" name="命令地址" dataDxfId="9"/>
-    <tableColumn id="7" name="返回样例" dataDxfId="8"/>
-    <tableColumn id="3" name="参数字段" dataDxfId="7"/>
-    <tableColumn id="4" name="参数类型" dataDxfId="6"/>
-    <tableColumn id="5" name="参数大小" dataDxfId="5"/>
-    <tableColumn id="6" name="是否必选" dataDxfId="4"/>
-    <tableColumn id="8" name="列8" dataDxfId="3"/>
-    <tableColumn id="9" name="列9" dataDxfId="2"/>
-    <tableColumn id="10" name="列10" dataDxfId="1"/>
-    <tableColumn id="11" name="列11" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L24"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="命令名称" dataDxfId="11"/>
+    <tableColumn id="2" name="命令地址" dataDxfId="10"/>
+    <tableColumn id="12" name="返回报文（失败）" dataDxfId="0"/>
+    <tableColumn id="7" name="返回报文（成功）" dataDxfId="9"/>
+    <tableColumn id="3" name="参数字段" dataDxfId="8"/>
+    <tableColumn id="4" name="参数类型" dataDxfId="7"/>
+    <tableColumn id="5" name="参数大小" dataDxfId="6"/>
+    <tableColumn id="6" name="是否必选" dataDxfId="5"/>
+    <tableColumn id="8" name="列8" dataDxfId="4"/>
+    <tableColumn id="9" name="列9" dataDxfId="3"/>
+    <tableColumn id="10" name="列10" dataDxfId="2"/>
+    <tableColumn id="11" name="列11" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,187 +790,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
-    <col min="4" max="7" width="11" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>256</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="8:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>256</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>列8</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=unregister_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,11 +193,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -194,6 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,6 +230,180 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -215,180 +415,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -488,16 +514,16 @@
   <tableColumns count="12">
     <tableColumn id="1" name="命令名称" dataDxfId="11"/>
     <tableColumn id="2" name="命令地址" dataDxfId="10"/>
-    <tableColumn id="12" name="返回报文（失败）" dataDxfId="0"/>
-    <tableColumn id="7" name="返回报文（成功）" dataDxfId="9"/>
-    <tableColumn id="3" name="参数字段" dataDxfId="8"/>
-    <tableColumn id="4" name="参数类型" dataDxfId="7"/>
-    <tableColumn id="5" name="参数大小" dataDxfId="6"/>
-    <tableColumn id="6" name="是否必选" dataDxfId="5"/>
-    <tableColumn id="8" name="列8" dataDxfId="4"/>
-    <tableColumn id="9" name="列9" dataDxfId="3"/>
-    <tableColumn id="10" name="列10" dataDxfId="2"/>
-    <tableColumn id="11" name="列11" dataDxfId="1"/>
+    <tableColumn id="12" name="返回报文（失败）" dataDxfId="9"/>
+    <tableColumn id="7" name="返回报文（成功）" dataDxfId="8"/>
+    <tableColumn id="3" name="参数字段" dataDxfId="7"/>
+    <tableColumn id="4" name="参数类型" dataDxfId="6"/>
+    <tableColumn id="5" name="参数大小" dataDxfId="5"/>
+    <tableColumn id="6" name="是否必选" dataDxfId="4"/>
+    <tableColumn id="8" name="列8" dataDxfId="3"/>
+    <tableColumn id="9" name="列9" dataDxfId="2"/>
+    <tableColumn id="10" name="列10" dataDxfId="1"/>
+    <tableColumn id="11" name="列11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,13 +819,13 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="8" width="11" style="1" customWidth="1"/>
@@ -913,7 +939,8 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -928,16 +955,76 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>256</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>列8</t>
   </si>
@@ -133,6 +133,74 @@
   </si>
   <si>
     <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_userinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"ok",
+ "userid":"xxxxxxxxx",
+ "value":"xxxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx",
+    "value":"xxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=user_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "jkjkdjk89892s",
+   "value" : "xx"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,11 +274,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,6 +301,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,8 +594,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L28" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L28"/>
   <tableColumns count="12">
     <tableColumn id="1" name="命令名称" dataDxfId="11"/>
     <tableColumn id="2" name="命令地址" dataDxfId="10"/>
@@ -816,18 +901,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -955,36 +1041,26 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -992,14 +1068,13 @@
       <c r="G8" s="1">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" s="1"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1014,75 +1089,221 @@
     </row>
     <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
         <v>256</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="1"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>256</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1">
+        <v>256</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>256</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="9:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>列8</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"ok",
- "userid":"xxxxxxxxx",
- "value":"xxxxx"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,32 +139,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "retcode":"0",
- "retmsg":"ok",
- "userid":"xxxxxxxxx",
- "value":"xxxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "retcode":"0",
-    "retmsg":"ok",
-    "userid":"xxxx",
-    "username":"xxxx",
-    "type":"xx",          "createdate":"xx",
-    "extend":"xxxx",
-    "value":"xxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/access.cgi?action=user_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=user_logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,7 +177,36 @@
    "retcode" : "0",
    "retmsg" : "Ok",
    "sid" : "jkjkdjk89892s",
+   "userid" : "yudyuayuyudyuabn",
    "value" : "xx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "userid":"xxxxxxxxx",
+ "value":"xxxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"Ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx",
+    "value":"xxxx"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L28" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="命令名称" dataDxfId="11"/>
     <tableColumn id="2" name="命令地址" dataDxfId="10"/>
@@ -901,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -961,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1012,7 +1019,7 @@
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1028,7 +1035,7 @@
     <row r="6" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1048,19 +1055,19 @@
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -1074,7 +1081,7 @@
     <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1119,7 +1126,7 @@
     </row>
     <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -1139,19 +1146,19 @@
     </row>
     <row r="14" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1168,7 +1175,7 @@
     <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1183,7 +1190,7 @@
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1199,18 +1206,18 @@
     <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="325.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="339" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
@@ -1243,7 +1250,7 @@
     </row>
     <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1258,7 +1265,7 @@
     </row>
     <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1274,24 +1281,68 @@
     <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>256</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I28" s="1"/>
-    </row>
+    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1302,8 +1353,6 @@
     <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
   <si>
     <t>列8</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +204,274 @@
     "extend":"xxxx",
     "value":"xxxx"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devextend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devinnerinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devextend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devinnerinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=modify_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "devextend" : "extend",
+   "devid" : "jkdjkajk",
+   "devinnerinfo" : "jkdi893kdsjksjk",
+   "devname" : "yuieuiw",
+   "devpwd" : "pwd",
+   "devtype" : "0",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户绑定的设备关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_device_of_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备绑定的用户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_user_of_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=sharing_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=cancelshared_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,15 +501,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,11 +564,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,6 +645,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,8 +949,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L34" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L34"/>
   <tableColumns count="12">
     <tableColumn id="1" name="命令名称" dataDxfId="11"/>
     <tableColumn id="2" name="命令地址" dataDxfId="10"/>
@@ -908,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,7 +1269,8 @@
     <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -933,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -968,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1010,7 +1359,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -1019,23 +1371,23 @@
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>256</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1044,7 +1396,7 @@
         <v>256</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1055,19 +1407,19 @@
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -1081,7 +1433,7 @@
     <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1126,7 +1478,7 @@
     </row>
     <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -1135,7 +1487,7 @@
         <v>256</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1146,19 +1498,19 @@
     </row>
     <row r="14" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1175,7 +1527,7 @@
     <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1190,7 +1542,7 @@
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1199,25 +1551,25 @@
         <v>256</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="339" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="339" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
@@ -1233,7 +1585,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,9 +1600,9 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1259,13 +1611,13 @@
         <v>256</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1274,28 +1626,28 @@
         <v>256</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1308,9 +1660,9 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1323,9 +1675,9 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1334,25 +1686,1964 @@
         <v>256</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9">
+        <v>32</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="9">
+        <v>80</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="9">
+        <v>80</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9">
+        <v>32</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="9">
+        <v>256</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="12">
+        <v>32</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="9">
+        <v>32</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="11">
+        <v>80</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7">
+        <v>32</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7">
+        <v>32</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="7">
+        <v>80</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="7">
+        <v>80</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="7">
+        <v>32</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="7">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1024</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7">
+        <v>32</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="7">
+        <v>80</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="297" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="7">
+        <v>32</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="9">
+        <v>32</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="7">
+        <v>4</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="297" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="7">
+        <v>32</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="7">
+        <v>80</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="7">
+        <v>4</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="7">
+        <v>32</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="9">
+        <v>32</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="7">
+        <v>80</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="7">
+        <v>4</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="7">
+        <v>32</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="7">
+        <v>32</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7">
+        <v>256</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="7">
+        <v>32</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="9">
+        <v>32</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="7">
+        <v>80</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7">
+        <v>4</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="7">
+        <v>32</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="7">
+        <v>32</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7">
+        <v>256</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="98">
   <si>
     <t>列8</t>
   </si>
@@ -471,7 +471,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取消设备</t>
+    <t>取消分享设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "userid" : "dlklkalk"
+      },
+      {
+         "userid" : "8989uijklkd"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,8 +1302,8 @@
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2386,7 +2429,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
@@ -2510,25 +2553,61 @@
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+    <row r="76" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="7">
+        <v>32</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="E77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="9">
+        <v>32</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="E78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="9">
+        <v>32</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,119 +2617,191 @@
       <c r="H79" s="7"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+    <row r="80" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="7">
+        <v>32</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+    <row r="81" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="9">
+        <v>32</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+    <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="9">
+        <v>32</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+    <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="7">
+        <v>32</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+    <row r="85" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="9">
+        <v>32</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+    <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="7">
+        <v>4</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -356,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=query_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
    "devextend" : "extend",
    "devid" : "jkdjkajk",
@@ -515,6 +511,10 @@
    "retcode" : "0",
    "retmsg" : "Ok"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_deviceinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1302,8 @@
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2137,13 +2137,13 @@
         <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>29</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="52" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>29</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>60</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="56" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>29</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="58" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>60</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>21</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G64" s="7">
         <v>32</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G65" s="7">
         <v>32</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>21</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>12</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G72" s="7">
         <v>32</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G73" s="7">
         <v>32</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="76" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>21</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>12</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="80" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>21</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>12</v>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>29</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="99">
   <si>
     <t>列8</t>
   </si>
@@ -515,6 +515,14 @@
   </si>
   <si>
     <t>/access.cgi?action=query_deviceinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "userid":"xxxxxxxxx"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1310,8 @@
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1355,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1429,18 +1437,6 @@
     </row>
     <row r="6" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="100">
   <si>
     <t>列8</t>
   </si>
@@ -148,6 +148,352 @@
   </si>
   <si>
     <t>/access.cgi?action=user_logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"Ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx",
+    "value":"xxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devextend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devinnerinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devextend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devinnerinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=modify_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "devextend" : "extend",
+   "devid" : "jkdjkajk",
+   "devinnerinfo" : "jkdi893kdsjksjk",
+   "devname" : "yuieuiw",
+   "devpwd" : "pwd",
+   "devtype" : "0",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户绑定的设备关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_device_of_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备绑定的用户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_user_of_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=sharing_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=cancelshared_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消分享设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "userid" : "dlklkalk"
+      },
+      {
+         "userid" : "8989uijklkd"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_deviceinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "userid":"xxxxxxxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "userid":"xxxxxxxxx"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,356 +519,12 @@
    "retcode" : "0",
    "retmsg" : "Ok",
    "sid" : "jkjkdjk89892s",
-   "userid" : "yudyuayuyudyuabn",
-   "value" : "xx"
+   "userid" : "yudyuayuyudyuabn"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "userid":"xxxxxxxxx",
- "value":"xxxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "retcode":"0",
-    "retmsg":"Ok",
-    "userid":"xxxx",
-    "username":"xxxx",
-    "type":"xx",          "createdate":"xx",
-    "extend":"xxxx",
-    "value":"xxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=add_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devextend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devinnerinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devextend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devinnerinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=delete_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=modify_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"-1",
- "retmsg":"Inner failed"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "devextend" : "extend",
-   "devid" : "jkdjkajk",
-   "devinnerinfo" : "jkdi893kdsjksjk",
-   "devname" : "yuieuiw",
-   "devpwd" : "pwd",
-   "devtype" : "0",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户绑定的设备关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_device_of_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "value" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "value" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询设备绑定的用户关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_user_of_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "value" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "value" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=sharing_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begindate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=cancelshared_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消分享设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=add_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=delete_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "userid" : "dlklkalk"
-      },
-      {
-         "userid" : "8989uijklkd"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_deviceinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "userid":"xxxxxxxxx"
-}</t>
+    <t>username/userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:H6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,7 +1322,7 @@
     <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1374,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1444,7 +1446,7 @@
       <c r="I7" s="1"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1516,18 +1518,6 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1546,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1597,7 +1587,7 @@
     <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="339" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1608,10 +1598,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1640,33 +1630,9 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1683,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -1734,16 +1700,16 @@
     </row>
     <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -1790,7 +1756,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>12</v>
@@ -1799,7 +1765,7 @@
         <v>80</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,7 +1778,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
@@ -1821,7 +1787,7 @@
         <v>80</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1834,7 +1800,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>12</v>
@@ -1843,7 +1809,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,16 +1822,16 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" s="9">
         <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1878,16 +1844,16 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="G33" s="9">
         <v>256</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1900,16 +1866,16 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="9">
         <v>1024</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1921,28 +1887,28 @@
     </row>
     <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="12">
+        <v>32</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="12">
-        <v>32</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -1955,16 +1921,16 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="9">
         <v>32</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1973,16 +1939,16 @@
     </row>
     <row r="38" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38" s="11">
         <v>80</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -1991,16 +1957,16 @@
     </row>
     <row r="40" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>29</v>
@@ -2018,67 +1984,67 @@
     </row>
     <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="7">
+        <v>32</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="7">
-        <v>32</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G42" s="7">
         <v>80</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G43" s="7">
         <v>80</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="7">
         <v>32</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -2087,37 +2053,37 @@
         <v>2</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7">
         <v>256</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="7">
         <v>1024</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -2130,16 +2096,16 @@
     </row>
     <row r="49" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>29</v>
@@ -2157,16 +2123,16 @@
     </row>
     <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7">
         <v>80</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -2175,16 +2141,16 @@
     </row>
     <row r="52" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>29</v>
@@ -2202,25 +2168,25 @@
     </row>
     <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G53" s="9">
         <v>32</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7">
         <v>4</v>
@@ -2239,16 +2205,16 @@
     </row>
     <row r="56" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>29</v>
@@ -2266,25 +2232,25 @@
     </row>
     <row r="57" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7">
         <v>80</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G58" s="7">
         <v>4</v>
@@ -2303,16 +2269,16 @@
     </row>
     <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>29</v>
@@ -2330,37 +2296,37 @@
     </row>
     <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G61" s="9">
         <v>32</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G62" s="7">
         <v>80</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>12</v>
@@ -2375,31 +2341,31 @@
     </row>
     <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G64" s="7">
         <v>32</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G65" s="7">
         <v>32</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -2427,16 +2393,16 @@
     </row>
     <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>29</v>
@@ -2454,37 +2420,37 @@
     </row>
     <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G69" s="9">
         <v>32</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G70" s="7">
         <v>80</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>12</v>
@@ -2499,31 +2465,31 @@
     </row>
     <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G72" s="7">
         <v>32</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G73" s="7">
         <v>32</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -2551,16 +2517,16 @@
     </row>
     <row r="76" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>29</v>
@@ -2593,7 +2559,7 @@
     </row>
     <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>12</v>
@@ -2615,16 +2581,16 @@
     </row>
     <row r="80" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>29</v>
@@ -2657,7 +2623,7 @@
     </row>
     <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>12</v>
@@ -2679,16 +2645,16 @@
     </row>
     <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>29</v>
@@ -2721,7 +2687,7 @@
     </row>
     <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>列8</t>
   </si>
@@ -154,18 +154,6 @@
     <t>{
    "retcode" : "0",
    "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "retcode":"0",
-    "retmsg":"Ok",
-    "userid":"xxxx",
-    "username":"xxxx",
-    "type":"xx",          "createdate":"xx",
-    "extend":"xxxx",
-    "value":"xxxx"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +513,17 @@
   </si>
   <si>
     <t>username/userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"Ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,8 +1311,8 @@
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1457,7 +1456,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1525,7 +1524,7 @@
       <c r="I13" s="1"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="123" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1570,18 +1569,6 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,10 +1585,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1700,16 +1687,16 @@
     </row>
     <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -1756,7 +1743,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>12</v>
@@ -1765,7 +1752,7 @@
         <v>80</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,7 +1765,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
@@ -1787,7 +1774,7 @@
         <v>80</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1800,7 +1787,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>12</v>
@@ -1809,7 +1796,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1822,16 +1809,16 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="9">
         <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,16 +1831,16 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="9">
         <v>256</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1866,16 +1853,16 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="G34" s="9">
         <v>1024</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1887,28 +1874,28 @@
     </row>
     <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="12">
         <v>32</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -1921,16 +1908,16 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="9">
+        <v>32</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="9">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1939,16 +1926,16 @@
     </row>
     <row r="38" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="G38" s="11">
         <v>80</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -1957,10 +1944,10 @@
     </row>
     <row r="40" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>21</v>
@@ -1984,67 +1971,67 @@
     </row>
     <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7">
+        <v>32</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G41" s="7">
-        <v>32</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="7">
         <v>80</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="7">
         <v>80</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="7">
+        <v>32</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="7">
-        <v>32</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -2053,37 +2040,37 @@
         <v>2</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="7">
         <v>256</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="7">
         <v>1024</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -2096,16 +2083,16 @@
     </row>
     <row r="49" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>29</v>
@@ -2123,16 +2110,16 @@
     </row>
     <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" s="7">
         <v>80</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -2141,16 +2128,16 @@
     </row>
     <row r="52" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>29</v>
@@ -2168,25 +2155,25 @@
     </row>
     <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="9">
+        <v>32</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="9">
-        <v>32</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G54" s="7">
         <v>4</v>
@@ -2205,16 +2192,16 @@
     </row>
     <row r="56" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>29</v>
@@ -2232,25 +2219,25 @@
     </row>
     <row r="57" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7">
         <v>80</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="7">
         <v>4</v>
@@ -2269,10 +2256,10 @@
     </row>
     <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>21</v>
@@ -2296,37 +2283,37 @@
     </row>
     <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="9">
+        <v>32</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" s="9">
-        <v>32</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" s="7">
         <v>80</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>12</v>
@@ -2341,31 +2328,31 @@
     </row>
     <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="G64" s="7">
         <v>32</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" s="7">
         <v>32</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -2393,10 +2380,10 @@
     </row>
     <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>21</v>
@@ -2420,37 +2407,37 @@
     </row>
     <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="9">
+        <v>32</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" s="9">
-        <v>32</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70" s="7">
         <v>80</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>12</v>
@@ -2465,31 +2452,31 @@
     </row>
     <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="G72" s="7">
         <v>32</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G73" s="7">
         <v>32</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -2517,10 +2504,10 @@
     </row>
     <row r="76" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>21</v>
@@ -2559,7 +2546,7 @@
     </row>
     <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>12</v>
@@ -2581,10 +2568,10 @@
     </row>
     <row r="80" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>21</v>
@@ -2623,7 +2610,7 @@
     </row>
     <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>12</v>
@@ -2645,16 +2632,16 @@
     </row>
     <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>29</v>
@@ -2687,7 +2674,7 @@
     </row>
     <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
   <si>
     <t>列8</t>
   </si>
@@ -485,6 +485,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>username/userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"Ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
    "data" : [
       {
@@ -493,7 +508,7 @@
          "enddate" : "2013-08-11",
          "relation" : "0",
          "userid" : "dlklkalk",
-         "value" : "testvalue"
+         "extend" : "testvalue"
       },
       {
          "begindate" : "2010-08-08",
@@ -501,28 +516,13 @@
          "enddate" : "2013-08-11",
          "relation" : "1",
          "userid" : "drtertrty",
-         "value" : "testvalue"
+         "extend" : "testvalue"
       }
    ],
    "retcode" : "0",
    "retmsg" : "Ok",
    "sid" : "jkjkdjk89892s",
    "userid" : "yudyuayuyudyuabn"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username/userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "retcode":"0",
-    "retmsg":"Ok",
-    "userid":"xxxx",
-    "username":"xxxx",
-    "type":"xx",          "createdate":"xx",
-    "extend":"xxxx"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,8 +1311,8 @@
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1585,10 +1585,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1668,18 +1668,6 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="102">
   <si>
     <t>列8</t>
   </si>
@@ -524,6 +524,14 @@
    "sid" : "jkjkdjk89892s",
    "userid" : "yudyuayuyudyuabn"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户握手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=user_shakehand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1009,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L34" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L36" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L36"/>
   <tableColumns count="12">
     <tableColumn id="1" name="命令名称" dataDxfId="11"/>
     <tableColumn id="2" name="命令地址" dataDxfId="10"/>
@@ -1308,11 +1316,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,24 +1678,38 @@
     <row r="25" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1698,49 +1720,36 @@
       <c r="H27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
-        <v>32</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9">
-        <v>80</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1753,16 +1762,16 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,16 +1784,16 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1797,13 +1806,13 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>38</v>
@@ -1819,13 +1828,13 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G33" s="9">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>39</v>
@@ -1841,16 +1850,16 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G34" s="9">
-        <v>1024</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1858,144 +1867,158 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="9">
+        <v>256</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="12">
-        <v>32</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="G38" s="12">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="9">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="G39" s="9">
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="11" t="s">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G40" s="11">
         <v>80</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7">
-        <v>32</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7">
+        <v>32</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="7">
-        <v>32</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="7">
-        <v>80</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>58</v>
@@ -2004,28 +2027,28 @@
     </row>
     <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>58</v>
@@ -2034,13 +2057,13 @@
     </row>
     <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G46" s="7">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>61</v>
@@ -2049,122 +2072,122 @@
     </row>
     <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="7">
+        <v>256</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G49" s="7">
         <v>1024</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="7">
-        <v>32</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="F51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7">
+        <v>32</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="7" t="s">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G52" s="7">
         <v>80</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="297" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="297" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="7">
-        <v>32</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="9">
-        <v>32</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F54" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G54" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>13</v>
@@ -2172,33 +2195,29 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="E55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="9">
+        <v>32</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="297" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>77</v>
-      </c>
+    <row r="56" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G56" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>13</v>
@@ -2206,29 +2225,33 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="7">
-        <v>80</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="297" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G58" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>13</v>
@@ -2236,33 +2259,29 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="7">
+        <v>80</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="60" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G60" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>13</v>
@@ -2270,59 +2289,63 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7">
+        <v>32</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G61" s="9">
-        <v>32</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="G63" s="9">
+        <v>32</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="7">
-        <v>80</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="7">
-        <v>4</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G64" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>58</v>
@@ -2331,122 +2354,122 @@
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G65" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="7">
+        <v>32</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="7">
+        <v>32</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="7">
+      <c r="F68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="7">
         <v>256</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="7">
-        <v>32</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="F70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="7">
+        <v>32</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="9" t="s">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="9">
-        <v>32</v>
-      </c>
-      <c r="H69" s="9" t="s">
+      <c r="G71" s="9">
+        <v>32</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G70" s="7">
-        <v>80</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="7">
-        <v>4</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G72" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>58</v>
@@ -2455,220 +2478,220 @@
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G73" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="7">
+        <v>32</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="7">
+        <v>32</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="F76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="7">
         <v>256</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E78" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="7">
-        <v>32</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="F78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="7">
+        <v>32</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="9" t="s">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="9">
-        <v>32</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9">
+        <v>32</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="9" t="s">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="9">
-        <v>32</v>
-      </c>
-      <c r="H78" s="9" t="s">
+      <c r="F80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="9">
+        <v>32</v>
+      </c>
+      <c r="H80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="7">
-        <v>32</v>
-      </c>
-      <c r="H80" s="7" t="s">
+      <c r="F82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7">
+        <v>32</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="9" t="s">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="9">
-        <v>32</v>
-      </c>
-      <c r="H81" s="9" t="s">
+      <c r="F83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="9">
+        <v>32</v>
+      </c>
+      <c r="H83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="9" t="s">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="9">
-        <v>32</v>
-      </c>
-      <c r="H82" s="9" t="s">
+      <c r="F84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="9">
+        <v>32</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="7">
-        <v>32</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="9">
-        <v>32</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>13</v>
@@ -2676,17 +2699,33 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="E87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="9">
+        <v>32</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="7">
+        <v>4</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3731,6 +3770,20 @@
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
   <si>
     <t>列8</t>
   </si>
@@ -304,19 +304,6 @@
   </si>
   <si>
     <t>查询设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "devextend" : "extend",
-   "devid" : "jkdjkajk",
-   "devinnerinfo" : "jkdi893kdsjksjk",
-   "devname" : "yuieuiw",
-   "devpwd" : "pwd",
-   "devtype" : "0",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,6 +519,25 @@
   </si>
   <si>
     <t>/access.cgi?action=user_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "createdate" : "2017-02-07 11:00:39",
+   "devextend" : "test_extend1",
+   "devid" : "test_device_id1",
+   "devinnerinfo" : "dGVzdF9pbm5lcmluZm8x",
+   "devname" : "test_device1",
+   "devpwd" : "test_pwd1",
+   "devtype" : "3",
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "status" : "0"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,8 +1325,8 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26:H27"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1464,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1543,7 +1549,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1593,10 +1599,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1680,10 +1686,10 @@
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>21</v>
@@ -2051,7 +2057,7 @@
         <v>80</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I45" s="1"/>
     </row>
@@ -2081,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -2122,18 +2128,18 @@
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>29</v>
@@ -2169,16 +2175,16 @@
     </row>
     <row r="54" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>29</v>
@@ -2211,7 +2217,7 @@
     </row>
     <row r="56" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>57</v>
@@ -2233,16 +2239,16 @@
     </row>
     <row r="58" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>29</v>
@@ -2275,7 +2281,7 @@
     </row>
     <row r="60" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>57</v>
@@ -2297,10 +2303,10 @@
     </row>
     <row r="62" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>21</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>12</v>
@@ -2369,10 +2375,10 @@
     </row>
     <row r="66" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G66" s="7">
         <v>32</v>
@@ -2384,10 +2390,10 @@
     </row>
     <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" s="7">
         <v>32</v>
@@ -2421,10 +2427,10 @@
     </row>
     <row r="70" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>21</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>12</v>
@@ -2493,10 +2499,10 @@
     </row>
     <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G74" s="7">
         <v>32</v>
@@ -2508,10 +2514,10 @@
     </row>
     <row r="75" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" s="7">
         <v>32</v>
@@ -2545,10 +2551,10 @@
     </row>
     <row r="78" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>21</v>
@@ -2587,7 +2593,7 @@
     </row>
     <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>12</v>
@@ -2609,10 +2615,10 @@
     </row>
     <row r="82" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>21</v>
@@ -2651,7 +2657,7 @@
     </row>
     <row r="84" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>12</v>
@@ -2673,16 +2679,16 @@
     </row>
     <row r="86" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>29</v>
@@ -2715,7 +2721,7 @@
     </row>
     <row r="88" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
   <si>
     <t>列8</t>
   </si>
@@ -538,6 +538,10 @@
    "retmsg" : "Ok",
    "status" : "0"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid_shared</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,8 +1329,8 @@
   <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2328,48 +2332,51 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="9">
+        <v>32</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="9">
-        <v>32</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="G64" s="9">
+        <v>32</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G64" s="7">
-        <v>80</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G65" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -2404,18 +2411,10 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="7">
-        <v>256</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
   <si>
     <t>列8</t>
   </si>
@@ -100,10 +100,6 @@
  "retcode":"-1",
  "retmsg":"Inner failed"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,10 +378,6 @@
   </si>
   <si>
     <t>/access.cgi?action=sharing_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,6 +534,13 @@
   </si>
   <si>
     <t>userid_shared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1441,7 +1440,7 @@
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -1465,19 +1464,19 @@
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -1491,7 +1490,7 @@
     <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1544,19 +1543,19 @@
     </row>
     <row r="14" spans="1:12" ht="123" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1573,7 +1572,7 @@
     <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1594,19 +1593,19 @@
     </row>
     <row r="18" spans="1:12" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1645,19 +1644,19 @@
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1672,7 +1671,7 @@
     </row>
     <row r="24" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1690,19 +1689,19 @@
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -1719,7 +1718,7 @@
     <row r="27" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1738,19 +1737,19 @@
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -1772,7 +1771,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
@@ -1794,7 +1793,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>12</v>
@@ -1803,7 +1802,7 @@
         <v>80</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1816,7 +1815,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>12</v>
@@ -1825,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,7 +1837,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>12</v>
@@ -1847,7 +1846,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1860,16 +1859,16 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="9">
         <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1882,16 +1881,16 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="9">
         <v>256</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1904,16 +1903,16 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="G36" s="9">
         <v>1024</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1925,28 +1924,28 @@
     </row>
     <row r="38" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="12">
         <v>32</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -1959,16 +1958,16 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="9">
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="9">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1977,16 +1976,16 @@
     </row>
     <row r="40" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G40" s="11">
         <v>80</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -1995,19 +1994,19 @@
     </row>
     <row r="42" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
@@ -2022,40 +2021,40 @@
     </row>
     <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7">
+        <v>32</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G43" s="7">
-        <v>32</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="7">
         <v>80</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7">
         <v>80</v>
@@ -2067,22 +2066,22 @@
     </row>
     <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="7">
+        <v>32</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="7">
-        <v>32</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
@@ -2091,37 +2090,37 @@
         <v>2</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="7">
         <v>256</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="7">
         <v>1024</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -2134,19 +2133,19 @@
     </row>
     <row r="51" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>12</v>
@@ -2161,16 +2160,16 @@
     </row>
     <row r="52" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G52" s="7">
         <v>80</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="1"/>
     </row>
@@ -2179,19 +2178,19 @@
     </row>
     <row r="54" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
@@ -2206,25 +2205,25 @@
     </row>
     <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="9">
+        <v>32</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="9">
-        <v>32</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="7">
         <v>4</v>
@@ -2243,19 +2242,19 @@
     </row>
     <row r="58" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>12</v>
@@ -2270,25 +2269,25 @@
     </row>
     <row r="59" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="7">
         <v>80</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G60" s="7">
         <v>4</v>
@@ -2307,19 +2306,19 @@
     </row>
     <row r="62" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>12</v>
@@ -2337,7 +2336,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>12</v>
@@ -2352,61 +2351,61 @@
     </row>
     <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G64" s="9">
         <v>32</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G65" s="7">
         <v>80</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G66" s="7">
         <v>32</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G67" s="7">
         <v>32</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I67" s="1"/>
     </row>
@@ -2426,19 +2425,19 @@
     </row>
     <row r="70" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
@@ -2453,146 +2452,150 @@
     </row>
     <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="9">
+        <v>32</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="9">
-        <v>32</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="7">
-        <v>80</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>58</v>
+      <c r="E72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="9">
+        <v>32</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="7">
+        <v>80</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="7">
-        <v>4</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="G75" s="7">
+        <v>32</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="7">
-        <v>32</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="7">
-        <v>32</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="E76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="7">
-        <v>256</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>17</v>
+      <c r="G76" s="9">
+        <v>32</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="E77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="9">
+        <v>32</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="D79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="7">
-        <v>32</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="9">
-        <v>32</v>
-      </c>
-      <c r="H79" s="9" t="s">
+      <c r="G79" s="7">
+        <v>32</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="9" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>12</v>
@@ -2606,57 +2609,57 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="E81" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="9">
+        <v>32</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="D83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="7">
-        <v>32</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="9">
-        <v>32</v>
-      </c>
-      <c r="H83" s="9" t="s">
+      <c r="G83" s="7">
+        <v>32</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="9" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>12</v>
@@ -2670,67 +2673,39 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="7">
+        <v>4</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="7">
-        <v>32</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="9">
-        <v>32</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="7">
-        <v>4</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3768,27 +3743,6 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="http用户管理接口" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
   <si>
     <t>列8</t>
   </si>
@@ -543,12 +543,20 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>命令类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +576,15 @@
       <color rgb="FF555555"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -702,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -729,11 +746,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -949,26 +1003,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1018,21 +1052,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L36" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L36"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="命令名称" dataDxfId="11"/>
-    <tableColumn id="2" name="命令地址" dataDxfId="10"/>
-    <tableColumn id="12" name="返回报文（失败）" dataDxfId="9"/>
-    <tableColumn id="7" name="返回报文（成功）" dataDxfId="8"/>
-    <tableColumn id="3" name="参数字段" dataDxfId="7"/>
-    <tableColumn id="4" name="参数类型" dataDxfId="6"/>
-    <tableColumn id="5" name="参数大小" dataDxfId="5"/>
-    <tableColumn id="6" name="是否必选" dataDxfId="4"/>
-    <tableColumn id="8" name="列8" dataDxfId="3"/>
-    <tableColumn id="9" name="列9" dataDxfId="2"/>
-    <tableColumn id="10" name="列10" dataDxfId="1"/>
-    <tableColumn id="11" name="列11" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M36" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:M36"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="命令名称" dataDxfId="0"/>
+    <tableColumn id="13" name="命令类型" dataDxfId="1"/>
+    <tableColumn id="2" name="命令地址" dataDxfId="12"/>
+    <tableColumn id="12" name="返回报文（失败）" dataDxfId="11"/>
+    <tableColumn id="7" name="返回报文（成功）" dataDxfId="10"/>
+    <tableColumn id="3" name="参数字段" dataDxfId="9"/>
+    <tableColumn id="4" name="参数类型" dataDxfId="8"/>
+    <tableColumn id="5" name="参数大小" dataDxfId="7"/>
+    <tableColumn id="6" name="是否必选" dataDxfId="6"/>
+    <tableColumn id="8" name="列8" dataDxfId="5"/>
+    <tableColumn id="9" name="列9" dataDxfId="4"/>
+    <tableColumn id="10" name="列10" dataDxfId="3"/>
+    <tableColumn id="11" name="列11" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,2424 +1360,2493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L236"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="1" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E4" s="1" t="s">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="1" t="s">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>256</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="I7" s="1"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="4"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="4"/>
+      <c r="J7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="E9" s="1" t="s">
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4"/>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="1" t="s">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="1" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="I13" s="1"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="123" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="123" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="E15" s="1" t="s">
+      <c r="J14" s="1"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="1">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="1" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="1">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="1">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="1" t="s">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="1">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="1">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="1">
-        <v>32</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="E27" s="1" t="s">
+      <c r="J26" s="1"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4"/>
+      <c r="F27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="1">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="1">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="J27" s="1"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1">
-        <v>32</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="9">
-        <v>32</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="9">
+        <v>32</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H31" s="9">
         <v>80</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>80</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="9">
-        <v>32</v>
-      </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="9">
+        <v>32</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>2</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>256</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>1024</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="12">
-        <v>32</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="12">
+        <v>32</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="9">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="9">
+        <v>32</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="11" t="s">
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="11">
+      <c r="H40" s="11">
         <v>80</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="7">
-        <v>32</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>32</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="7" t="s">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="7">
-        <v>32</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>32</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="7" t="s">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>80</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="7" t="s">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>80</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="7" t="s">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="7">
-        <v>32</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="7">
+        <v>32</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="7" t="s">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>2</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="7" t="s">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>256</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="7" t="s">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>1024</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="7"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="189" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="I50" s="7"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="7">
-        <v>32</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="7">
+        <v>32</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="7" t="s">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>80</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="297" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A54" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="7">
-        <v>32</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="7">
+        <v>32</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="9" t="s">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="9">
-        <v>32</v>
-      </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="9">
+        <v>32</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="7" t="s">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>4</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="7"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="297" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+      <c r="I57" s="7"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A58" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="7">
-        <v>32</v>
-      </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="7">
+        <v>32</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="7" t="s">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="7">
+      <c r="H59" s="7">
         <v>80</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="7" t="s">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="7">
+      <c r="H60" s="7">
         <v>4</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="7"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="I61" s="7"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A62" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="7">
-        <v>32</v>
-      </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="7">
+        <v>32</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="6"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6"/>
+      <c r="F63" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="9">
-        <v>32</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="9">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="9" t="s">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="9">
-        <v>32</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="9">
+        <v>32</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="7" t="s">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H65" s="7">
         <v>80</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="7" t="s">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="7">
-        <v>32</v>
-      </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="7">
+        <v>32</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="7" t="s">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="7">
-        <v>32</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="7">
+        <v>32</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="7"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="I69" s="7"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A70" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="7">
-        <v>32</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="7">
+        <v>32</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="9" t="s">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="9">
-        <v>32</v>
-      </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="9">
+        <v>32</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="9" t="s">
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="9">
-        <v>32</v>
-      </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="9">
+        <v>32</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="7" t="s">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="7">
+      <c r="H73" s="7">
         <v>80</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="7"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+      <c r="I74" s="7"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A75" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="7">
-        <v>32</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="7">
+        <v>32</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="9" t="s">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="9">
-        <v>32</v>
-      </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="9">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="9" t="s">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="9">
-        <v>32</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="7"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
+      <c r="I78" s="7"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A79" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="7">
-        <v>32</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="7">
+        <v>32</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="9" t="s">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="9">
-        <v>32</v>
-      </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="9">
+        <v>32</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="9" t="s">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="9">
-        <v>32</v>
-      </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="9">
+        <v>32</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="7"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
+      <c r="I82" s="7"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A83" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="7">
-        <v>32</v>
-      </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="7">
+        <v>32</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E84" s="9" t="s">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="9">
-        <v>32</v>
-      </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="9">
+        <v>32</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="7" t="s">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="7">
+      <c r="H85" s="7">
         <v>4</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="7"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E91" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E93" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E94" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E96" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E97" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E102" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E106" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E112" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E114" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E115" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E117" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E118" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E153" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E154" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E155" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E156" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E158" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E162" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E163" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E164" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E165" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E166" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E167" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E168" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E169" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E170" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E171" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E172" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E173" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
-      <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E174" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E175" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E176" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E177" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E178" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E179" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E180" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E181" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E182" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E183" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E184" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E185" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E186" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E187" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E188" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E189" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
-      <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E190" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E191" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E192" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E193" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E194" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E195" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E196" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E197" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E198" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E199" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E200" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E201" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E202" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
-      <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E203" s="7"/>
+      <c r="I202" s="7"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
-      <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E204" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
-      <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E205" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
-      <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E206" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
-      <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E207" s="7"/>
+      <c r="I206" s="7"/>
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
-      <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E208" s="7"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
-      <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E209" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
-      <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E210" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
-      <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E211" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
-      <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E212" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
-      <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E213" s="7"/>
+      <c r="I212" s="7"/>
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
-      <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E214" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
-      <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E215" s="7"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
-      <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E216" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
-      <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E217" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
-      <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E218" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
-      <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E219" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
-      <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E220" s="7"/>
+      <c r="I219" s="7"/>
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
-      <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E221" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
-      <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E222" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
-      <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E223" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
-      <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E224" s="7"/>
+      <c r="I223" s="7"/>
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
-      <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E225" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
-      <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E226" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
-      <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E227" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E228" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E229" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E230" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
-      <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E231" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E232" s="7"/>
+      <c r="I231" s="7"/>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
-      <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E233" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
-      <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E234" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
-      <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E235" s="7"/>
+      <c r="I234" s="7"/>
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
-      <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="5:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E236" s="7"/>
+      <c r="I235" s="7"/>
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
-      <c r="I236" s="1"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="http用户管理接口" sheetId="1" r:id="rId1"/>
+    <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
+    <sheet name="http用户管理接口" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>列8</t>
   </si>
@@ -549,6 +550,42 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST http://172.20.122.252/access.cgi?action=register_user HTTP/1.1
+User-Agent: curl/7.19.7 (x86_64-redhat-linux-gnu) libcurl/7.19.7 NSS/3.21 Basic ECC zlib/1.2.3 libidn/1.18 libssh2/1.4.2
+Host: 172.20.122.252
+Accept: */*
+Connection: Keep-Alive
+Content-Length: 443
+Expect: 100-continue
+Content-Type: multipart/form-data; boundary=----------------------------bb6616565040
+------------------------------bb6616565040
+Content-Disposition: form-data; name="username"
+yinbin
+------------------------------bb6616565040
+Content-Disposition: form-data; name="userpwd"
+ppp
+------------------------------bb6616565040
+Content-Disposition: form-data; name="type"
+1
+------------------------------bb6616565040
+Content-Disposition: form-data; name="value"
+payload
+------------------------------bb6616565040--
+HTTP/1.1 200 OK
+Server: nginx/1.10.2
+Date: Thu, 12 Jan 2017 05:49:22 GMT
+Content-Type: text/html
+Connection: keep-alive
+Content-Length: 63
+{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "userid":"123456",
+ "value":"xx"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -754,40 +791,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1018,6 +1029,35 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1055,19 +1095,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M36" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:M36"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="命令名称" dataDxfId="0"/>
-    <tableColumn id="13" name="命令类型" dataDxfId="1"/>
-    <tableColumn id="2" name="命令地址" dataDxfId="12"/>
-    <tableColumn id="12" name="返回报文（失败）" dataDxfId="11"/>
-    <tableColumn id="7" name="返回报文（成功）" dataDxfId="10"/>
-    <tableColumn id="3" name="参数字段" dataDxfId="9"/>
-    <tableColumn id="4" name="参数类型" dataDxfId="8"/>
-    <tableColumn id="5" name="参数大小" dataDxfId="7"/>
-    <tableColumn id="6" name="是否必选" dataDxfId="6"/>
-    <tableColumn id="8" name="列8" dataDxfId="5"/>
-    <tableColumn id="9" name="列9" dataDxfId="4"/>
-    <tableColumn id="10" name="列10" dataDxfId="3"/>
-    <tableColumn id="11" name="列11" dataDxfId="2"/>
+    <tableColumn id="1" name="命令名称" dataDxfId="12"/>
+    <tableColumn id="13" name="命令类型" dataDxfId="11"/>
+    <tableColumn id="2" name="命令地址" dataDxfId="10"/>
+    <tableColumn id="12" name="返回报文（失败）" dataDxfId="9"/>
+    <tableColumn id="7" name="返回报文（成功）" dataDxfId="8"/>
+    <tableColumn id="3" name="参数字段" dataDxfId="7"/>
+    <tableColumn id="4" name="参数类型" dataDxfId="6"/>
+    <tableColumn id="5" name="参数大小" dataDxfId="5"/>
+    <tableColumn id="6" name="是否必选" dataDxfId="4"/>
+    <tableColumn id="8" name="列8" dataDxfId="3"/>
+    <tableColumn id="9" name="列9" dataDxfId="2"/>
+    <tableColumn id="10" name="列10" dataDxfId="1"/>
+    <tableColumn id="11" name="列11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1360,9 +1400,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:N45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:N45"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
   <si>
     <t>列8</t>
   </si>
@@ -585,6 +585,25 @@
  "retmsg":"Ok",
  "userid":"123456",
  "value":"xx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=modify_userinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,8 +1111,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M36" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:M36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M43" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:M43"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="12"/>
     <tableColumn id="13" name="命令类型" dataDxfId="11"/>
@@ -1402,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -2046,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2325,29 +2344,48 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>96</v>
-      </c>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -2359,10 +2397,15 @@
         <v>13</v>
       </c>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="8"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -2371,85 +2414,115 @@
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="8"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
+        <v>256</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="8"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="J23" s="1"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1">
-        <v>32</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1">
-        <v>32</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
+    <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -2461,217 +2534,143 @@
         <v>13</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="4"/>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J27" s="1"/>
-      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H36" s="1">
         <v>32</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9">
-        <v>32</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="9">
-        <v>80</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9">
-        <v>80</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="9">
-        <v>32</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="9">
-        <v>256</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="9">
-        <v>1024</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2679,40 +2678,50 @@
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="12">
+      <c r="A37" s="19"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="9">
         <v>32</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="I37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9">
+        <v>80</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
@@ -2721,16 +2730,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H39" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2738,198 +2747,237 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="11" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="9">
+        <v>32</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="9">
+        <v>2</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="9">
+        <v>256</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1024</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="12">
+        <v>32</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="9">
+        <v>32</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H47" s="11">
         <v>80</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B49" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H49" s="7">
         <v>32</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="7" t="s">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H50" s="7">
         <v>32</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="7" t="s">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H51" s="7">
         <v>80</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="7">
-        <v>80</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="7">
-        <v>32</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="7">
-        <v>2</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="7">
-        <v>256</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="189" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="7">
-        <v>32</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F52" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>56</v>
@@ -2938,70 +2986,67 @@
         <v>80</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="7">
+        <v>32</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A54" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>72</v>
-      </c>
+    <row r="54" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F54" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="9">
-        <v>32</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>50</v>
+      <c r="F55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="7">
+        <v>256</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -3012,21 +3057,21 @@
       <c r="I57" s="7"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A58" s="21" t="s">
-        <v>73</v>
+    <row r="58" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A58" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>74</v>
+      <c r="C58" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>28</v>
@@ -3058,114 +3103,114 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="7" t="s">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A61" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="7">
+        <v>32</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="9">
+        <v>32</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H63" s="7">
         <v>4</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A62" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="16" t="s">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A65" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H65" s="7">
         <v>32</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="9">
-        <v>32</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="9">
-        <v>32</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F65" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H65" s="7">
-        <v>80</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H66" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>57</v>
@@ -3174,16 +3219,16 @@
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H67" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -3194,46 +3239,57 @@
       <c r="I68" s="7"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+    <row r="69" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="7">
+        <v>32</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="7" t="s">
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="9">
         <v>32</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="9" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>45</v>
@@ -3247,29 +3303,29 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="9">
-        <v>32</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>50</v>
+      <c r="F72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="7">
+        <v>80</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H73" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>57</v>
@@ -3277,179 +3333,164 @@
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="7">
+        <v>32</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A77" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="7">
+        <v>32</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="9">
+        <v>32</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="7">
+        <v>80</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A82" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B82" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H82" s="7">
         <v>32</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I82" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F76" s="9" t="s">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H83" s="9">
         <v>32</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F77" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="9">
-        <v>32</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A79" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="7">
-        <v>32</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="9">
-        <v>32</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="9">
-        <v>32</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" ht="162" x14ac:dyDescent="0.15">
-      <c r="A83" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="7">
-        <v>32</v>
-      </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F84" s="9" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>12</v>
@@ -3463,39 +3504,70 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G85" s="7" t="s">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A86" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="7">
-        <v>4</v>
-      </c>
-      <c r="I85" s="7" t="s">
+      <c r="H86" s="7">
+        <v>32</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+      <c r="F87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="9">
+        <v>32</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="F88" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="9">
+        <v>32</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3505,25 +3577,64 @@
       <c r="I89" s="7"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+    <row r="90" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A90" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="7">
+        <v>32</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
+      <c r="F91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="9">
+        <v>32</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="7">
+        <v>4</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,6 +4644,55 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
       <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="7"/>
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
     <sheet name="http用户管理接口" sheetId="1" r:id="rId2"/>
+    <sheet name="http设备管理接口" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="114">
   <si>
     <t>列8</t>
   </si>
@@ -604,6 +605,28 @@
     <t>{
  "retcode":"0",
  "retmsg":"Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询p2p服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_p2pserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "p2pserver" : "jkdjksjk",
+   "p2pid" : "798989",
+   "lease" : "24",
+   "retcode" : "0",
+   "retmsg" : "Ok"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,7 +840,286 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1111,8 +1413,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M43" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M43" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:M43"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="命令名称" dataDxfId="26"/>
+    <tableColumn id="13" name="命令类型" dataDxfId="25"/>
+    <tableColumn id="2" name="命令地址" dataDxfId="24"/>
+    <tableColumn id="12" name="返回报文（失败）" dataDxfId="23"/>
+    <tableColumn id="7" name="返回报文（成功）" dataDxfId="22"/>
+    <tableColumn id="3" name="参数字段" dataDxfId="21"/>
+    <tableColumn id="4" name="参数类型" dataDxfId="20"/>
+    <tableColumn id="5" name="参数大小" dataDxfId="19"/>
+    <tableColumn id="6" name="是否必选" dataDxfId="18"/>
+    <tableColumn id="8" name="列8" dataDxfId="17"/>
+    <tableColumn id="9" name="列9" dataDxfId="16"/>
+    <tableColumn id="10" name="列10" dataDxfId="15"/>
+    <tableColumn id="11" name="列11" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:M12" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="12"/>
     <tableColumn id="13" name="命令类型" dataDxfId="11"/>
@@ -2067,9 +2391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3644,25 +3968,64 @@
       <c r="I93" s="7"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+    <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="7">
+        <v>32</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="F95" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="9">
+        <v>32</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="7">
+        <v>80</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,6 +5056,1321 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9">
+        <v>32</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t>列8</t>
   </si>
@@ -628,6 +628,89 @@
    "retcode" : "0",
    "retmsg" : "Ok"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询p2p服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存储服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "address" : "http://xxx/upload_file.cgi?action=upload_file",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storagetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备握手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "jkjkdjk89892s"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_stserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_stserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2389,11 +2472,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:G96"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3970,7 +4053,7 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>110</v>
@@ -4028,112 +4111,167 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="7">
+        <v>32</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="9">
+        <v>32</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+    <row r="101" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="7">
+        <v>2</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+    <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="7">
+        <v>2</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+    <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="7">
+        <v>256</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -5056,6 +5194,20 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
+      <c r="J245" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5073,14 +5225,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
@@ -5129,32 +5281,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="7">
+        <v>80</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1"/>
@@ -5185,13 +5337,13 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -5214,16 +5366,16 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="7">
+        <v>80</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1"/>
@@ -5233,13 +5385,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5265,16 +5417,16 @@
     <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="4"/>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="7">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1"/>
@@ -5291,7 +5443,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
@@ -5314,33 +5466,25 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="9">
-        <v>32</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="7">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5350,112 +5494,167 @@
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
+        <v>256</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
   <si>
     <t>列8</t>
   </si>
@@ -666,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fileid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备握手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +707,41 @@
   </si>
   <si>
     <t>/access.cgi?action=device_query_p2pserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_firmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "firmware_downloadpath" : "http://xxx.downloadxxxx",
+         "fireware_name" : "jks.bin"
+         "firmware_version" : "1.0"
+      },
+      {
+         "firmware_downloadpath" : "http://xxx.downloadxxxx",
+         "fireware_name" : "ma.bin"
+         "firmware_version" : "1.5"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2472,11 +2503,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4133,7 +4164,7 @@
         <v>116</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>117</v>
@@ -4201,53 +4232,95 @@
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="7">
-        <v>256</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+    <row r="105" spans="1:10" ht="243" x14ac:dyDescent="0.15">
+      <c r="A105" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="7">
+        <v>32</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="F106" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="9">
+        <v>32</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H107" s="7">
+        <v>80</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="F108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,20 +5267,6 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="7"/>
-      <c r="J245" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5223,9 +5282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5283,19 +5342,19 @@
     </row>
     <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>36</v>
@@ -5337,13 +5396,13 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -5385,13 +5444,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5443,7 +5502,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
@@ -5502,7 +5561,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>117</v>
@@ -5570,18 +5629,10 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
-        <v>256</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="144">
   <si>
     <t>列8</t>
   </si>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -635,37 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询存储服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"-1",
- "retmsg":"Inner failed"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "address" : "http://xxx/upload_file.cgi?action=upload_file",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storagetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storageaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备握手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,10 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备登出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,14 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=query_stserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=device_query_stserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,6 +676,38 @@
   </si>
   <si>
     <t>/access.cgi?action=query_firmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回报文中lease（租约）单位为小时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,12 +729,78 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "fileid" : "dlklkalk",
+         "name" : "xsddd",
+         "size" : "89",
+         "type" : "jpg",
+         "createdate" : "0"
+      },
+      {
+         "fileid" : "dlklkalk",
+         "name" : "wwmmm",
+         "size" : "339",
+         "type" : "mp4",
+         "createdate" : "0"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=download_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "address" : "http://xxx.xxx.xxx",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,8 +830,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +861,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -912,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,6 +1023,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1539,7 +1621,7 @@
     <tableColumn id="4" name="参数类型" dataDxfId="20"/>
     <tableColumn id="5" name="参数大小" dataDxfId="19"/>
     <tableColumn id="6" name="是否必选" dataDxfId="18"/>
-    <tableColumn id="8" name="列8" dataDxfId="17"/>
+    <tableColumn id="8" name="备注" dataDxfId="17"/>
     <tableColumn id="9" name="列9" dataDxfId="16"/>
     <tableColumn id="10" name="列10" dataDxfId="15"/>
     <tableColumn id="11" name="列11" dataDxfId="14"/>
@@ -1866,630 +1948,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="A7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2503,11 +2585,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115:I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2527,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2551,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2568,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -2577,7 +2659,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2654,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -2663,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
@@ -2738,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -2747,7 +2829,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -2789,19 +2871,19 @@
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
@@ -2930,22 +3012,22 @@
     </row>
     <row r="25" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -2984,19 +3066,19 @@
     </row>
     <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
@@ -3032,19 +3114,19 @@
     </row>
     <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>28</v>
@@ -3084,19 +3166,19 @@
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
@@ -3145,7 +3227,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -3154,7 +3236,7 @@
         <v>80</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3168,7 +3250,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>12</v>
@@ -3177,7 +3259,7 @@
         <v>80</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3191,7 +3273,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3200,7 +3282,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3214,16 +3296,16 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="9">
         <v>2</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3237,16 +3319,16 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" s="9">
         <v>256</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3260,16 +3342,16 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="H43" s="9">
         <v>1024</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3281,31 +3363,31 @@
     </row>
     <row r="45" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="12">
         <v>32</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -3319,16 +3401,16 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="9">
+        <v>32</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="9">
-        <v>32</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3337,16 +3419,16 @@
     </row>
     <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="H47" s="11">
         <v>80</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -3355,19 +3437,19 @@
     </row>
     <row r="49" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>28</v>
@@ -3385,40 +3467,40 @@
     </row>
     <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7">
+        <v>32</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H50" s="7">
-        <v>32</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="7">
         <v>80</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="7">
         <v>80</v>
@@ -3430,22 +3512,22 @@
     </row>
     <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="7">
+        <v>32</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="7">
-        <v>32</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F54" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>12</v>
@@ -3454,37 +3536,37 @@
         <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="7">
         <v>256</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="7">
         <v>1024</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -3497,19 +3579,19 @@
     </row>
     <row r="58" spans="1:10" ht="189" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>28</v>
@@ -3527,16 +3609,16 @@
     </row>
     <row r="59" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F59" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="7">
         <v>80</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -3545,19 +3627,19 @@
     </row>
     <row r="61" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>28</v>
@@ -3575,25 +3657,25 @@
     </row>
     <row r="62" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="9">
+        <v>32</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="9">
-        <v>32</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63" s="7">
         <v>4</v>
@@ -3612,19 +3694,19 @@
     </row>
     <row r="65" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A65" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>28</v>
@@ -3642,25 +3724,25 @@
     </row>
     <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="7">
         <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
@@ -3679,19 +3761,19 @@
     </row>
     <row r="69" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>28</v>
@@ -3727,61 +3809,61 @@
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="9">
         <v>32</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="7">
         <v>80</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H73" s="7">
         <v>32</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H74" s="7">
         <v>32</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3801,19 +3883,19 @@
     </row>
     <row r="77" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>28</v>
@@ -3831,46 +3913,46 @@
     </row>
     <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="9">
-        <v>32</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F79" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79" s="9">
         <v>32</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F80" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="7">
         <v>80</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3883,19 +3965,19 @@
     </row>
     <row r="82" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>28</v>
@@ -3928,7 +4010,7 @@
     </row>
     <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F84" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>12</v>
@@ -3950,19 +4032,19 @@
     </row>
     <row r="86" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A86" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>28</v>
@@ -3995,7 +4077,7 @@
     </row>
     <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F88" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>12</v>
@@ -4017,19 +4099,19 @@
     </row>
     <row r="90" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A90" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>28</v>
@@ -4062,7 +4144,7 @@
     </row>
     <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>12</v>
@@ -4084,19 +4166,19 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>28</v>
@@ -4113,6 +4195,9 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F95" s="9" t="s">
         <v>25</v>
       </c>
@@ -4129,7 +4214,7 @@
     </row>
     <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F96" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>12</v>
@@ -4156,178 +4241,177 @@
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="7" t="s">
+    <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
+      <c r="A101" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G101" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="7">
-        <v>32</v>
-      </c>
-      <c r="I99" s="7" t="s">
+      <c r="H101" s="23">
+        <v>32</v>
+      </c>
+      <c r="I101" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="9" t="s">
+    </row>
+    <row r="102" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="22"/>
+      <c r="F102" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G102" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="9">
-        <v>32</v>
-      </c>
-      <c r="I100" s="9" t="s">
+      <c r="H102" s="25">
+        <v>32</v>
+      </c>
+      <c r="I102" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" s="7" t="s">
+    </row>
+    <row r="103" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="22"/>
+      <c r="F103" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="23">
+        <v>80</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="22"/>
+      <c r="F104" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H104" s="23">
         <v>2</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="I104" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" ht="270" x14ac:dyDescent="0.15">
+      <c r="A106" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="7">
-        <v>2</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" ht="243" x14ac:dyDescent="0.15">
-      <c r="A105" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="H106" s="7">
+        <v>32</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="7">
-        <v>32</v>
-      </c>
-      <c r="I105" s="7" t="s">
+      <c r="H107" s="9">
+        <v>32</v>
+      </c>
+      <c r="I107" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="9">
-        <v>32</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F107" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H107" s="7">
-        <v>80</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H108" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="7">
+        <v>4</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4337,126 +4421,204 @@
       <c r="I110" s="7"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+    <row r="111" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="7">
+        <v>32</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="F112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="9">
+        <v>32</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+    <row r="113" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H113" s="7">
+        <v>256</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+    <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A115" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="7">
+        <v>32</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+    <row r="116" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="9">
+        <v>32</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+    <row r="117" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H117" s="7">
+        <v>256</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -5239,34 +5401,6 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
       <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="7"/>
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="7"/>
-      <c r="J242" s="1"/>
-    </row>
-    <row r="243" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-      <c r="J243" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5280,11 +5414,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5304,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -5342,22 +5476,22 @@
     </row>
     <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -5396,19 +5530,19 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -5426,7 +5560,7 @@
     </row>
     <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -5444,19 +5578,19 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
@@ -5477,7 +5611,7 @@
       <c r="A11" s="18"/>
       <c r="B11" s="4"/>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -5496,19 +5630,19 @@
     </row>
     <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
@@ -5525,8 +5659,11 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>12</v>
@@ -5553,159 +5690,112 @@
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="17" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7">
-        <v>80</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="18" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>37</v>
-      </c>
+    <row r="19" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>37</v>
-      </c>
+    <row r="20" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -6593,34 +6683,6 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="145">
   <si>
     <t>列8</t>
   </si>
@@ -635,14 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok",
-   "sid" : "jkjkdjk89892s"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/access.cgi?action=device_login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,6 +784,18 @@
     <t>{
    "retcode" : "0",
    "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "E3C02029747B79499DF06C559AC12FC6"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2587,9 +2591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115:I117"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -3012,7 +3016,7 @@
     </row>
     <row r="25" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>103</v>
@@ -4196,7 +4200,7 @@
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>25</v>
@@ -4250,7 +4254,7 @@
     </row>
     <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -4260,19 +4264,19 @@
     </row>
     <row r="101" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>122</v>
-      </c>
       <c r="C101" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>101</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>28</v>
@@ -4341,19 +4345,19 @@
     </row>
     <row r="106" spans="1:10" ht="270" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C106" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>28</v>
@@ -4395,7 +4399,7 @@
         <v>80</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J108" s="1"/>
     </row>
@@ -4410,7 +4414,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J109" s="1"/>
     </row>
@@ -4423,19 +4427,19 @@
     </row>
     <row r="111" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>28</v>
@@ -4468,16 +4472,16 @@
     </row>
     <row r="113" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F113" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H113" s="7">
         <v>256</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J113" s="1"/>
     </row>
@@ -4490,19 +4494,19 @@
     </row>
     <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>28</v>
@@ -4535,16 +4539,16 @@
     </row>
     <row r="117" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H117" s="7">
         <v>256</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J117" s="1"/>
     </row>
@@ -5416,9 +5420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5476,19 +5480,19 @@
     </row>
     <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -5506,7 +5510,7 @@
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -5530,13 +5534,13 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -5584,7 +5588,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5636,7 +5640,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
@@ -5660,7 +5664,7 @@
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="144">
   <si>
     <t>列8</t>
   </si>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询p2p服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/access.cgi?action=query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,10 +644,6 @@
   </si>
   <si>
     <t>/access.cgi?action=device_shakehand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -797,6 +789,10 @@
    "retmsg" : "Ok",
    "sid" : "E3C02029747B79499DF06C559AC12FC6"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2592,7 +2588,7 @@
   <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
@@ -2637,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -3016,7 +3012,7 @@
     </row>
     <row r="25" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>103</v>
@@ -4170,19 +4166,19 @@
     </row>
     <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>28</v>
@@ -4200,7 +4196,7 @@
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>25</v>
@@ -4254,7 +4250,7 @@
     </row>
     <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -4264,19 +4260,19 @@
     </row>
     <row r="101" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B101" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>101</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>28</v>
@@ -4345,19 +4341,19 @@
     </row>
     <row r="106" spans="1:10" ht="270" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>28</v>
@@ -4399,7 +4395,7 @@
         <v>80</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J108" s="1"/>
     </row>
@@ -4414,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J109" s="1"/>
     </row>
@@ -4427,19 +4423,19 @@
     </row>
     <row r="111" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>28</v>
@@ -4472,16 +4468,16 @@
     </row>
     <row r="113" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F113" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H113" s="7">
         <v>256</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J113" s="1"/>
     </row>
@@ -4494,19 +4490,19 @@
     </row>
     <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>28</v>
@@ -4539,16 +4535,16 @@
     </row>
     <row r="117" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H117" s="7">
         <v>256</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J117" s="1"/>
     </row>
@@ -5421,8 +5417,8 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5480,19 +5476,19 @@
     </row>
     <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -5510,7 +5506,7 @@
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -5534,13 +5530,13 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -5582,13 +5578,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5634,19 +5630,19 @@
     </row>
     <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
@@ -5664,7 +5660,7 @@
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -2587,9 +2587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5416,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -714,6 +714,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=download_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "address" : "http://xxx.xxx.xxx",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "E3C02029747B79499DF06C559AC12FC6"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_p2pserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
    "data" : [
       {
@@ -721,78 +780,21 @@
          "name" : "xsddd",
          "size" : "89",
          "type" : "jpg",
-         "createdate" : "0"
+         "createdate" : "0",
+         "url" : "http://xxx.xxx"
       },
       {
          "fileid" : "dlklkalk",
          "name" : "wwmmm",
          "size" : "339",
          "type" : "mp4",
-         "createdate" : "0"
+         "createdate" : "0",
+         "url" : "http://xxx.xxx"
       }
    ],
    "retcode" : "0",
    "retmsg" : "Ok"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=download_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "address" : "http://xxx.xxx.xxx",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=delete_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok",
-   "sid" : "E3C02029747B79499DF06C559AC12FC6"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2588,8 +2590,8 @@
   <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4339,7 +4341,7 @@
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" ht="270" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
         <v>126</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>28</v>
@@ -4395,7 +4397,7 @@
         <v>80</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J108" s="1"/>
     </row>
@@ -4410,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J109" s="1"/>
     </row>
@@ -4423,19 +4425,19 @@
     </row>
     <row r="111" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>28</v>
@@ -4471,13 +4473,13 @@
         <v>128</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H113" s="7">
         <v>256</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J113" s="1"/>
     </row>
@@ -4490,19 +4492,19 @@
     </row>
     <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>28</v>
@@ -4538,13 +4540,13 @@
         <v>128</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H117" s="7">
         <v>256</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J117" s="1"/>
     </row>
@@ -5488,7 +5490,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -5506,7 +5508,7 @@
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -5636,7 +5638,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
     <sheet name="http用户管理接口" sheetId="1" r:id="rId2"/>
     <sheet name="http设备管理接口" sheetId="4" r:id="rId3"/>
+    <sheet name="存储推送接口" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="157">
   <si>
     <t>列8</t>
   </si>
@@ -797,12 +798,64 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>添加文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffixname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：用户，1：设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,8 +904,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,8 +941,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -986,11 +1068,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,6 +1127,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2589,9 +2695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5419,8 +5525,8 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6694,4 +6800,210 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="30">
+        <v>80</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="34">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="30">
+        <v>256</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>512</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>256</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="165">
   <si>
     <t>列8</t>
   </si>
@@ -774,22 +774,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffixname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：用户，1：设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businesstype:0，访客记录。
+businesstype:1，路人消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
    "data" : [
       {
          "fileid" : "dlklkalk",
          "name" : "xsddd",
          "size" : "89",
-         "type" : "jpg",
-         "createdate" : "0",
+         "filetype" : "jpg",
+         "businesstype":0,
+         "createdate" : "2010-01-02",
          "url" : "http://xxx.xxx"
       },
       {
          "fileid" : "dlklkalk",
          "name" : "wwmmm",
          "size" : "339",
+         "businesstype":1,
          "type" : "mp4",
-         "createdate" : "0",
+         "createdate" : "2015-08-11",
          "url" : "http://xxx.xxx"
       }
    ],
@@ -799,43 +862,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suffixname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createdate</t>
+    <t>begindate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,11 +870,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=add_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：用户，1：设备</t>
+    <t>enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businesstype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写时，则查询所有类型。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1124,9 +1159,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1140,6 +1172,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2056,630 +2097,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2693,11 +2734,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3789,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -3856,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -4261,7 +4302,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -4335,28 +4376,28 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
         <v>120</v>
       </c>
@@ -4366,7 +4407,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
         <v>118</v>
       </c>
@@ -4395,7 +4436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="22"/>
       <c r="F102" s="25" t="s">
         <v>25</v>
@@ -4410,7 +4451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="22"/>
       <c r="F103" s="23" t="s">
         <v>50</v>
@@ -4425,7 +4466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="22"/>
       <c r="F104" s="23" t="s">
         <v>60</v>
@@ -4440,14 +4481,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" ht="324" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
         <v>126</v>
       </c>
@@ -4461,7 +4502,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>28</v>
@@ -4475,9 +4516,11 @@
       <c r="I106" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J106" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="9" t="s">
         <v>25</v>
       </c>
@@ -4492,7 +4535,7 @@
       </c>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="7" t="s">
         <v>35</v>
       </c>
@@ -4507,7 +4550,7 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F109" s="7" t="s">
         <v>69</v>
       </c>
@@ -4522,31 +4565,24 @@
       </c>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
+    <row r="110" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="7">
+        <v>32</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>134</v>
-      </c>
+    <row r="111" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="7" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>12</v>
@@ -4555,38 +4591,33 @@
         <v>32</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="9">
-        <v>32</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="1"/>
+    <row r="112" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="7">
+        <v>2</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J112" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H113" s="7">
-        <v>256</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4596,21 +4627,21 @@
       <c r="I114" s="7"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>28</v>
@@ -4663,25 +4694,64 @@
       <c r="I118" s="7"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
+    <row r="119" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A119" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="7">
+        <v>32</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
+      <c r="F120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="9">
+        <v>32</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H121" s="7">
+        <v>256</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5510,7 +5580,38 @@
       <c r="I239" s="7"/>
       <c r="J239" s="1"/>
     </row>
+    <row r="240" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J112:K112"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6806,7 +6907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
@@ -6820,107 +6921,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="G2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="29">
+        <v>80</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="33">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="30">
-        <v>80</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="29">
+        <v>256</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="34">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="30">
-        <v>256</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -6929,12 +7030,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -6948,7 +7049,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -6962,7 +7063,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -6976,7 +7077,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -6999,7 +7100,7 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="167">
   <si>
     <t>列8</t>
   </si>
@@ -883,6 +883,14 @@
   </si>
   <si>
     <t>不填写时，则查询所有类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2736,9 +2744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:J110"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5626,7 +5634,7 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6905,11 +6913,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6917,7 +6925,7 @@
     <col min="3" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -7103,6 +7111,23 @@
         <v>153</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="177">
   <si>
     <t>列8</t>
   </si>
@@ -464,17 +464,6 @@
   </si>
   <si>
     <t>username/userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "retcode":"0",
-    "retmsg":"Ok",
-    "userid":"xxxx",
-    "username":"xxxx",
-    "type":"xx",          "createdate":"xx",
-    "extend":"xxxx"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,6 +880,59 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliasname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "retcode":"0",
+    "retmsg":"Ok",
+    "userid":"xxxx",
+    "username":"xxxx",
+    "type":"xx",          "createdate":"xx",
+    "extend":"xxxx",
+    "aliasname":"jak",
+    "email":"yy@163.com"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliasname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olduserpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newuserpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码需要同时提供新老密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,8 +1808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M43" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:M43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M48" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:M48"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="26"/>
     <tableColumn id="13" name="命令类型" dataDxfId="25"/>
@@ -2106,7 +2148,7 @@
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -2742,11 +2784,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:K112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2766,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2790,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -2807,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -2877,80 +2919,86 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="1">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4"/>
       <c r="J8" s="1"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="4"/>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="F11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -2964,86 +3012,80 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="123" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J14" s="1"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8"/>
       <c r="J16" s="1"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>108</v>
-      </c>
+    <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -3056,33 +3098,30 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J18" s="1"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -3091,18 +3130,17 @@
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="8"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -3111,7 +3149,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1"/>
       <c r="M20" s="5"/>
@@ -3122,13 +3160,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>17</v>
@@ -3142,18 +3180,20 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,84 +3201,118 @@
       <c r="B23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
+      <c r="F23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="8"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="J28" s="1"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -3253,7 +3327,7 @@
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -3269,76 +3343,45 @@
     <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="1">
-        <v>32</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="4"/>
-      <c r="F34" s="1" t="s">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="1">
-        <v>32</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -3349,120 +3392,90 @@
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4"/>
+      <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="9">
-        <v>32</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="G39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9">
-        <v>80</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="9">
-        <v>80</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
+      <c r="J39" s="1"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9">
-        <v>32</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="9">
-        <v>2</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>36</v>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3476,16 +3489,16 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H42" s="9">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3499,16 +3512,16 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H43" s="9">
-        <v>1024</v>
+        <v>80</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3516,40 +3529,50 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="12">
-        <v>32</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9">
+        <v>80</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="9">
+        <v>32</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
@@ -3558,16 +3581,16 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H46" s="9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3575,542 +3598,565 @@
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="11" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="9">
+        <v>256</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1024</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="12">
+        <v>32</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="9">
+        <v>32</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H52" s="11">
         <v>80</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B54" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="E54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="7">
-        <v>32</v>
-      </c>
-      <c r="I49" s="7" t="s">
+      <c r="G54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="7">
+        <v>32</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="7" t="s">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="7">
-        <v>32</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="7">
-        <v>80</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="7">
-        <v>80</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F53" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="7">
-        <v>32</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="7">
-        <v>2</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H55" s="7">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H56" s="7">
+        <v>80</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="7">
+        <v>80</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="7">
+        <v>32</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="7">
+        <v>256</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="7">
         <v>1024</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="189" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" ht="189" x14ac:dyDescent="0.15">
+      <c r="A63" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B63" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="E63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="7">
-        <v>32</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="G63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="7">
+        <v>32</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F59" s="7" t="s">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H64" s="7">
         <v>80</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A66" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B66" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="7">
-        <v>32</v>
-      </c>
-      <c r="I61" s="7" t="s">
+      <c r="G66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="7">
+        <v>32</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="9" t="s">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="9">
-        <v>32</v>
-      </c>
-      <c r="I62" s="9" t="s">
+      <c r="H67" s="9">
+        <v>32</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="7" t="s">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H68" s="7">
         <v>4</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A70" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="B70" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="7">
-        <v>32</v>
-      </c>
-      <c r="I65" s="7" t="s">
+      <c r="G70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="7">
+        <v>32</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="7" t="s">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H71" s="7">
         <v>80</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="7">
-        <v>4</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A69" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="7">
-        <v>32</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="9">
-        <v>32</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="9">
-        <v>32</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="7">
+        <v>4</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A74" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="7">
+        <v>32</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="9">
+        <v>32</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="9">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="7">
         <v>80</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="7" t="s">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H73" s="7">
-        <v>32</v>
-      </c>
-      <c r="I73" s="7" t="s">
+      <c r="H78" s="7">
+        <v>32</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F74" s="7" t="s">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="7">
-        <v>32</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="H79" s="7">
+        <v>32</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A77" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="7">
-        <v>32</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="9">
-        <v>32</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F79" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="9">
-        <v>32</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F80" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H80" s="7">
-        <v>80</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4122,16 +4168,16 @@
     </row>
     <row r="82" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>32</v>
@@ -4152,89 +4198,89 @@
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F83" s="9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H83" s="9">
         <v>32</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F84" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H84" s="9">
         <v>32</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="7">
+        <v>80</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A86" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="7" t="s">
+    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A87" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="7">
-        <v>32</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F87" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="9">
-        <v>32</v>
-      </c>
-      <c r="I87" s="9" t="s">
+      <c r="G87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="7">
+        <v>32</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F88" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>12</v>
@@ -4248,563 +4294,610 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="F89" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="9">
+        <v>32</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="162" x14ac:dyDescent="0.15">
-      <c r="A90" s="17" t="s">
+    <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A91" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="7">
+        <v>32</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="9">
+        <v>32</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="9">
+        <v>32</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A95" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="B95" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="7">
-        <v>32</v>
-      </c>
-      <c r="I90" s="7" t="s">
+      <c r="G95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="7">
+        <v>32</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="9" t="s">
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="9">
-        <v>32</v>
-      </c>
-      <c r="I91" s="9" t="s">
+      <c r="G96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="9">
+        <v>32</v>
+      </c>
+      <c r="I96" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="7" t="s">
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="7">
+      <c r="G97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="7">
         <v>4</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="7">
-        <v>32</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="9">
-        <v>32</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="7">
-        <v>80</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="7">
+        <v>32</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="9">
+        <v>32</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:11" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
-      <c r="A101" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" s="23" t="s">
+    <row r="101" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="7">
+        <v>80</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="23">
-        <v>32</v>
-      </c>
-      <c r="I101" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="22"/>
-      <c r="F102" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="25">
-        <v>32</v>
-      </c>
-      <c r="I102" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="22"/>
-      <c r="F103" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" s="23">
-        <v>80</v>
-      </c>
-      <c r="I103" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="22"/>
-      <c r="F104" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="23">
-        <v>2</v>
-      </c>
-      <c r="I104" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="324" x14ac:dyDescent="0.15">
-      <c r="A106" s="17" t="s">
+    <row r="106" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
+      <c r="A106" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="23">
+        <v>32</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="22"/>
+      <c r="F107" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="25">
+        <v>32</v>
+      </c>
+      <c r="I107" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="22"/>
+      <c r="F108" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" s="23">
+        <v>80</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="22"/>
+      <c r="F109" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="23">
+        <v>2</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" ht="324" x14ac:dyDescent="0.15">
+      <c r="A111" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="C111" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="7">
+        <v>32</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="9">
+        <v>32</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="7">
+        <v>80</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="7">
+        <v>4</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="7">
-        <v>32</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F107" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="9">
-        <v>32</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="7">
-        <v>80</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="7">
-        <v>4</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="7" t="s">
+      <c r="G115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="7">
+        <v>32</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="7">
-        <v>32</v>
-      </c>
-      <c r="I110" s="7" t="s">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="7" t="s">
+      <c r="G116" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="7">
+        <v>32</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="7">
-        <v>32</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="7" t="s">
+      <c r="G117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="7">
+        <v>2</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="7">
-        <v>2</v>
-      </c>
-      <c r="I112" s="7" t="s">
+      <c r="J117" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="J112" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="K112" s="37"/>
-    </row>
-    <row r="113" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="7">
-        <v>32</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="9">
-        <v>32</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H117" s="7">
-        <v>256</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="37"/>
+    </row>
+    <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A119" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="7">
+        <v>32</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="9">
+        <v>32</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="7">
-        <v>32</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="9">
-        <v>32</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" s="7" t="s">
+      <c r="G122" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" s="7">
+        <v>256</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H121" s="7">
-        <v>256</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+    <row r="124" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A124" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="7">
+        <v>32</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+    <row r="125" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="9">
+        <v>32</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
+    <row r="126" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" s="7">
+        <v>256</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -5616,9 +5709,44 @@
       <c r="I243" s="7"/>
       <c r="J243" s="1"/>
     </row>
+    <row r="244" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="7"/>
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="7"/>
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="7"/>
+      <c r="J248" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J117:K117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5655,7 +5783,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -5693,19 +5821,19 @@
     </row>
     <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -5723,7 +5851,7 @@
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -5747,13 +5875,13 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -5795,13 +5923,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5847,19 +5975,19 @@
     </row>
     <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
@@ -5877,7 +6005,7 @@
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>
@@ -6915,9 +7043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6933,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>6</v>
@@ -6959,13 +7087,13 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -6974,7 +7102,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>12</v>
@@ -6993,7 +7121,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>12</v>
@@ -7005,7 +7133,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7015,7 +7143,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>12</v>
@@ -7024,12 +7152,12 @@
         <v>256</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -7038,12 +7166,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -7057,7 +7185,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -7071,7 +7199,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -7085,7 +7213,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -7108,24 +7236,24 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
   <si>
     <t>列8</t>
   </si>
@@ -933,6 +933,22 @@
   </si>
   <si>
     <t>修改密码需要同时提供新老密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=retrieve_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1808,8 +1824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M48" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:M48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M50" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:M50"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="26"/>
     <tableColumn id="13" name="命令类型" dataDxfId="25"/>
@@ -2784,11 +2800,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3284,137 +3300,155 @@
       <c r="J27" s="1"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="8"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="8"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="8"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="J30" s="1"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1">
-        <v>32</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="1" t="s">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1">
-        <v>32</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="1">
-        <v>32</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="1" t="s">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="1">
-        <v>32</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -3426,47 +3460,46 @@
         <v>13</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="4"/>
-      <c r="F39" s="1" t="s">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4"/>
+      <c r="F41" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="1">
-        <v>32</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -3477,51 +3510,39 @@
       <c r="I41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
+      <c r="J41" s="1"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9">
-        <v>32</v>
-      </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="9">
-        <v>80</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3535,16 +3556,16 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3558,16 +3579,16 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3581,13 +3602,13 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H46" s="9">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>36</v>
@@ -3604,13 +3625,13 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H47" s="9">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>37</v>
@@ -3627,16 +3648,16 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H48" s="9">
-        <v>1024</v>
+        <v>2</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3644,196 +3665,212 @@
       <c r="M48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="9">
+        <v>256</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1024</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A52" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F52" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="12">
-        <v>32</v>
-      </c>
-      <c r="I50" s="12" t="s">
+      <c r="H52" s="12">
+        <v>32</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="9">
-        <v>32</v>
-      </c>
-      <c r="I51" s="9" t="s">
+      <c r="H53" s="9">
+        <v>32</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
-    </row>
-    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="11" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G54" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H54" s="11">
         <v>80</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I54" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="7">
-        <v>32</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="G56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="7">
+        <v>32</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="7">
-        <v>32</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="7">
-        <v>80</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H57" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H58" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F60" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H60" s="7">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>59</v>
@@ -3842,310 +3879,310 @@
     </row>
     <row r="61" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="7">
+        <v>256</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H63" s="7">
         <v>1024</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" ht="189" x14ac:dyDescent="0.15">
-      <c r="A63" s="17" t="s">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A65" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="7">
-        <v>32</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="G65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="7">
+        <v>32</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="7" t="s">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H66" s="7">
         <v>80</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A68" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="7">
-        <v>32</v>
-      </c>
-      <c r="I66" s="7" t="s">
+      <c r="G68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="7">
+        <v>32</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="9" t="s">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="9">
-        <v>32</v>
-      </c>
-      <c r="I67" s="9" t="s">
+      <c r="H69" s="9">
+        <v>32</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="7" t="s">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H70" s="7">
         <v>4</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A70" s="21" t="s">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A72" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="7">
-        <v>32</v>
-      </c>
-      <c r="I70" s="7" t="s">
+      <c r="G72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="7">
+        <v>32</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="7" t="s">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H73" s="7">
         <v>80</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="7" t="s">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H74" s="7">
         <v>4</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A76" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="E76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="7">
-        <v>32</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="G76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="7">
+        <v>32</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="9" t="s">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="9">
-        <v>32</v>
-      </c>
-      <c r="I75" s="9" t="s">
+      <c r="G77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F76" s="9" t="s">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H76" s="9">
-        <v>32</v>
-      </c>
-      <c r="I76" s="9" t="s">
+      <c r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F77" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="7">
-        <v>80</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H78" s="7">
-        <v>32</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F79" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H79" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>56</v>
@@ -4153,359 +4190,356 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="7">
+        <v>32</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" s="7">
+        <v>32</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A84" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B84" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="7">
-        <v>32</v>
-      </c>
-      <c r="I82" s="7" t="s">
+      <c r="G84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="7">
+        <v>32</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="9" t="s">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G85" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="9">
-        <v>32</v>
-      </c>
-      <c r="I83" s="9" t="s">
+      <c r="H85" s="9">
+        <v>32</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F84" s="9" t="s">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H84" s="9">
-        <v>32</v>
-      </c>
-      <c r="I84" s="9" t="s">
+      <c r="H86" s="9">
+        <v>32</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="7" t="s">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H87" s="7">
         <v>80</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A87" s="17" t="s">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A89" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B89" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="7" t="s">
+      <c r="E89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="7">
-        <v>32</v>
-      </c>
-      <c r="I87" s="7" t="s">
+      <c r="G89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="7">
+        <v>32</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F88" s="9" t="s">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="9">
-        <v>32</v>
-      </c>
-      <c r="I88" s="9" t="s">
+      <c r="G90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="9">
+        <v>32</v>
+      </c>
+      <c r="I90" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="9" t="s">
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="9">
-        <v>32</v>
-      </c>
-      <c r="I89" s="9" t="s">
+      <c r="G91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="9">
+        <v>32</v>
+      </c>
+      <c r="I91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A91" s="17" t="s">
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="7" t="s">
+      <c r="E93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="7">
-        <v>32</v>
-      </c>
-      <c r="I91" s="7" t="s">
+      <c r="G93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="7">
+        <v>32</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="9" t="s">
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="9">
-        <v>32</v>
-      </c>
-      <c r="I92" s="9" t="s">
+      <c r="G94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="9">
+        <v>32</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F93" s="9" t="s">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="9">
-        <v>32</v>
-      </c>
-      <c r="I93" s="9" t="s">
+      <c r="G95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="9">
+        <v>32</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" ht="162" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A97" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B97" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="7">
-        <v>32</v>
-      </c>
-      <c r="I95" s="7" t="s">
+      <c r="G97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="7">
+        <v>32</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="9" t="s">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="9">
-        <v>32</v>
-      </c>
-      <c r="I96" s="9" t="s">
+      <c r="G98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="9">
+        <v>32</v>
+      </c>
+      <c r="I98" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F97" s="7" t="s">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="7">
+      <c r="G99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="7">
         <v>4</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="7">
-        <v>32</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="9">
-        <v>32</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G101" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>13</v>
@@ -4513,17 +4547,36 @@
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="E102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="9">
+        <v>32</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="7">
+        <v>80</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4534,374 +4587,374 @@
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
-      <c r="A106" s="22" t="s">
+    <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
+      <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B108" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C108" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D108" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E108" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F108" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="23">
-        <v>32</v>
-      </c>
-      <c r="I106" s="23" t="s">
+      <c r="G108" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="23">
+        <v>32</v>
+      </c>
+      <c r="I108" s="23" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="22"/>
-      <c r="F107" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="25">
-        <v>32</v>
-      </c>
-      <c r="I107" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="22"/>
-      <c r="F108" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="23">
-        <v>80</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="22"/>
-      <c r="F109" s="23" t="s">
+      <c r="F109" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="25">
+        <v>32</v>
+      </c>
+      <c r="I109" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="22"/>
+      <c r="F110" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H110" s="23">
+        <v>80</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="22"/>
+      <c r="F111" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="23">
+      <c r="G111" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="23">
         <v>2</v>
       </c>
-      <c r="I109" s="23" t="s">
+      <c r="I111" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" ht="324" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
+    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" ht="324" x14ac:dyDescent="0.15">
+      <c r="A113" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="7">
-        <v>32</v>
-      </c>
-      <c r="I111" s="7" t="s">
+      <c r="G113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="7">
+        <v>32</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J113" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="9" t="s">
+    <row r="114" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="9">
-        <v>32</v>
-      </c>
-      <c r="I112" s="9" t="s">
+      <c r="G114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="9">
+        <v>32</v>
+      </c>
+      <c r="I114" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="7">
-        <v>80</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="7">
-        <v>4</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F115" s="7" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H115" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="7" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H116" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="7">
+        <v>32</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="7">
+        <v>32</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="7">
+      <c r="G119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="7">
         <v>2</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I119" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J117" s="36" t="s">
+      <c r="J119" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="K117" s="37"/>
-    </row>
-    <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="17" t="s">
+      <c r="K119" s="37"/>
+    </row>
+    <row r="120" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D122" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F122" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="7">
-        <v>32</v>
-      </c>
-      <c r="I120" s="7" t="s">
+      <c r="G122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="7">
+        <v>32</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="9" t="s">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="9">
-        <v>32</v>
-      </c>
-      <c r="I121" s="9" t="s">
+      <c r="G123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="9">
+        <v>32</v>
+      </c>
+      <c r="I123" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="7" t="s">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H124" s="7">
         <v>256</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="I124" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A124" s="17" t="s">
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A126" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="7">
-        <v>32</v>
-      </c>
-      <c r="I124" s="7" t="s">
+      <c r="G126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="7">
+        <v>32</v>
+      </c>
+      <c r="I126" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="9" t="s">
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="9">
-        <v>32</v>
-      </c>
-      <c r="I125" s="9" t="s">
+      <c r="G127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="9">
+        <v>32</v>
+      </c>
+      <c r="I127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F126" s="7" t="s">
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H128" s="7">
         <v>256</v>
       </c>
-      <c r="I126" s="7" t="s">
+      <c r="I128" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
       <c r="J128" s="1"/>
     </row>
     <row r="129" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5744,9 +5797,23 @@
       <c r="I248" s="7"/>
       <c r="J248" s="1"/>
     </row>
+    <row r="249" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="7"/>
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J119:K119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="184">
   <si>
     <t>列8</t>
   </si>
@@ -949,6 +949,22 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_timezone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "countrycode" : "dlslklks",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2802,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -5828,9 +5844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6095,18 +6111,49 @@
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+    <row r="16" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -961,7 +961,10 @@
   </si>
   <si>
     <t>{
-   "countrycode" : "dlslklks",
+   "countrycode" : "cn",
+   "countryname_en" : "china",
+   "countryname_zh" : "中国",
+   "timezone" : "8", 
    "retcode" : "0",
    "retmsg" : "Ok"
 }</t>
@@ -2819,8 +2822,8 @@
   <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5846,7 +5849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6111,7 +6114,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>181</v>
       </c>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -751,14 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "retcode" : "0",
-   "retmsg" : "Ok",
-   "sid" : "E3C02029747B79499DF06C559AC12FC6"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/access.cgi?action=device_query_p2pserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,6 +959,20 @@
    "timezone" : "8", 
    "retcode" : "0",
    "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "B814BFEDBD011842B464B4D76A1B3EEF",
+   "timezoneinfo" : {
+      "countrycode" : "CN",
+      "countryname_en" : "China",
+      "countryname_zh" : "中国",
+      "timezone" : "8"
+   }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2822,7 +2828,7 @@
   <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F101" sqref="F101:I103"/>
     </sheetView>
   </sheetViews>
@@ -2958,7 +2964,7 @@
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -2976,16 +2982,16 @@
       <c r="A7" s="18"/>
       <c r="B7" s="8"/>
       <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="1">
         <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1"/>
       <c r="M7" s="5"/>
@@ -3099,7 +3105,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
@@ -3195,7 +3201,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
@@ -3215,7 +3221,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
@@ -3227,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -3237,7 +3243,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -3297,7 +3303,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -3306,7 +3312,7 @@
         <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J26" s="1"/>
       <c r="M26" s="5"/>
@@ -3321,13 +3327,13 @@
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>21</v>
@@ -3356,7 +3362,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
@@ -3365,7 +3371,7 @@
         <v>64</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J29" s="1"/>
       <c r="M29" s="5"/>
@@ -4119,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -4724,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>28</v>
@@ -4739,7 +4745,7 @@
         <v>13</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4789,22 +4795,22 @@
     </row>
     <row r="117" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="7">
+        <v>32</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="7">
-        <v>32</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F118" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>12</v>
@@ -4813,13 +4819,13 @@
         <v>32</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>12</v>
@@ -4828,10 +4834,10 @@
         <v>2</v>
       </c>
       <c r="I119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J119" s="36" t="s">
         <v>162</v>
-      </c>
-      <c r="J119" s="36" t="s">
-        <v>163</v>
       </c>
       <c r="K119" s="37"/>
     </row>
@@ -5848,8 +5854,8 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5905,7 +5911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>123</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -6067,7 +6073,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>21</v>
@@ -6116,19 +6122,19 @@
     </row>
     <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -7204,13 +7210,13 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -7219,7 +7225,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>12</v>
@@ -7238,7 +7244,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>12</v>
@@ -7250,7 +7256,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7269,12 +7275,12 @@
         <v>256</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -7283,12 +7289,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -7302,7 +7308,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -7316,7 +7322,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -7330,7 +7336,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -7353,24 +7359,24 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="193">
   <si>
     <t>列8</t>
   </si>
@@ -974,6 +974,63 @@
       "timezone" : "8"
    }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询接入域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_access_domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=user_query_access_domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "domainname":"http://xx.xx.xx.xx",
+ "lease":"240"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "domainname":"http://xx.xx.xx.xx",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+ "lease":"240"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lease租约单位为小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,8 +1906,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M50" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:M50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M54" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:M54"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="26"/>
     <tableColumn id="13" name="命令类型" dataDxfId="25"/>
@@ -1871,8 +1928,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:M12" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:M12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:M15" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:M15"/>
   <tableColumns count="13">
     <tableColumn id="1" name="命令名称" dataDxfId="12"/>
     <tableColumn id="13" name="命令类型" dataDxfId="11"/>
@@ -2825,18 +2882,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101:I103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
@@ -2885,21 +2942,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2911,204 +2968,202 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="8"/>
+      <c r="J4" s="1"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="1" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="1" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F5" s="1" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H9" s="1">
         <v>256</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8"/>
-      <c r="F6" s="1" t="s">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="F10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="8"/>
-      <c r="F7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="1">
-        <v>64</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1">
-        <v>32</v>
       </c>
       <c r="J10" s="1"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="8"/>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="H11" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>32</v>
+      </c>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -3120,13 +3175,10 @@
         <v>13</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -3140,48 +3192,32 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="8"/>
       <c r="J18" s="1"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -3195,13 +3231,11 @@
       <c r="J20" s="1"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
@@ -3210,40 +3244,34 @@
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1">
-        <v>32</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -3252,27 +3280,26 @@
         <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1"/>
       <c r="M24" s="5"/>
@@ -3283,13 +3310,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>17</v>
@@ -3303,18 +3330,20 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3322,36 +3351,37 @@
       <c r="B27" s="8"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
+      <c r="F27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>107</v>
-      </c>
+    <row r="28" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1"/>
       <c r="M28" s="5"/>
@@ -3362,16 +3392,16 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1"/>
       <c r="M29" s="5"/>
@@ -3381,30 +3411,47 @@
       <c r="B30" s="8"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
+      <c r="F30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="8"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>94</v>
+      <c r="E32" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
@@ -3416,49 +3463,72 @@
         <v>13</v>
       </c>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="8"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="J34" s="1"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="37" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -3472,59 +3542,32 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1">
-        <v>32</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="1">
-        <v>32</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -3536,130 +3579,104 @@
         <v>13</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="1">
-        <v>32</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9">
-        <v>32</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="9">
-        <v>80</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="9">
-        <v>80</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="9">
-        <v>32</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3673,16 +3690,16 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H48" s="9">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3696,16 +3713,16 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H49" s="9">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3719,16 +3736,16 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H50" s="9">
-        <v>1024</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3736,40 +3753,50 @@
       <c r="M50" s="10"/>
     </row>
     <row r="51" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="12">
-        <v>32</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="9">
+        <v>32</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
     </row>
     <row r="53" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19"/>
@@ -3778,16 +3805,16 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H53" s="9">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3795,295 +3822,310 @@
       <c r="M53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="11">
-        <v>80</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="1"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1024</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
-        <v>63</v>
+      <c r="A56" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="12">
+        <v>32</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="9">
+        <v>32</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="11">
+        <v>80</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A60" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="7">
-        <v>32</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="G60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="7">
+        <v>32</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="7">
-        <v>32</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" s="7">
-        <v>80</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="7">
-        <v>80</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H60" s="7">
-        <v>32</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F61" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H61" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H62" s="7">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H63" s="7">
-        <v>1024</v>
+        <v>80</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="7">
+        <v>32</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="189" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>98</v>
-      </c>
+    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F65" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H66" s="7">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1024</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="297" x14ac:dyDescent="0.15">
-      <c r="A68" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="16" t="s">
+    <row r="68" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A69" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="E69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="7">
-        <v>32</v>
-      </c>
-      <c r="I68" s="7" t="s">
+      <c r="G69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="7">
+        <v>32</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="9">
-        <v>32</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H70" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4100,17 +4142,17 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="7">
-        <v>80</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>56</v>
+      <c r="F73" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="9">
+        <v>32</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -4125,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -4136,21 +4178,21 @@
       <c r="I75" s="7"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
-        <v>75</v>
+    <row r="76" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+      <c r="A76" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>28</v>
@@ -4166,237 +4208,237 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="9" t="s">
+    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="7">
+        <v>80</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A80" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="7">
+        <v>32</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="9">
-        <v>32</v>
-      </c>
-      <c r="I77" s="9" t="s">
+      <c r="G81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="9">
+        <v>32</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="9" t="s">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="9">
-        <v>32</v>
-      </c>
-      <c r="I78" s="9" t="s">
+      <c r="H82" s="9">
+        <v>32</v>
+      </c>
+      <c r="I82" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F79" s="7" t="s">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H83" s="7">
         <v>80</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F80" s="7" t="s">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="7">
-        <v>32</v>
-      </c>
-      <c r="I80" s="7" t="s">
+      <c r="H84" s="7">
+        <v>32</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="7" t="s">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H81" s="7">
-        <v>32</v>
-      </c>
-      <c r="I81" s="7" t="s">
+      <c r="H85" s="7">
+        <v>32</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A88" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B88" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="E88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="7">
-        <v>32</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="G88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="7">
+        <v>32</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="9" t="s">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G89" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="9">
-        <v>32</v>
-      </c>
-      <c r="I85" s="9" t="s">
+      <c r="H89" s="9">
+        <v>32</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" s="9">
-        <v>32</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="7">
-        <v>80</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A89" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="7">
-        <v>32</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H90" s="9">
         <v>32</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="9">
-        <v>32</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>13</v>
+      <c r="F91" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="7">
+        <v>80</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -4409,16 +4451,16 @@
     </row>
     <row r="93" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>32</v>
@@ -4474,21 +4516,21 @@
       <c r="I96" s="7"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A97" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>28</v>
@@ -4520,17 +4562,17 @@
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="7">
-        <v>4</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>17</v>
+      <c r="F99" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="9">
+        <v>32</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -4541,21 +4583,21 @@
       <c r="I100" s="7"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>28</v>
@@ -4572,9 +4614,6 @@
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E102" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F102" s="9" t="s">
         <v>25</v>
       </c>
@@ -4591,16 +4630,16 @@
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F103" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="7">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J103" s="1"/>
     </row>
@@ -4611,308 +4650,311 @@
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="7">
+        <v>32</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="E106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="9">
+        <v>32</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="1" t="s">
+      <c r="F107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="7">
+        <v>80</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
-      <c r="A108" s="22" t="s">
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
+      <c r="A112" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B112" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C112" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D112" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E108" s="24" t="s">
+      <c r="E112" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F112" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G108" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="23">
-        <v>32</v>
-      </c>
-      <c r="I108" s="23" t="s">
+      <c r="G112" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="23">
+        <v>32</v>
+      </c>
+      <c r="I112" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="22"/>
-      <c r="F109" s="25" t="s">
+    <row r="113" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="22"/>
+      <c r="F113" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G109" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="25">
-        <v>32</v>
-      </c>
-      <c r="I109" s="25" t="s">
+      <c r="G113" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="25">
+        <v>32</v>
+      </c>
+      <c r="I113" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="22"/>
-      <c r="F110" s="23" t="s">
+    <row r="114" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="22"/>
+      <c r="F114" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G114" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H110" s="23">
+      <c r="H114" s="23">
         <v>80</v>
       </c>
-      <c r="I110" s="23" t="s">
+      <c r="I114" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="22"/>
-      <c r="F111" s="23" t="s">
+    <row r="115" spans="1:11" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="22"/>
+      <c r="F115" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G111" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="23">
+      <c r="G115" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="23">
         <v>2</v>
       </c>
-      <c r="I111" s="23" t="s">
+      <c r="I115" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" ht="324" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
+    <row r="116" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" ht="324" x14ac:dyDescent="0.15">
+      <c r="A117" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D117" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F117" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="7">
-        <v>32</v>
-      </c>
-      <c r="I113" s="7" t="s">
+      <c r="G117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="7">
+        <v>32</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J117" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="9" t="s">
+    <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="9">
-        <v>32</v>
-      </c>
-      <c r="I114" s="9" t="s">
+      <c r="G118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="9">
+        <v>32</v>
+      </c>
+      <c r="I118" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="7">
-        <v>80</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="7">
-        <v>4</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="7">
-        <v>32</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="7">
-        <v>32</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="7">
+        <v>80</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="7">
+        <v>4</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="7">
+        <v>32</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="7">
+        <v>32</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="7">
+      <c r="G123" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="7">
         <v>2</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I123" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J119" s="36" t="s">
+      <c r="J123" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="K119" s="37"/>
-    </row>
-    <row r="120" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="7">
-        <v>32</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F123" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" s="9">
-        <v>32</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="1"/>
+      <c r="K123" s="37"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H124" s="7">
-        <v>256</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4922,21 +4964,21 @@
       <c r="I125" s="7"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>28</v>
@@ -4982,112 +5024,151 @@
       </c>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
+    <row r="130" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A130" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="7">
+        <v>32</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
+    <row r="131" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="9">
+        <v>32</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
+    <row r="132" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" s="7">
+        <v>256</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -5836,9 +5917,37 @@
       <c r="I250" s="7"/>
       <c r="J250" s="1"/>
     </row>
+    <row r="251" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
+      <c r="I252" s="7"/>
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+      <c r="I254" s="7"/>
+      <c r="J254" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J123:K123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5851,18 +5960,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
@@ -5911,117 +6020,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="8"/>
+      <c r="J4" s="1"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
         <v>80</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="1" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7">
-        <v>80</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>112</v>
+      <c r="A10" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -6042,11 +6149,8 @@
         <v>13</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4"/>
       <c r="F11" s="7" t="s">
         <v>35</v>
       </c>
@@ -6060,45 +6164,44 @@
         <v>13</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>111</v>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="4"/>
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
@@ -6112,29 +6215,26 @@
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6150,7 +6250,10 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
       </c>
@@ -6165,105 +6268,136 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+    <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -7151,6 +7285,27 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="6:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7168,7 +7323,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
     <sheet name="http用户管理接口" sheetId="1" r:id="rId2"/>
     <sheet name="http设备管理接口" sheetId="4" r:id="rId3"/>
     <sheet name="存储推送接口" sheetId="6" r:id="rId4"/>
+    <sheet name="集群管理接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="210">
   <si>
     <t>列8</t>
   </si>
@@ -1031,6 +1032,101 @@
   </si>
   <si>
     <t>lease租约单位为小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_cluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_cluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "cluserid":"kdkk"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluser_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=modify_cluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_cluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "cluser_address":"xxxx",
+  "management_address":"xxx",
+ "aliasname":"xxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_all_cluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "cluserid" : "2010-08-08",
+         "cluser_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx"
+      },
+      {
+         "cluserid" : "2010-08-08",
+         "cluser_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx"         
+      }
+   ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1262,11 +1358,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,6 +1455,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2245,630 +2394,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2886,7 +3035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4945,10 +5094,10 @@
       <c r="I123" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J123" s="36" t="s">
+      <c r="J123" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="K123" s="37"/>
+      <c r="K123" s="45"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
@@ -5962,9 +6111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7323,7 +7472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7538,4 +7687,379 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="44.875" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="16">
+        <v>512</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7">
+        <v>512</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
+        <v>256</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>256</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="163.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="16">
+        <v>32</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="225">
   <si>
     <t>列8</t>
   </si>
@@ -1039,19 +1039,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=add_cluser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>删除集群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=delete_cluser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1079,33 +1071,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=modify_cluser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询集群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=query_cluser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "cluser_address":"xxxx",
-  "management_address":"xxx",
- "aliasname":"xxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询所有集群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_all_cluser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1127,6 +1097,121 @@
       }
    ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询接入设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx"      
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群握手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "cluser_address":"xxxx",
+ "management_address":"xxx",
+ "aliasname":"xxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=add_cluser</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=delete_cluser</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=modify_cluser</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluser</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=cluser_shakehand</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_all_cluser</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluser_device</t>
+  </si>
+  <si>
+    <t>type=0，当前时间范围内的login/logout
+type=1，当前时间范围内的login
+type=2，当前时间范围内的logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx"      
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluser_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询接入用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1465,10 +1550,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2387,637 +2471,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3035,7 +3119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5094,10 +5178,10 @@
       <c r="I123" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J123" s="44" t="s">
+      <c r="J123" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="K123" s="45"/>
+      <c r="K123" s="46"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
@@ -6112,8 +6196,8 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7691,18 +7775,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="44.875" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
@@ -7746,16 +7830,16 @@
         <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7774,7 +7858,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -7783,7 +7867,7 @@
         <v>512</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7818,13 +7902,13 @@
     </row>
     <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7833,7 +7917,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7858,13 +7942,13 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -7873,7 +7957,7 @@
         <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -7917,22 +8001,22 @@
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -7955,108 +8039,527 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="163.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="29">
+        <v>64</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="29">
+        <v>64</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="29">
+        <v>2</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="E23" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="16">
-        <v>32</v>
-      </c>
-      <c r="I16" s="16" t="s">
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="29">
+        <v>64</v>
+      </c>
+      <c r="I24" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
+    <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="29">
+        <v>64</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="29">
+        <v>2</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -604,16 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "p2pserver" : "jkdjksjk",
-   "p2pid" : "798989",
-   "lease" : "24",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询p2p服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,6 +1202,17 @@
   </si>
   <si>
     <t>查询接入用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "p2pserver" : "jkdjksjk",
+   "p2pid" : "798989",
+   "license_key" : "sssdc",
+   "lease" : "24",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2471,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:N45"/>
     </sheetView>
   </sheetViews>
@@ -3117,9 +3118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47:I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3163,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -3177,19 +3178,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -3201,7 +3202,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -3210,7 +3211,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -3306,7 +3307,7 @@
       <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -3324,16 +3325,16 @@
       <c r="A11" s="18"/>
       <c r="B11" s="8"/>
       <c r="F11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="1">
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="1"/>
       <c r="M11" s="5"/>
@@ -3447,7 +3448,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
@@ -3543,7 +3544,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -3563,7 +3564,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -3575,7 +3576,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -3585,7 +3586,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>12</v>
@@ -3645,7 +3646,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -3654,7 +3655,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J30" s="1"/>
       <c r="M30" s="5"/>
@@ -3669,13 +3670,13 @@
     </row>
     <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
@@ -3704,7 +3705,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
@@ -3713,7 +3714,7 @@
         <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J33" s="1"/>
       <c r="M33" s="5"/>
@@ -3731,7 +3732,7 @@
     </row>
     <row r="36" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>102</v>
@@ -4467,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -4883,9 +4884,9 @@
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>108</v>
@@ -4897,7 +4898,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>25</v>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -4979,19 +4980,19 @@
     </row>
     <row r="112" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A112" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="C112" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>100</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>28</v>
@@ -5060,19 +5061,19 @@
     </row>
     <row r="117" spans="1:11" ht="324" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C117" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>28</v>
@@ -5087,7 +5088,7 @@
         <v>13</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5116,7 +5117,7 @@
         <v>80</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J119" s="1"/>
     </row>
@@ -5131,13 +5132,13 @@
         <v>4</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>12</v>
@@ -5146,13 +5147,13 @@
         <v>32</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>12</v>
@@ -5161,13 +5162,13 @@
         <v>32</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>12</v>
@@ -5176,10 +5177,10 @@
         <v>2</v>
       </c>
       <c r="I123" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J123" s="45" t="s">
         <v>161</v>
-      </c>
-      <c r="J123" s="45" t="s">
-        <v>162</v>
       </c>
       <c r="K123" s="46"/>
     </row>
@@ -5199,19 +5200,19 @@
     </row>
     <row r="126" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>28</v>
@@ -5244,16 +5245,16 @@
     </row>
     <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H128" s="7">
         <v>256</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J128" s="1"/>
     </row>
@@ -5266,19 +5267,19 @@
     </row>
     <row r="130" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A130" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>28</v>
@@ -5311,16 +5312,16 @@
     </row>
     <row r="132" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H132" s="7">
         <v>256</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J132" s="1"/>
     </row>
@@ -6196,8 +6197,8 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6255,19 +6256,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
@@ -6279,7 +6280,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -6288,7 +6289,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -6301,19 +6302,19 @@
     </row>
     <row r="5" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
@@ -6331,7 +6332,7 @@
     </row>
     <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -6355,13 +6356,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -6403,13 +6404,13 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -6453,21 +6454,21 @@
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6485,7 +6486,7 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
@@ -6510,19 +6511,19 @@
     </row>
     <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>28</v>
@@ -7598,13 +7599,13 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -7613,7 +7614,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>12</v>
@@ -7632,7 +7633,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>12</v>
@@ -7644,7 +7645,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7654,7 +7655,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>12</v>
@@ -7663,12 +7664,12 @@
         <v>256</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -7677,12 +7678,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -7696,7 +7697,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -7710,7 +7711,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -7724,7 +7725,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -7747,24 +7748,24 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7777,9 +7778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7824,22 +7825,22 @@
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7858,7 +7859,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -7867,7 +7868,7 @@
         <v>512</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7877,7 +7878,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -7902,13 +7903,13 @@
     </row>
     <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7917,7 +7918,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7942,13 +7943,13 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -7957,7 +7958,7 @@
         <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -7976,7 +7977,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>12</v>
@@ -8001,22 +8002,22 @@
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8041,13 +8042,13 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8056,7 +8057,7 @@
         <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8092,19 +8093,19 @@
     </row>
     <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -8124,20 +8125,20 @@
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8156,16 +8157,16 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>205</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>206</v>
       </c>
       <c r="H19" s="29">
         <v>64</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8175,16 +8176,16 @@
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H20" s="29">
         <v>64</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8193,10 +8194,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>12</v>
@@ -8205,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8221,20 +8222,20 @@
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>
@@ -8290,10 +8291,10 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>12</v>
@@ -8302,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>/access.cgi?action=query_device_of_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询设备绑定的用户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_user_of_device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,39 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询设备绑定的用户关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_user_of_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "value" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "value" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分享设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,33 +440,6 @@
   </si>
   <si>
     <t>username/userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "extend" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "extend" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok",
-   "sid" : "jkjkdjk89892s",
-   "userid" : "yudyuayuyudyuabn"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1037,26 +985,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "cluserid":"kdkk"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluserid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>management_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cluser_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改集群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,27 +998,6 @@
   </si>
   <si>
     <t>查询所有集群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "cluserid" : "2010-08-08",
-         "cluser_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx"
-      },
-      {
-         "cluserid" : "2010-08-08",
-         "cluser_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx"         
-      }
-   ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1141,37 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "cluser_address":"xxxx",
- "management_address":"xxx",
- "aliasname":"xxxx"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/management.cgi?action=add_cluser</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=delete_cluser</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=modify_cluser</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_cluser</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=cluser_shakehand</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_all_cluser</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_cluser_device</t>
-  </si>
-  <si>
     <t>type=0，当前时间范围内的login/logout
 type=1，当前时间范围内的login
 type=2，当前时间范围内的logout</t>
@@ -1197,10 +1077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/management.cgi?action=query_cluser_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询接入用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,6 +1088,128 @@
    "lease" : "24",
    "retcode" : "0",
    "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=add_cluster</t>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "clusterid":"kdkk"
+}</t>
+  </si>
+  <si>
+    <t>cluster_address</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=delete_cluster</t>
+  </si>
+  <si>
+    <t>clusterid</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=modify_cluster</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster</t>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "cluster_address":"xxxx",
+ "management_address":"xxx",
+ "aliasname":"xxxx"
+}</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=cluster_shakehand</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_all_cluster</t>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx"
+      },
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx"         
+      }
+   ]
+}</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster_device</t>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster_user</t>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "devname" : "testname01"
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "value" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "devname" : "testname02"
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "value" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "devname" : "testname01"
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "extend" : "testvalue"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "devname" : "testname02"
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "extend" : "testvalue"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "sid" : "jkjkdjk89892s",
+   "userid" : "yudyuayuyudyuabn"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2480,7 +2478,7 @@
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -3119,8 +3117,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3140,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3164,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -3178,19 +3176,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -3202,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -3211,7 +3209,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -3233,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -3242,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -3307,7 +3305,7 @@
       <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -3325,16 +3323,16 @@
       <c r="A11" s="18"/>
       <c r="B11" s="8"/>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="1">
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J11" s="1"/>
       <c r="M11" s="5"/>
@@ -3355,7 +3353,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -3364,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -3439,7 +3437,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -3448,7 +3446,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
@@ -3490,19 +3488,19 @@
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
@@ -3544,7 +3542,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -3564,7 +3562,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -3576,7 +3574,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -3586,7 +3584,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>12</v>
@@ -3646,7 +3644,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -3655,7 +3653,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J30" s="1"/>
       <c r="M30" s="5"/>
@@ -3670,19 +3668,19 @@
     </row>
     <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -3705,7 +3703,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
@@ -3714,7 +3712,7 @@
         <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J33" s="1"/>
       <c r="M33" s="5"/>
@@ -3730,12 +3728,12 @@
     <row r="35" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="325.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="352.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -3744,10 +3742,10 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -3789,7 +3787,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
@@ -3834,13 +3832,13 @@
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>21</v>
@@ -3889,7 +3887,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
@@ -4086,7 +4084,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>64</v>
@@ -4160,7 +4158,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>65</v>
@@ -4256,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -4302,16 +4300,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>28</v>
@@ -4345,12 +4343,12 @@
     <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="297" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="324" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>70</v>
@@ -4359,7 +4357,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4414,19 +4412,19 @@
     </row>
     <row r="76" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>28</v>
@@ -4468,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -4481,13 +4479,13 @@
     </row>
     <row r="80" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>21</v>
@@ -4529,7 +4527,7 @@
     </row>
     <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F82" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>44</v>
@@ -4559,10 +4557,10 @@
     </row>
     <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F84" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H84" s="7">
         <v>32</v>
@@ -4574,10 +4572,10 @@
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F85" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H85" s="7">
         <v>32</v>
@@ -4603,13 +4601,13 @@
     </row>
     <row r="88" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A88" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>21</v>
@@ -4648,7 +4646,7 @@
     </row>
     <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>44</v>
@@ -4685,16 +4683,16 @@
     </row>
     <row r="93" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>32</v>
@@ -4730,7 +4728,7 @@
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>12</v>
@@ -4752,13 +4750,13 @@
     </row>
     <row r="97" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A97" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>21</v>
@@ -4797,7 +4795,7 @@
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>12</v>
@@ -4819,19 +4817,19 @@
     </row>
     <row r="101" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>28</v>
@@ -4886,19 +4884,19 @@
     </row>
     <row r="105" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -4916,7 +4914,7 @@
     </row>
     <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>25</v>
@@ -4970,7 +4968,7 @@
     </row>
     <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -4980,19 +4978,19 @@
     </row>
     <row r="112" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A112" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="D112" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>28</v>
@@ -5061,19 +5059,19 @@
     </row>
     <row r="117" spans="1:11" ht="324" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>28</v>
@@ -5088,7 +5086,7 @@
         <v>13</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5117,7 +5115,7 @@
         <v>80</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J119" s="1"/>
     </row>
@@ -5132,13 +5130,13 @@
         <v>4</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>12</v>
@@ -5147,13 +5145,13 @@
         <v>32</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>12</v>
@@ -5162,13 +5160,13 @@
         <v>32</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>12</v>
@@ -5177,10 +5175,10 @@
         <v>2</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J123" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K123" s="46"/>
     </row>
@@ -5200,19 +5198,19 @@
     </row>
     <row r="126" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>28</v>
@@ -5245,16 +5243,16 @@
     </row>
     <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H128" s="7">
         <v>256</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J128" s="1"/>
     </row>
@@ -5267,19 +5265,19 @@
     </row>
     <row r="130" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A130" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>28</v>
@@ -5312,16 +5310,16 @@
     </row>
     <row r="132" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H132" s="7">
         <v>256</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J132" s="1"/>
     </row>
@@ -6218,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -6256,19 +6254,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
@@ -6280,7 +6278,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -6289,7 +6287,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -6302,19 +6300,19 @@
     </row>
     <row r="5" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
@@ -6332,7 +6330,7 @@
     </row>
     <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -6356,13 +6354,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -6404,13 +6402,13 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -6456,19 +6454,19 @@
     </row>
     <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6486,7 +6484,7 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
@@ -6511,19 +6509,19 @@
     </row>
     <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>28</v>
@@ -7573,7 +7571,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>6</v>
@@ -7599,13 +7597,13 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -7614,7 +7612,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>12</v>
@@ -7633,7 +7631,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>12</v>
@@ -7645,7 +7643,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7655,7 +7653,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>12</v>
@@ -7664,12 +7662,12 @@
         <v>256</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -7678,12 +7676,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -7697,7 +7695,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -7711,7 +7709,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -7725,7 +7723,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -7748,24 +7746,24 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -7780,7 +7778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7799,7 +7797,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>6</v>
@@ -7825,22 +7823,22 @@
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7859,7 +7857,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -7868,7 +7866,7 @@
         <v>512</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7878,7 +7876,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -7903,22 +7901,22 @@
     </row>
     <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7943,10 +7941,10 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>215</v>
@@ -7955,10 +7953,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -7977,7 +7975,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>12</v>
@@ -8002,10 +8000,10 @@
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>216</v>
@@ -8014,10 +8012,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8042,22 +8040,22 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8093,19 +8091,19 @@
     </row>
     <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -8125,20 +8123,20 @@
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8157,16 +8155,16 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H19" s="29">
         <v>64</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8176,16 +8174,16 @@
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H20" s="29">
         <v>64</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8194,10 +8192,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="31" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>12</v>
@@ -8206,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8222,7 +8220,7 @@
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
@@ -8232,10 +8230,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>
@@ -8254,7 +8252,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>12</v>
@@ -8273,7 +8271,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>12</v>
@@ -8291,10 +8289,10 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="31" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>12</v>
@@ -8303,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -1081,17 +1081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   "p2pserver" : "jkdjksjk",
-   "p2pid" : "798989",
-   "license_key" : "sssdc",
-   "lease" : "24",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/management.cgi?action=add_cluster</t>
   </si>
   <si>
@@ -1210,6 +1199,18 @@
    "retmsg" : "Ok",
    "sid" : "jkjkdjk89892s",
    "userid" : "yudyuayuyudyuabn"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "p2pserver" : "jkdjksjk",
+   "p2pid" : "798989",
+   "license_key" : "sssdc",
+   "push_id" : "dkks22",
+   "lease" : "24",
+   "retcode" : "0",
+   "retmsg" : "Ok"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3117,8 +3118,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3742,7 +3743,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -4357,7 +4358,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4882,7 +4883,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
         <v>108</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6196,7 +6197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6452,7 +6453,7 @@
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>108</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -7778,7 +7779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7829,16 +7830,16 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7907,7 +7908,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7916,7 +7917,7 @@
         <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7947,7 +7948,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -7956,7 +7957,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -8006,16 +8007,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8046,7 +8047,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8055,7 +8056,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8097,13 +8098,13 @@
         <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -8127,7 +8128,7 @@
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>98</v>
@@ -8136,7 +8137,7 @@
         <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8224,7 +8225,7 @@
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>21</v>
@@ -8233,7 +8234,7 @@
         <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="225">
   <si>
     <t>列8</t>
   </si>
@@ -1081,9 +1081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/management.cgi?action=add_cluster</t>
-  </si>
-  <si>
     <t>{
  "retcode":"0",
  "retmsg":"Ok",
@@ -1094,16 +1091,7 @@
     <t>cluster_address</t>
   </si>
   <si>
-    <t>/management.cgi?action=delete_cluster</t>
-  </si>
-  <si>
     <t>clusterid</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=modify_cluster</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_cluster</t>
   </si>
   <si>
     <t>{
@@ -1113,38 +1101,6 @@
  "management_address":"xxx",
  "aliasname":"xxxx"
 }</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=cluster_shakehand</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_all_cluster</t>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "clusterid" : "2010-08-08",
-         "cluster_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx"
-      },
-      {
-         "clusterid" : "2010-08-08",
-         "cluster_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx"         
-      }
-   ]
-}</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_cluster_device</t>
-  </si>
-  <si>
-    <t>/management.cgi?action=query_cluster_user</t>
   </si>
   <si>
     <t>{
@@ -1211,6 +1167,61 @@
    "lease" : "24",
    "retcode" : "0",
    "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=add_cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=delete_cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=modify_cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=cluster_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_all_cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=query_cluster_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx",
+         "createdate":"2010-08-08"
+      },
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx",
+         "createdate":"2013-02-02"   
+      }
+   ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3117,9 +3128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,7 +3754,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -4358,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4897,7 +4908,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6467,7 +6478,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -7775,11 +7786,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7830,16 +7841,16 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7908,7 +7919,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7917,7 +7928,7 @@
         <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7948,7 +7959,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -7957,7 +7968,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -8007,16 +8018,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8047,7 +8058,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8056,7 +8067,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8090,7 +8101,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>196</v>
       </c>
@@ -8098,18 +8109,26 @@
         <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
+        <v>512</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
@@ -8128,7 +8147,7 @@
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>98</v>
@@ -8137,7 +8156,7 @@
         <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8214,54 +8233,54 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="F24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
         <v>32</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="29">
-        <v>64</v>
-      </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8272,7 +8291,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>12</v>
@@ -8289,20 +8308,18 @@
       <c r="B26" s="42"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="31" t="s">
-        <v>206</v>
-      </c>
+      <c r="E26" s="29"/>
       <c r="F26" s="29" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="29">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8310,11 +8327,21 @@
       <c r="B27" s="42"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="E27" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="29">
+        <v>2</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
@@ -8322,10 +8349,18 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="F28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
@@ -8558,8 +8593,19 @@
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+    </row>
     <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="231">
   <si>
     <t>列8</t>
   </si>
@@ -1021,30 +1021,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx"      
-      }
-   ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,6 +1200,53 @@
       }
    ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx",
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx"      
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminaltype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，表示ios；1，表示android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:表示门铃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3129,8 +3153,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3754,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -3786,6 +3810,21 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4369,7 +4408,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4908,7 +4947,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6206,9 +6245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6356,6 +6395,21 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6478,7 +6532,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -7788,9 +7842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7841,16 +7895,16 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7919,7 +7973,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7928,7 +7982,7 @@
         <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -7959,7 +8013,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -7968,7 +8022,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -8018,16 +8072,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8052,13 +8106,13 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8067,7 +8121,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8109,13 +8163,13 @@
         <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>193</v>
@@ -8147,16 +8201,16 @@
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8212,10 +8266,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>12</v>
@@ -8224,7 +8278,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8259,20 +8313,20 @@
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>
@@ -8328,10 +8382,10 @@
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>12</v>
@@ -8340,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -1035,25 +1035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx"      
-      }
-   ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询接入用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,6 +1184,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>terminaltype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，表示ios；1，表示android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:表示门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"0"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"1"     
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "retcode":"0",
  "retmsg":"Ok",
@@ -1211,42 +1241,16 @@
          "login_date" : "2010-08-08",
          "logout_date" : "2010-08-08",
          "devid":"xxxx",
+         "devtype":"0"
       },
       {
          "login_date" : "2010-08-08",
          "logout_date" : "2010-08-08",
-         "devid":"xxxx"      
+         "devid":"xxxx",
+         "devtype":"0"      
       }
    ]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminaltype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0，表示ios；1，表示android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:表示门铃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3778,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -3811,19 +3815,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -4408,7 +4412,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4947,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6245,7 +6249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -6396,19 +6400,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6532,7 +6536,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -7842,9 +7846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7895,16 +7899,16 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>207</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>12</v>
@@ -7973,7 +7977,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
@@ -7982,7 +7986,7 @@
         <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -8013,7 +8017,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>21</v>
@@ -8022,7 +8026,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -8072,16 +8076,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8112,7 +8116,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8121,7 +8125,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8163,13 +8167,13 @@
         <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>193</v>
@@ -8195,22 +8199,22 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>197</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8311,22 +8315,22 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="237">
   <si>
     <t>列8</t>
   </si>
@@ -1251,6 +1251,35 @@
       }
    ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加集群代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/management.cgi?action=add_cluster_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=device_query_update_service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "update_address" : "xxx.xxx.xxx",
+   "lease":"300"
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询固件升级服务地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,7 +1554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1601,6 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3157,7 +3187,7 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -6249,9 +6279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6629,18 +6659,52 @@
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+    <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7">
+        <v>32</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7844,11 +7908,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7893,13 +7957,13 @@
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
@@ -7907,17 +7971,17 @@
       <c r="E2" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="F2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7">
         <v>512</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>36</v>
+      <c r="I2" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7926,18 +7990,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7">
-        <v>512</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
@@ -7945,323 +8001,317 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7">
-        <v>256</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16">
+        <v>512</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>105</v>
-      </c>
+      <c r="F7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>512</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
+        <v>32</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
         <v>256</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7">
+        <v>32</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B20" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E20" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
         <v>512</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="29">
-        <v>64</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="29">
-        <v>64</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8269,39 +8319,37 @@
       <c r="B21" s="42"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="29">
-        <v>2</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>230</v>
+      </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8310,52 +8358,54 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="F23" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="29">
+        <v>64</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7">
-        <v>32</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="29">
+        <v>64</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
       <c r="B25" s="42"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="F25" s="29" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="29">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>13</v>
@@ -8367,17 +8417,17 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="29">
-        <v>64</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>13</v>
+      <c r="F26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8385,39 +8435,37 @@
       <c r="B27" s="42"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="29">
-        <v>2</v>
-      </c>
-      <c r="I27" s="29" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7">
+        <v>32</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8426,10 +8474,18 @@
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="F29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="29">
+        <v>64</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
@@ -8437,21 +8493,39 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="29">
+        <v>64</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="E31" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="29">
+        <v>2</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
@@ -8459,10 +8533,18 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="F32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
@@ -8662,8 +8744,72 @@
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="238">
   <si>
     <t>列8</t>
   </si>
@@ -1280,6 +1280,13 @@
   </si>
   <si>
     <t>查询固件升级服务地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,6 +1628,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1630,7 +1638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2547,630 +2554,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3187,7 +3194,7 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -5262,10 +5269,10 @@
       <c r="I123" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J123" s="45" t="s">
+      <c r="J123" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="K123" s="46"/>
+      <c r="K123" s="47"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
@@ -6279,8 +6286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:I23"/>
     </sheetView>
   </sheetViews>
@@ -7908,11 +7915,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7955,7 +7962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>231</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>193</v>
@@ -7990,10 +7997,18 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
@@ -8006,264 +8021,264 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="G7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16">
         <v>512</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7">
-        <v>512</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="F9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>256</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7">
         <v>32</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B13" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E13" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
         <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7">
-        <v>256</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="F14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <v>256</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
         <v>32</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="43" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="7"/>
@@ -8274,82 +8289,90 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="315" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B19" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
         <v>512</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="B21" s="42"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>197</v>
-      </c>
+      <c r="C21" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>36</v>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="29">
+        <v>64</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8359,7 +8382,7 @@
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>199</v>
@@ -8371,44 +8394,44 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="F24" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="H24" s="29">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
       <c r="B25" s="42"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="29">
-        <v>2</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>13</v>
+      <c r="E25" s="29"/>
+      <c r="F25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8417,54 +8440,54 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>205</v>
+      </c>
       <c r="B27" s="42"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="C27" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7">
+        <v>32</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="7">
-        <v>32</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="29">
+        <v>64</v>
+      </c>
+      <c r="I28" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8475,7 +8498,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>12</v>
@@ -8492,15 +8515,17 @@
       <c r="B30" s="42"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="F30" s="29" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="29">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>13</v>
@@ -8511,20 +8536,18 @@
       <c r="B31" s="42"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="29">
-        <v>2</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>13</v>
+      <c r="E31" s="29"/>
+      <c r="F31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8533,18 +8556,10 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
@@ -8744,7 +8759,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="29"/>
@@ -8766,7 +8781,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="29"/>
@@ -8778,15 +8793,15 @@
       <c r="I53" s="29"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="43"/>
@@ -8799,17 +8814,6 @@
       <c r="H55" s="43"/>
       <c r="I55" s="43"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="239">
   <si>
     <t>列8</t>
   </si>
@@ -1053,15 +1053,6 @@
   </si>
   <si>
     <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "cluster_address":"xxxx",
- "management_address":"xxx",
- "aliasname":"xxxx"
-}</t>
-  </si>
-  <si>
-    <t>{
    "data" : [
       {
          "begindate" : "2010-08-08",
@@ -1145,10 +1136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/management.cgi?action=cluster_shakehand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/management.cgi?action=query_all_cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1158,29 +1145,6 @@
   </si>
   <si>
     <t>/management.cgi?action=query_cluster_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "clusterid" : "2010-08-08",
-         "cluster_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx",
-         "createdate":"2010-08-08"
-      },
-      {
-         "clusterid" : "2010-08-08",
-         "cluster_address":"xxxx",
-         "management_address":"xxx",
-         "aliasname":"xxxx",
-         "createdate":"2013-02-02"   
-      }
-   ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1289,12 +1253,149 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>status=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在线；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，离线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx",
+         "createdate":"2010-08-08"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">          "status":"0"
+      },
+      {
+         "clusterid" : "2010-08-08",
+         "cluster_address":"xxxx",
+         "management_address":"xxx",
+         "aliasname":"xxxx",
+         "createdate":"2013-02-02"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">          "status":"0"
+      }
+   ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "cluster_address":"xxxx",
+ "management_address":"xxx",
+ "aliasname":"xxxx",
+ "createdate":"2013-02-02"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+ "status":"0"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=cluster_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,6 +1460,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3819,7 +3927,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -3852,19 +3960,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -4449,7 +4557,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4988,7 +5096,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6437,19 +6545,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6573,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6668,19 +6776,19 @@
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>28</v>
@@ -7919,7 +8027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7964,19 +8072,19 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>193</v>
@@ -8029,7 +8137,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
@@ -8069,7 +8177,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>21</v>
@@ -8147,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>21</v>
@@ -8187,7 +8295,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8238,7 +8346,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>195</v>
       </c>
@@ -8246,13 +8354,13 @@
         <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>208</v>
@@ -8272,7 +8380,9 @@
       <c r="B17" s="40"/>
       <c r="C17" s="7"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -8289,7 +8399,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>196</v>
       </c>
@@ -8297,13 +8407,13 @@
         <v>100</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>193</v>
@@ -8335,13 +8445,13 @@
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>208</v>
@@ -8451,13 +8561,13 @@
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>208</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -1219,10 +1219,6 @@
   </si>
   <si>
     <t>增加集群代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/management.cgi?action=add_cluster_agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1388,6 +1384,10 @@
   </si>
   <si>
     <t>/access.cgi?action=cluster_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_cluster_agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6776,19 +6776,19 @@
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>28</v>
@@ -8027,7 +8027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8078,13 +8078,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>193</v>
@@ -8137,7 +8137,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
@@ -8360,7 +8360,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>208</v>
@@ -8381,7 +8381,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -8413,7 +8413,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>193</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="241">
   <si>
     <t>列8</t>
   </si>
@@ -1140,10 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/management.cgi?action=query_cluster_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/management.cgi?action=query_cluster_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,48 +1169,6 @@
   </si>
   <si>
     <t>0:表示门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx",
-         "terminaltype":"0"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx",
-         "terminaltype":"1"     
-      }
-   ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx",
-         "devtype":"0"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx",
-         "devtype":"0"      
-      }
-   ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1388,6 +1342,70 @@
   </si>
   <si>
     <t>/access.cgi?action=add_cluster_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"0",
+         "username":"mmm",
+         "useraliasname":"ooo",
+         "onlineduration":"10"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"1",
+         "username":"mmm",
+         "useraliasname":"ooo",
+         "onlineduration":"10"     
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx",
+         "devtype":"0",
+         "devname":"xx",
+         "onlineduration":"20"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx",
+         "devtype":"0",
+         "devname":"xx",
+         "onlineduration":"20"   
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集群代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_cluster_agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1736,7 +1754,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2662,630 +2679,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3960,19 +3977,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -5377,10 +5394,10 @@
       <c r="I123" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J123" s="46" t="s">
+      <c r="J123" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="K123" s="47"/>
+      <c r="K123" s="46"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
@@ -6545,19 +6562,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6776,19 +6793,19 @@
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>28</v>
@@ -8023,11 +8040,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8072,19 +8089,19 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>193</v>
@@ -8137,7 +8154,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
@@ -8158,125 +8175,125 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="16">
-        <v>512</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="E8" s="30"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
         <v>512</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7">
-        <v>256</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>105</v>
-      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
+        <v>512</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="7"/>
@@ -8289,13 +8306,13 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8316,154 +8333,156 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7">
+        <v>32</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
         <v>256</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7">
-        <v>32</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
-        <v>234</v>
-      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+    <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B21" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E21" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
         <v>512</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
-        <v>32</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8472,57 +8491,55 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="29">
-        <v>64</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="29">
-        <v>64</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C23" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="31" t="s">
-        <v>204</v>
-      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="H24" s="29">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8531,55 +8548,57 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="29">
+        <v>64</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>205</v>
-      </c>
+      <c r="E26" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="29">
+        <v>2</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>226</v>
-      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="7" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8588,35 +8607,35 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="29">
-        <v>64</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="43" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>205</v>
+      </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="29">
-        <v>64</v>
-      </c>
-      <c r="I29" s="29" t="s">
+      <c r="C29" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="7">
+        <v>32</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8625,17 +8644,15 @@
       <c r="B30" s="42"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="31" t="s">
-        <v>204</v>
-      </c>
+      <c r="E30" s="29"/>
       <c r="F30" s="29" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="29">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>13</v>
@@ -8647,17 +8664,17 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>17</v>
+      <c r="F31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="29">
+        <v>64</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8665,11 +8682,21 @@
       <c r="B32" s="42"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="E32" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="29">
+        <v>2</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
@@ -8677,10 +8704,18 @@
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="F33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41"/>
@@ -8869,7 +8904,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="29"/>
@@ -8880,7 +8915,7 @@
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
     </row>
-    <row r="52" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="29"/>
@@ -8891,7 +8926,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="29"/>
@@ -8902,27 +8937,49 @@
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
+    <row r="54" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -1239,6 +1239,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/access.cgi?action=cluster_shakehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=add_cluster_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"0",
+         "username":"mmm",
+         "useraliasname":"ooo",
+         "onlineduration":"10"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "userid":"xxxx",
+         "terminaltype":"1",
+         "username":"mmm",
+         "useraliasname":"ooo",
+         "onlineduration":"10"     
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "data":[
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx",
+         "devtype":"0",
+         "devname":"xx",
+         "onlineduration":"20"
+      },
+      {
+         "login_date" : "2010-08-08",
+         "logout_date" : "2010-08-08",
+         "devid":"xxxx",
+         "devtype":"0",
+         "devname":"xx",
+         "onlineduration":"20"   
+      }
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集群代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=delete_cluster_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{
  "retcode":"0",
@@ -1269,7 +1341,28 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">          "status":"0"
+      <t xml:space="preserve">         "status":"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">         "user_totalnumber":"100",
+         "device_totalnumber":"200"         
       },
       {
          "clusterid" : "2010-08-08",
@@ -1296,7 +1389,9 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">          "status":"0"
+      <t xml:space="preserve">         "status":"0",
+         "user_totalnumber":"100",
+         "device_totalnumber":"200"
       }
    ]
 }</t>
@@ -1331,81 +1426,30 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">
- "status":"0"
+ "status":"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> "user_totalnumber":"100",
+ "device_totalnumber":"200"
 }</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=cluster_shakehand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=add_cluster_agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx",
-         "terminaltype":"0",
-         "username":"mmm",
-         "useraliasname":"ooo",
-         "onlineduration":"10"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "userid":"xxxx",
-         "terminaltype":"1",
-         "username":"mmm",
-         "useraliasname":"ooo",
-         "onlineduration":"10"     
-      }
-   ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"0",
- "retmsg":"Ok",
- "data":[
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx",
-         "devtype":"0",
-         "devname":"xx",
-         "onlineduration":"20"
-      },
-      {
-         "login_date" : "2010-08-08",
-         "logout_date" : "2010-08-08",
-         "devid":"xxxx",
-         "devtype":"0",
-         "devname":"xx",
-         "onlineduration":"20"   
-      }
-   ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除集群代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=delete_cluster_agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3319,8 +3363,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6412,8 +6456,8 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:I23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8043,8 +8087,8 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8095,7 +8139,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
@@ -8154,7 +8198,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
@@ -8188,13 +8232,13 @@
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>21</v>
@@ -8403,7 +8447,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>195</v>
       </c>
@@ -8417,7 +8461,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>208</v>
@@ -8456,7 +8500,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>196</v>
       </c>
@@ -8470,7 +8514,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>193</v>
@@ -8502,13 +8546,13 @@
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>208</v>
@@ -8624,7 +8668,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>208</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="240">
   <si>
     <t>列8</t>
   </si>
@@ -974,10 +974,6 @@
   </si>
   <si>
     <t>增加集群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3988,7 +3984,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
@@ -4021,19 +4017,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -4618,7 +4614,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -5157,7 +5153,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -6606,19 +6602,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6742,7 +6738,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6837,19 +6833,19 @@
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>28</v>
@@ -8087,8 +8083,8 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8133,22 +8129,22 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -8167,7 +8163,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -8192,13 +8188,13 @@
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
@@ -8207,7 +8203,7 @@
         <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -8232,13 +8228,13 @@
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>21</v>
@@ -8247,7 +8243,7 @@
         <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -8278,16 +8274,16 @@
         <v>100</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
@@ -8306,7 +8302,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -8315,7 +8311,7 @@
         <v>512</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8350,13 +8346,13 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
@@ -8365,7 +8361,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8390,13 +8386,13 @@
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>21</v>
@@ -8405,7 +8401,7 @@
         <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>12</v>
@@ -8449,22 +8445,22 @@
     </row>
     <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8482,7 +8478,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -8502,22 +8498,22 @@
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>12</v>
@@ -8542,20 +8538,20 @@
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>
@@ -8574,16 +8570,16 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="H24" s="29">
         <v>64</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8593,16 +8589,16 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H25" s="29">
         <v>64</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -8611,10 +8607,10 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>12</v>
@@ -8658,20 +8654,20 @@
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>12</v>
@@ -8727,10 +8723,10 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -320,31 +320,6 @@
   </si>
   <si>
     <t>/access.cgi?action=query_user_of_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "value" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "value" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,33 +1021,6 @@
   </si>
   <si>
     <t>clusterid</t>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "wuiesd89",
-         "devname" : "testname01"
-         "enddate" : "2013-08-11",
-         "relation" : "0",
-         "userid" : "dlklkalk",
-         "value" : "testvalue"
-      },
-      {
-         "begindate" : "2010-08-08",
-         "devid" : "546546redf",
-         "devname" : "testname02"
-         "enddate" : "2013-08-11",
-         "relation" : "1",
-         "userid" : "drtertrty",
-         "value" : "testvalue"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1446,6 +1394,56 @@
  "device_totalnumber":"200"
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk",
+         "username":"sss"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty",
+         "username":"yyy"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "data" : [
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "wuiesd89",
+         "devname" : "testname01"
+         "enddate" : "2013-08-11",
+         "relation" : "0",
+         "userid" : "dlklkalk"
+      },
+      {
+         "begindate" : "2010-08-08",
+         "devid" : "546546redf",
+         "devname" : "testname02"
+         "enddate" : "2013-08-11",
+         "relation" : "1",
+         "userid" : "drtertrty"
+      }
+   ],
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2720,7 +2718,7 @@
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -3358,9 +3356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3380,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3404,7 +3402,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -3418,19 +3416,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -3442,7 +3440,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -3451,7 +3449,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -3473,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -3482,7 +3480,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -3547,7 +3545,7 @@
       <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -3565,16 +3563,16 @@
       <c r="A11" s="18"/>
       <c r="B11" s="8"/>
       <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="H11" s="1">
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1"/>
       <c r="M11" s="5"/>
@@ -3595,7 +3593,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -3604,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -3679,7 +3677,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -3688,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
@@ -3730,19 +3728,19 @@
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
@@ -3784,7 +3782,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -3804,7 +3802,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -3816,7 +3814,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -3826,7 +3824,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>12</v>
@@ -3886,7 +3884,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -3895,7 +3893,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="1"/>
       <c r="M30" s="5"/>
@@ -3910,19 +3908,19 @@
     </row>
     <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -3945,7 +3943,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
@@ -3954,7 +3952,7 @@
         <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" s="1"/>
       <c r="M33" s="5"/>
@@ -3972,10 +3970,10 @@
     </row>
     <row r="36" spans="1:13" ht="352.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -3984,10 +3982,10 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -4017,19 +4015,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -4044,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
@@ -4089,13 +4087,13 @@
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>21</v>
@@ -4144,7 +4142,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
@@ -4341,7 +4339,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>64</v>
@@ -4415,7 +4413,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>65</v>
@@ -4511,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -4557,16 +4555,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>28</v>
@@ -4600,12 +4598,12 @@
     <row r="71" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="324" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="297" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>70</v>
@@ -4614,7 +4612,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -4672,7 +4670,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>72</v>
@@ -4681,7 +4679,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>28</v>
@@ -4723,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -4736,13 +4734,13 @@
     </row>
     <row r="80" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>21</v>
@@ -4784,7 +4782,7 @@
     </row>
     <row r="82" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F82" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>44</v>
@@ -4814,10 +4812,10 @@
     </row>
     <row r="84" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F84" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H84" s="7">
         <v>32</v>
@@ -4829,10 +4827,10 @@
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F85" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H85" s="7">
         <v>32</v>
@@ -4858,13 +4856,13 @@
     </row>
     <row r="88" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A88" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>21</v>
@@ -4903,7 +4901,7 @@
     </row>
     <row r="90" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>44</v>
@@ -4940,16 +4938,16 @@
     </row>
     <row r="93" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>32</v>
@@ -4985,7 +4983,7 @@
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>12</v>
@@ -5007,13 +5005,13 @@
     </row>
     <row r="97" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A97" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>21</v>
@@ -5052,7 +5050,7 @@
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>12</v>
@@ -5074,19 +5072,19 @@
     </row>
     <row r="101" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>28</v>
@@ -5141,19 +5139,19 @@
     </row>
     <row r="105" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>28</v>
@@ -5171,7 +5169,7 @@
     </row>
     <row r="106" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>25</v>
@@ -5225,7 +5223,7 @@
     </row>
     <row r="111" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -5235,19 +5233,19 @@
     </row>
     <row r="112" spans="1:10" s="23" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="A112" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="C112" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>28</v>
@@ -5316,19 +5314,19 @@
     </row>
     <row r="117" spans="1:11" ht="324" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C117" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>28</v>
@@ -5343,7 +5341,7 @@
         <v>13</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,7 +5370,7 @@
         <v>80</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J119" s="1"/>
     </row>
@@ -5387,13 +5385,13 @@
         <v>4</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>12</v>
@@ -5402,13 +5400,13 @@
         <v>32</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>12</v>
@@ -5417,13 +5415,13 @@
         <v>32</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F123" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>12</v>
@@ -5432,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="I123" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J123" s="45" t="s">
         <v>158</v>
-      </c>
-      <c r="J123" s="45" t="s">
-        <v>159</v>
       </c>
       <c r="K123" s="46"/>
     </row>
@@ -5455,19 +5453,19 @@
     </row>
     <row r="126" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>28</v>
@@ -5500,16 +5498,16 @@
     </row>
     <row r="128" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H128" s="7">
         <v>256</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J128" s="1"/>
     </row>
@@ -5522,19 +5520,19 @@
     </row>
     <row r="130" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A130" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>28</v>
@@ -5567,16 +5565,16 @@
     </row>
     <row r="132" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H132" s="7">
         <v>256</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J132" s="1"/>
     </row>
@@ -6473,7 +6471,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -6511,19 +6509,19 @@
     </row>
     <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
@@ -6535,7 +6533,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" s="5"/>
@@ -6544,7 +6542,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="5"/>
@@ -6557,19 +6555,19 @@
     </row>
     <row r="5" spans="1:13" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
@@ -6587,7 +6585,7 @@
     </row>
     <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -6602,19 +6600,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6626,13 +6624,13 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -6674,13 +6672,13 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -6726,19 +6724,19 @@
     </row>
     <row r="16" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
@@ -6756,7 +6754,7 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
@@ -6781,19 +6779,19 @@
     </row>
     <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>28</v>
@@ -6833,19 +6831,19 @@
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>28</v>
@@ -6863,7 +6861,7 @@
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>35</v>
@@ -7877,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>6</v>
@@ -7903,13 +7901,13 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -7918,7 +7916,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>12</v>
@@ -7937,7 +7935,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>12</v>
@@ -7949,7 +7947,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7959,7 +7957,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>12</v>
@@ -7968,12 +7966,12 @@
         <v>256</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -7982,12 +7980,12 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -8001,7 +7999,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -8015,7 +8013,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -8029,7 +8027,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -8052,24 +8050,24 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -8082,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -8103,7 +8101,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>6</v>
@@ -8129,22 +8127,22 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -8153,7 +8151,7 @@
         <v>512</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8163,7 +8161,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -8188,22 +8186,22 @@
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -8228,22 +8226,22 @@
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -8268,22 +8266,22 @@
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
@@ -8302,7 +8300,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -8321,7 +8319,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -8346,22 +8344,22 @@
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -8386,22 +8384,22 @@
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>12</v>
@@ -8420,7 +8418,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -8445,22 +8443,22 @@
     </row>
     <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -8478,7 +8476,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -8498,22 +8496,22 @@
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>12</v>
@@ -8522,7 +8520,7 @@
         <v>512</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8538,20 +8536,20 @@
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>
@@ -8570,16 +8568,16 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="H24" s="29">
         <v>64</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8589,16 +8587,16 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="29">
         <v>64</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -8607,10 +8605,10 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>12</v>
@@ -8654,20 +8652,20 @@
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>12</v>
@@ -8686,7 +8684,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>12</v>
@@ -8705,7 +8703,7 @@
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>12</v>
@@ -8723,10 +8721,10 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>12</v>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="http设备管理接口" sheetId="4" r:id="rId3"/>
     <sheet name="存储推送接口" sheetId="6" r:id="rId4"/>
     <sheet name="集群管理接口" sheetId="7" r:id="rId5"/>
+    <sheet name="错误代码定义" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="263">
   <si>
     <t>列8</t>
   </si>
@@ -1446,12 +1447,103 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>命令名称</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码定义</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注销</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不存在</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID不存在</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码不正确</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码不正确</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名与邮箱不匹配</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加设备</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备已被其他用户添加</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不归属于用户</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入参数不足</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,8 +1616,36 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,8 +1676,26 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1721,11 +1859,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1792,6 +1943,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1800,6 +1969,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,630 +2907,630 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3356,7 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
@@ -5432,10 +5622,10 @@
       <c r="I123" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J123" s="45" t="s">
+      <c r="J123" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K123" s="46"/>
+      <c r="K123" s="52"/>
     </row>
     <row r="124" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="7"/>
@@ -9024,4 +9214,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.25" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="46">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="46">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="59"/>
+      <c r="B6" s="46">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="46">
+        <v>1003</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="46">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="46">
+        <v>1004</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="46">
+        <v>1005</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
+      <c r="B9" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="46">
+        <v>1006</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="46">
+        <v>1007</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="46">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="46">
+        <v>999</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E9"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -12,14 +12,15 @@
     <sheet name="http设备管理接口" sheetId="4" r:id="rId3"/>
     <sheet name="存储推送接口" sheetId="6" r:id="rId4"/>
     <sheet name="集群管理接口" sheetId="7" r:id="rId5"/>
-    <sheet name="错误代码定义" sheetId="8" r:id="rId6"/>
+    <sheet name="错误代码" sheetId="8" r:id="rId6"/>
+    <sheet name="错误代码定义" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="265">
   <si>
     <t>列8</t>
   </si>
@@ -1459,10 +1460,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>错误码定义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>命令名称</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1483,10 +1480,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>用户注销</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名不存在</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1537,13 +1530,29 @@
   <si>
     <t>删除设备</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户原密码不正确</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,8 +1653,24 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,18 +1709,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF4F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1859,24 +1878,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1943,7 +1949,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,10 +1961,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1970,26 +1976,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9218,223 +9212,292 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.25" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>241</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="B2" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="44" t="s">
+        <v>244</v>
+      </c>
       <c r="F2" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="44" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
-        <v>247</v>
       </c>
       <c r="B3" s="46">
         <v>1000</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="47" t="s">
+        <v>247</v>
+      </c>
       <c r="D3" s="47"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="46">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="53" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="46">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="53"/>
+      <c r="B5" s="46">
         <v>1003</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="46">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="C5" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="46">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="46">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="46">
-        <v>1002</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="46">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46">
-        <v>1003</v>
-      </c>
-      <c r="G6" s="47" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="53"/>
+      <c r="B8" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="46">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="46">
-        <v>1004</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="45" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="46">
-        <v>1003</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="46">
-        <v>1005</v>
-      </c>
-      <c r="G8" s="47" t="s">
+      <c r="B9" s="46">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="46">
-        <v>1004</v>
-      </c>
-      <c r="C9" s="47"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="46">
-        <v>1006</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="46">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="47"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="46">
-        <v>1007</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="46">
-        <v>1007</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46">
-        <v>999</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E9"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="46">
+        <v>999</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="46">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="55"/>
+      <c r="B5" s="46">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="55"/>
+      <c r="B6" s="46">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55"/>
+      <c r="B8" s="46">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="55"/>
+      <c r="B9" s="46">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="55"/>
+      <c r="B10" s="46">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="集群管理接口" sheetId="7" r:id="rId5"/>
     <sheet name="错误代码" sheetId="8" r:id="rId6"/>
     <sheet name="错误代码定义" sheetId="9" r:id="rId7"/>
+    <sheet name="文件接口" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="285">
   <si>
     <t>列8</t>
   </si>
@@ -1545,6 +1546,84 @@
   </si>
   <si>
     <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列12</t>
+  </si>
+  <si>
+    <t>列13</t>
+  </si>
+  <si>
+    <t>列14</t>
+  </si>
+  <si>
+    <t>列15</t>
+  </si>
+  <si>
+    <t>列16</t>
+  </si>
+  <si>
+    <t>列17</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"0",
+ "retmsg":"Ok",
+ "fileid":"xxxxxxxxx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅查询文件是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=upload_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=query_file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1882,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1985,6 +2064,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2600,6 +2680,32 @@
     <tableColumn id="9" name="列9" dataDxfId="2"/>
     <tableColumn id="10" name="列10" dataDxfId="1"/>
     <tableColumn id="11" name="列11" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:Q30" totalsRowShown="0">
+  <autoFilter ref="A1:Q30"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="命令名称"/>
+    <tableColumn id="2" name="命令类型"/>
+    <tableColumn id="3" name="命令地址"/>
+    <tableColumn id="4" name="返回报文（失败）"/>
+    <tableColumn id="5" name="返回报文（成功）"/>
+    <tableColumn id="6" name="参数字段"/>
+    <tableColumn id="7" name="参数类型"/>
+    <tableColumn id="8" name="参数大小"/>
+    <tableColumn id="9" name="是否必选"/>
+    <tableColumn id="10" name="备注"/>
+    <tableColumn id="11" name="列11"/>
+    <tableColumn id="12" name="列12"/>
+    <tableColumn id="13" name="列13"/>
+    <tableColumn id="14" name="列14"/>
+    <tableColumn id="15" name="列15"/>
+    <tableColumn id="16" name="列16"/>
+    <tableColumn id="17" name="列17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3541,8 +3647,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6633,9 +6739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8043,7 +8149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9214,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -9500,4 +9606,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="1">
+        <v>512</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="1">
+        <v>512</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="377">
   <si>
     <t>列8</t>
   </si>
@@ -1219,10 +1219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1623,14 +1619,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>server_address</t>
-  </si>
-  <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_all_configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改，作为修改其他信息的检索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询文件上传URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_upload_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1641,11 +1735,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>{
+   "upload_url" : "http://u.anni.om/up"
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "new_version_valid" : "1",
+   "app_name" : "app_xx.apk",
+   "app_path" : "http://xx.download.xx/app_xx.apk",
+   "app_size" : "128000(Bytes)",
+   "version" : "1.0",
+   "description" : "fixed: ① xxx",
+   "force_upgrade" : "0",
+   "update_date" : "2017-4-1",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1664,48 +1773,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=query_all_configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>命令类型</t>
+  </si>
+  <si>
+    <t>命令地址</t>
+  </si>
+  <si>
+    <t>返回报文（失败）</t>
+  </si>
+  <si>
+    <t>返回报文（成功）</t>
+  </si>
+  <si>
+    <t>参数字段</t>
+  </si>
+  <si>
+    <t>参数类型</t>
+  </si>
+  <si>
+    <t>参数大小</t>
+  </si>
+  <si>
+    <t>是否必选</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>列12</t>
+  </si>
+  <si>
+    <t>列13</t>
+  </si>
+  <si>
+    <t>列14</t>
+  </si>
+  <si>
+    <t>列15</t>
+  </si>
+  <si>
+    <t>列16</t>
+  </si>
+  <si>
+    <t>列17</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=upload_file</t>
   </si>
   <si>
     <t>{
-   "new_version_valid" : "1",
-   "app_name" : "app_xx.apk",
-   "app_path" : "http://xx.download.xx/app_xx.apk",
-   "app_size" : "128000(Bytes)",
-   "version" : "1.0",
-   "version_code" : "12",
-   "description" : "fixed: ① xxx",
-   "force_upgrade" : "0",
-   "update_date" : "2017-4-1",
+ "retcode":"-1",
+ "retmsg":"Inner failed"
+}</t>
+  </si>
+  <si>
+    <t>{
+   "fileid" : "1/CB2B472A2B57EE43B85AB67F018CC645_server.key",
    "retcode" : "0",
    "retmsg" : "Ok"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
+  </si>
+  <si>
+    <t>文件删除</t>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=delete_file</t>
+  </si>
+  <si>
+    <t>{
+   "fileid" : "5/2772B06FA4927B45AB8621D23C0C4294_data",
+   "retcode" : "0",
+   "retmsg" : "Ok"
+}</t>
+  </si>
+  <si>
+    <t>fileid</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件查询</t>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=query_file</t>
+  </si>
+  <si>
+    <t>{
+   "md5" : "5b17797cc0b17943561910709c54d3a5",
+   "name" : "Tongyong_Win8PEDOS.zip",
+   "retcode" : "0",
+   "retmsg" : "Ok",
+   "size" : "132196538"
+}</t>
   </si>
   <si>
     <t>{
@@ -1713,30 +1891,24 @@
       {
          "category" : "IPC",
          "sub_category" : "ipc_xx_rom",
-         "content" : "context xxx",
          "latest_version" : "2.2",
-         "version_code" : "12",
          "description" : "fixed: ① xxx",
          "force_version" : "1.2",
-         "server_address" : "d.file.com",
          "file_name" : "ipc_xx_rom.rom",
-         "file_id" : "fileuuid001",
          "file_size" : "12800(Bytes)",
+         "file_path" : "http://d.com/d",
          "lease" : "1200",
          "update_date" : "2017-4-1"
       },
       {
          "category" : "Android APP",
          "sub_category" : "app_xx",
-         "content" : "context xxx",
          "latest_version" : "3.0",
-         "version_code" : "11",
          "description" : "fixed: ① xxx",
          "force_version" : "1.4",
-         "server_address" : "d.file.com",
          "file_name" : "app_xx.apk",
-         "file_id" : "fileuuid013",
          "file_size" : "248000(Bytes)",
+         "file_path" : "http://d.com/d",
          "lease" : "1800",
          "update_date" : "2017-3-28"
       }
@@ -1744,212 +1916,6 @@
    "retcode" : "0",
    "retmsg" : "Ok",
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可修改，作为修改其他信息的检索条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列12</t>
-  </si>
-  <si>
-    <t>列13</t>
-  </si>
-  <si>
-    <t>列14</t>
-  </si>
-  <si>
-    <t>列15</t>
-  </si>
-  <si>
-    <t>列16</t>
-  </si>
-  <si>
-    <t>列17</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "fileid" : "5/2772B06FA4927B45AB8621D23C0C4294_data",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/filemgr.cgi?action=query_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "md5" : "5b17797cc0b17943561910709c54d3a5",
-   "name" : "Tongyong_Win8PEDOS.zip",
-   "retcode" : "0",
-   "retmsg" : "Ok",
-   "size" : "132196538"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回报文（失败）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回报文（成功）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否必选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/filemgr.cgi?action=upload_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "retcode":"-1",
- "retmsg":"Inner failed"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "fileid" : "1/CB2B472A2B57EE43B85AB67F018CC645_server.key",
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/filemgr.cgi?action=delete_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,10 +2044,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Consolas"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2297,7 +2266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2408,6 +2377,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2429,18 +2408,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3249,32 +3216,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3" displayName="表3" ref="A1:Q30" totalsRowShown="0">
-  <autoFilter ref="A1:Q30"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="命令名称"/>
-    <tableColumn id="2" name="命令类型"/>
-    <tableColumn id="3" name="命令地址"/>
-    <tableColumn id="4" name="返回报文（失败）"/>
-    <tableColumn id="5" name="返回报文（成功）"/>
-    <tableColumn id="6" name="参数字段"/>
-    <tableColumn id="7" name="参数类型"/>
-    <tableColumn id="8" name="参数大小"/>
-    <tableColumn id="9" name="是否必选"/>
-    <tableColumn id="10" name="备注"/>
-    <tableColumn id="11" name="列11"/>
-    <tableColumn id="12" name="列12"/>
-    <tableColumn id="13" name="列13"/>
-    <tableColumn id="14" name="列14"/>
-    <tableColumn id="15" name="列15"/>
-    <tableColumn id="16" name="列16"/>
-    <tableColumn id="17" name="列17"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -3564,637 +3505,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4208,11 +4149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4837,7 +4778,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>77</v>
@@ -5252,10 +5193,10 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>298</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>299</v>
       </c>
       <c r="H58" s="27">
         <v>80</v>
@@ -5282,13 +5223,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>12</v>
@@ -5309,34 +5250,34 @@
         <v>25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H61" s="11">
         <v>32</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A62" s="18"/>
       <c r="F62" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H62" s="19">
         <v>80</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="31.5" customHeight="1">
       <c r="F63" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>12</v>
@@ -5345,67 +5286,67 @@
         <v>80</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A64" s="18"/>
       <c r="F64" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H64" s="19">
         <v>32</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="31.5" customHeight="1">
       <c r="F65" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="11">
         <v>2</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A66" s="18"/>
       <c r="F66" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H66" s="19">
         <v>256</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1">
       <c r="F67" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H67" s="11">
         <v>1024</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J67" s="11"/>
     </row>
@@ -5429,32 +5370,32 @@
         <v>80</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H69" s="11">
         <v>32</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A70" s="18"/>
       <c r="F70" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H70" s="19">
         <v>80</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1">
@@ -5477,46 +5418,46 @@
         <v>205</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H72" s="19">
         <v>32</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1">
       <c r="F73" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H73" s="35">
         <v>32</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A74" s="18"/>
       <c r="F74" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H74" s="19">
         <v>4</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="31.5" customHeight="1">
@@ -5539,46 +5480,46 @@
         <v>204</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H76" s="19">
         <v>32</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="31.5" customHeight="1">
       <c r="F77" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H77" s="11">
         <v>80</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A78" s="18"/>
       <c r="F78" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="19">
         <v>4</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="31.5" customHeight="1">
@@ -5601,16 +5542,16 @@
         <v>32</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H80" s="19">
         <v>32</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1">
@@ -5618,76 +5559,76 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H81" s="35">
         <v>32</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A82" s="18"/>
       <c r="F82" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H82" s="24">
         <v>32</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1">
       <c r="F83" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H83" s="11">
         <v>80</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A84" s="18"/>
       <c r="F84" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H84" s="19">
         <v>32</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1">
       <c r="F85" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H85" s="11">
         <v>32</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -5714,16 +5655,16 @@
         <v>32</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H88" s="19">
         <v>32</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="31.5" customHeight="1">
@@ -5731,7 +5672,7 @@
         <v>25</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H89" s="35">
         <v>32</v>
@@ -5744,30 +5685,30 @@
     <row r="90" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A90" s="18"/>
       <c r="F90" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H90" s="24">
         <v>32</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="31.5" customHeight="1">
       <c r="F91" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H91" s="11">
         <v>80</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J91" s="11"/>
     </row>
@@ -5791,46 +5732,46 @@
         <v>32</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H93" s="11">
         <v>32</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A94" s="18"/>
       <c r="F94" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" s="24">
         <v>32</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1">
       <c r="F95" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" s="35">
         <v>32</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J95" s="11"/>
     </row>
@@ -5854,26 +5795,26 @@
         <v>32</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H97" s="11">
         <v>32</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A98" s="18"/>
       <c r="F98" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H98" s="24">
         <v>32</v>
@@ -5884,7 +5825,7 @@
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1">
       <c r="F99" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>12</v>
@@ -5893,7 +5834,7 @@
         <v>32</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J99" s="11"/>
     </row>
@@ -5917,46 +5858,46 @@
         <v>73</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H101" s="11">
         <v>32</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A102" s="18"/>
       <c r="F102" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H102" s="24">
         <v>32</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1">
       <c r="F103" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H103" s="11">
         <v>4</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J103" s="11"/>
     </row>
@@ -5980,16 +5921,16 @@
         <v>177</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H105" s="11">
         <v>32</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J105" s="11"/>
     </row>
@@ -5999,79 +5940,79 @@
         <v>101</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H106" s="24">
         <v>32</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="31.5" customHeight="1">
       <c r="F107" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H107" s="11">
         <v>80</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A108" s="18"/>
     </row>
-    <row r="109" spans="1:10" ht="189">
+    <row r="109" spans="1:10" ht="175.5">
       <c r="A109" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B109" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H109" s="22">
         <v>32</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A110" s="18"/>
       <c r="F110" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H110" s="24">
         <v>50</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="31.5" customHeight="1">
@@ -6084,13 +6025,13 @@
         <v>232</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H111" s="22">
         <v>100</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J111" s="11"/>
     </row>
@@ -6101,10 +6042,10 @@
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H112" s="19">
         <v>20</v>
@@ -6114,388 +6055,364 @@
       </c>
     </row>
     <row r="113" spans="1:11" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H113" s="22">
-        <v>20</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="1:11" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-    </row>
-    <row r="116" spans="1:11" s="19" customFormat="1" ht="243">
-      <c r="A116" s="45" t="s">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="1:11" s="19" customFormat="1" ht="243">
+      <c r="A114" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B114" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="C114" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E116" s="46" t="s">
-        <v>303</v>
-      </c>
+      <c r="D114" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G114" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="H114" s="43">
+        <v>32</v>
+      </c>
+      <c r="I114" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="94.5">
+      <c r="A115" s="47"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G115" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H115" s="48">
+        <v>32</v>
+      </c>
+      <c r="I115" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A116" s="45"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
       <c r="F116" s="43" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G116" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H116" s="43">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I116" s="43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="94.5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="31.5" customHeight="1">
       <c r="A117" s="47"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
       <c r="E117" s="44"/>
-      <c r="F117" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="G117" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="H117" s="48">
+      <c r="F117" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="H117" s="44">
+        <v>2</v>
+      </c>
+      <c r="I117" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A118" s="18"/>
+    </row>
+    <row r="119" spans="1:11" ht="324">
+      <c r="A119" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H119" s="11">
         <v>32</v>
       </c>
-      <c r="I117" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="J117" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A118" s="45"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="G118" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H118" s="43">
-        <v>80</v>
-      </c>
-      <c r="I118" s="43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A119" s="47"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="G119" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="H119" s="44">
-        <v>2</v>
-      </c>
-      <c r="I119" s="44" t="s">
-        <v>277</v>
+      <c r="I119" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A120" s="18"/>
-    </row>
-    <row r="121" spans="1:11" ht="324">
-      <c r="A121" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>302</v>
-      </c>
+      <c r="F120" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H120" s="24">
+        <v>32</v>
+      </c>
+      <c r="I120" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="31.5" customHeight="1">
       <c r="F121" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H121" s="11">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J121" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="J121" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="K121" s="78"/>
     </row>
     <row r="122" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A122" s="18"/>
-      <c r="F122" s="24" t="s">
+      <c r="F122" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="G122" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H122" s="24">
-        <v>32</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>274</v>
+      <c r="G122" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H122" s="19">
+        <v>4</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="31.5" customHeight="1">
       <c r="F123" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H123" s="11">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="J123" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="K123" s="70"/>
+        <v>278</v>
+      </c>
+      <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A124" s="18"/>
       <c r="F124" s="19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H124" s="19">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="31.5" customHeight="1">
       <c r="F125" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H125" s="11">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A126" s="18"/>
-      <c r="F126" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H126" s="19">
+    </row>
+    <row r="127" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="1:11" s="19" customFormat="1" ht="67.5">
+      <c r="A128" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H128" s="19">
         <v>32</v>
       </c>
-      <c r="I126" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="31.5" customHeight="1">
-      <c r="F127" s="11" t="s">
+      <c r="I128" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="31.5" customHeight="1">
+      <c r="F129" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G129" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H129" s="35">
+        <v>32</v>
+      </c>
+      <c r="I129" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A130" s="18"/>
+      <c r="F130" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H127" s="11">
-        <v>2</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A128" s="18"/>
-    </row>
-    <row r="129" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="1:10" s="19" customFormat="1" ht="67.5">
-      <c r="A130" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="19" t="s">
+      <c r="G130" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H130" s="19">
+        <v>256</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="1:10" s="19" customFormat="1" ht="54">
+      <c r="A132" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="H130" s="19">
+      <c r="C132" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H132" s="19">
         <v>32</v>
       </c>
-      <c r="I130" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="31.5" customHeight="1">
-      <c r="F131" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G131" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="H131" s="35">
+      <c r="I132" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="31.5" customHeight="1">
+      <c r="F133" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H133" s="35">
         <v>32</v>
       </c>
-      <c r="I131" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A132" s="18"/>
-      <c r="F132" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H132" s="19">
+      <c r="I133" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A134" s="18"/>
+      <c r="F134" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H134" s="19">
         <v>256</v>
       </c>
-      <c r="I132" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="1:10" s="19" customFormat="1" ht="54">
-      <c r="A134" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H134" s="19">
-        <v>32</v>
-      </c>
       <c r="I134" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="31.5" customHeight="1">
-      <c r="F135" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="H135" s="35">
-        <v>32</v>
-      </c>
-      <c r="I135" s="35" t="s">
-        <v>277</v>
-      </c>
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A136" s="18"/>
-      <c r="F136" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H136" s="19">
-        <v>256</v>
-      </c>
-      <c r="I136" s="19" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="137" spans="1:10" ht="31.5" customHeight="1">
       <c r="J137" s="11"/>
@@ -6506,8 +6423,8 @@
     <row r="139" spans="1:10" ht="31.5" customHeight="1">
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A140" s="18"/>
+    <row r="140" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" ht="31.5" customHeight="1">
       <c r="J141" s="11"/>
@@ -6845,15 +6762,9 @@
     <row r="252" spans="10:10" ht="31.5" customHeight="1">
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J253" s="11"/>
-    </row>
-    <row r="254" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J254" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J121:K121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6869,8 +6780,8 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7292,7 +7203,7 @@
     </row>
     <row r="25" spans="1:10" ht="175.5">
       <c r="A25" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>83</v>
@@ -7304,7 +7215,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>28</v>
@@ -7316,7 +7227,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J25" s="11"/>
     </row>
@@ -7781,10 +7692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7830,34 +7741,26 @@
       </c>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:11" s="63" customFormat="1" ht="54">
+    <row r="2" spans="1:11" s="63" customFormat="1" ht="67.5">
       <c r="A2" s="18" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>243</v>
+        <v>336</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="24">
-        <v>50</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>13</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
@@ -7866,37 +7769,39 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="63" customFormat="1" ht="54">
+      <c r="A4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22">
-        <v>100</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H4" s="24">
+        <v>50</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="24">
-        <v>200</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>251</v>
       </c>
       <c r="J4" s="19"/>
     </row>
@@ -7907,16 +7812,16 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="H5" s="22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="J5" s="22"/>
     </row>
@@ -7926,39 +7831,39 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="F6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="19">
         <v>20</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>329</v>
+      <c r="I6" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:11" ht="31.5" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>255</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="51">
         <v>500</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="18"/>
@@ -7967,10 +7872,10 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="19">
         <v>20</v>
@@ -7980,211 +7885,211 @@
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:11" ht="31.5" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" s="51">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="22">
         <v>100</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H10" s="19">
-        <v>100</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="24">
+        <v>32</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="51" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="H11" s="51">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="J11" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="19">
         <v>11</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>337</v>
+      <c r="I12" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" s="63" customFormat="1" ht="54">
+      <c r="A14" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="22">
-        <v>11</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="B14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="19">
+        <v>50</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="55" customFormat="1" ht="54">
-      <c r="A15" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="22">
-        <v>50</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>13</v>
+    <row r="15" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="51">
+        <v>100</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>246</v>
       </c>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="24">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" s="55" customFormat="1" ht="54">
+      <c r="A17" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="22">
+        <v>50</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="19">
         <v>100</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" s="63" customFormat="1" ht="54">
-      <c r="A18" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="19">
-        <v>50</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="71" t="s">
-        <v>347</v>
-      </c>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="21"/>
@@ -8193,38 +8098,38 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="H19" s="22">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1">
+        <v>256</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>245</v>
-      </c>
       <c r="H20" s="24">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="J20" s="11"/>
+        <v>250</v>
+      </c>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="21"/>
@@ -8233,16 +8138,16 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="H21" s="22">
         <v>20</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J21" s="22"/>
     </row>
@@ -8252,17 +8157,17 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="H22" s="24">
-        <v>20</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>332</v>
+      <c r="F22" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="19">
+        <v>100</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="J22" s="11"/>
     </row>
@@ -8273,98 +8178,100 @@
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="51" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H23" s="51">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5" customHeight="1">
+    <row r="24" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="19">
-        <v>20</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="24">
+        <v>11</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="51">
-        <v>100</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" customHeight="1">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="22">
+        <v>11</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="19">
-        <v>100</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="51">
-        <v>32</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J27" s="11"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" s="55" customFormat="1" ht="405">
+      <c r="A27" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="H27" s="22">
+        <v>11</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="18"/>
@@ -8372,18 +8279,10 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="24">
-        <v>11</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>335</v>
-      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
@@ -8392,18 +8291,10 @@
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="22">
-        <v>11</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>257</v>
-      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
@@ -8418,34 +8309,16 @@
       <c r="I30" s="24"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" s="55" customFormat="1" ht="409.5">
-      <c r="A31" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="H31" s="22">
-        <v>11</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>340</v>
-      </c>
+    <row r="31" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
@@ -8568,57 +8441,9 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J17:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8632,7 +8457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8679,19 +8504,19 @@
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="54">
       <c r="A2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="58" t="s">
         <v>312</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>313</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>116</v>
@@ -8880,7 +8705,7 @@
         <v>131</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
@@ -8914,8 +8739,8 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9289,7 +9114,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>176</v>
@@ -9310,7 +9135,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -9342,7 +9167,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>161</v>
@@ -9862,213 +9687,373 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.625" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:18" s="73" customFormat="1">
+      <c r="A1" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="1:18" s="68" customFormat="1" ht="81">
+      <c r="A2" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B2" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C2" s="69" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D2" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E2" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+    </row>
+    <row r="4" spans="1:18" s="68" customFormat="1" ht="54">
+      <c r="A4" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="B4" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="C4" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="D4" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+    </row>
+    <row r="5" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+    </row>
+    <row r="6" spans="1:18" s="68" customFormat="1" ht="81">
+      <c r="A6" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="B6" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" t="s">
-        <v>350</v>
-      </c>
-      <c r="O1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="76" customFormat="1" ht="120">
-      <c r="A2" s="76" t="s">
+      <c r="D6" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="F6" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="G6" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="H6" s="69">
+        <v>512</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+    </row>
+    <row r="7" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A7" s="75"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+    </row>
+    <row r="8" spans="1:18" s="68" customFormat="1" ht="94.5">
+      <c r="A8" s="74" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="76" customFormat="1" ht="15">
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" s="76" customFormat="1" ht="60">
-      <c r="A4" s="76" t="s">
+      <c r="B8" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="79" t="s">
+      <c r="D8" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="76" customFormat="1" ht="15">
-      <c r="C5" s="79"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="80"/>
-    </row>
-    <row r="6" spans="1:17" s="76" customFormat="1" ht="105">
-      <c r="A6" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="76">
+      <c r="F8" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="69">
         <v>512</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="76" customFormat="1" ht="15">
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" s="76" customFormat="1" ht="180">
-      <c r="A8" s="76" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="76">
-        <v>512</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="1:17" s="76" customFormat="1"/>
-    <row r="10" spans="1:17" s="76" customFormat="1"/>
-    <row r="11" spans="1:17" s="76" customFormat="1"/>
-    <row r="12" spans="1:17" s="76" customFormat="1"/>
-    <row r="13" spans="1:17" s="76" customFormat="1"/>
-    <row r="14" spans="1:17" s="76" customFormat="1"/>
-    <row r="15" spans="1:17" s="76" customFormat="1"/>
-    <row r="16" spans="1:17" s="76" customFormat="1"/>
-    <row r="17" s="76" customFormat="1"/>
-    <row r="18" s="76" customFormat="1"/>
-    <row r="19" s="76" customFormat="1"/>
-    <row r="20" s="76" customFormat="1"/>
-    <row r="21" s="76" customFormat="1"/>
-    <row r="22" s="76" customFormat="1"/>
-    <row r="23" s="76" customFormat="1"/>
-    <row r="24" s="76" customFormat="1"/>
-    <row r="25" s="76" customFormat="1"/>
-    <row r="26" s="76" customFormat="1"/>
-    <row r="27" s="76" customFormat="1"/>
-    <row r="28" s="76" customFormat="1"/>
-    <row r="29" s="76" customFormat="1"/>
-    <row r="30" s="76" customFormat="1"/>
-    <row r="31" s="76" customFormat="1"/>
-    <row r="32" s="76" customFormat="1"/>
-    <row r="33" s="76" customFormat="1"/>
+      <c r="I8" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+    </row>
+    <row r="9" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+    </row>
+    <row r="10" spans="1:18" s="68" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+    </row>
+    <row r="11" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+    </row>
+    <row r="12" spans="1:18" s="68" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+    </row>
+    <row r="13" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -10092,16 +10077,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -10138,7 +10123,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="80" t="s">
         <v>215</v>
       </c>
       <c r="B4" s="2">
@@ -10152,7 +10137,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="2">
         <v>1003</v>
       </c>
@@ -10178,7 +10163,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="80" t="s">
         <v>225</v>
       </c>
       <c r="B7" s="2">
@@ -10192,7 +10177,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A8" s="72"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="2">
         <v>1004</v>
       </c>
@@ -10283,7 +10268,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="82" t="s">
         <v>230</v>
       </c>
       <c r="B3" s="2">
@@ -10294,7 +10279,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -10303,7 +10288,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="2">
         <v>1002</v>
       </c>
@@ -10312,7 +10297,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="2">
         <v>1003</v>
       </c>
@@ -10321,7 +10306,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="2">
         <v>1004</v>
       </c>
@@ -10330,7 +10315,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="2">
         <v>1005</v>
       </c>
@@ -10339,7 +10324,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="2">
         <v>1006</v>
       </c>
@@ -10348,7 +10333,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="2">
         <v>1007</v>
       </c>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="379">
   <si>
     <t>列8</t>
   </si>
@@ -1846,9 +1846,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
-  </si>
-  <si>
     <t>文件删除</t>
   </si>
   <si>
@@ -1916,6 +1913,18 @@
    "retcode" : "0",
    "retmsg" : "Ok",
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7692,10 +7701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7892,10 +7901,10 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="H9" s="22">
         <v>100</v>
@@ -7908,20 +7917,20 @@
     <row r="10" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="24">
-        <v>32</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>250</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="19">
+        <v>100</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -7932,164 +7941,164 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="51" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="H11" s="51">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="24">
         <v>11</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>17</v>
+      <c r="I12" s="24" t="s">
+        <v>324</v>
       </c>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="22">
+        <v>11</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" s="63" customFormat="1" ht="54">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="55" customFormat="1" ht="54">
+      <c r="A15" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D15" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E15" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F15" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G15" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="22">
         <v>50</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I15" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="51">
-        <v>100</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>246</v>
       </c>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="24">
+        <v>100</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>246</v>
+      </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" s="55" customFormat="1" ht="54">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" s="63" customFormat="1" ht="54">
+      <c r="A18" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="19">
         <v>50</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="19">
-        <v>100</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="79"/>
+      <c r="J18" s="79" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="21"/>
@@ -8098,138 +8107,138 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="H19" s="22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J19" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="24">
-        <v>500</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>250</v>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="19">
+        <v>20</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="22">
-        <v>20</v>
-      </c>
-      <c r="I21" s="22" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="51">
+        <v>500</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>250</v>
       </c>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1">
+    <row r="22" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H23" s="51">
-        <v>32</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="22">
+        <v>100</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="H24" s="24">
-        <v>11</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="19">
+        <v>100</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="22">
-        <v>11</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" s="51">
+        <v>32</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="18"/>
@@ -8237,39 +8246,37 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="24">
+        <v>11</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>322</v>
+      </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" s="55" customFormat="1" ht="405">
-      <c r="A27" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>376</v>
-      </c>
+    <row r="27" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="H27" s="22">
         <v>11</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="J27" s="22"/>
     </row>
@@ -8285,16 +8292,34 @@
       <c r="I28" s="24"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+    <row r="29" spans="1:10" s="55" customFormat="1" ht="405">
+      <c r="A29" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="22">
+        <v>11</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>327</v>
+      </c>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
@@ -8441,9 +8466,33 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
     </row>
+    <row r="42" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9689,8 +9738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9814,7 +9863,7 @@
         <v>365</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>362</v>
@@ -9856,31 +9905,31 @@
     </row>
     <row r="6" spans="1:18" s="68" customFormat="1" ht="81">
       <c r="A6" s="74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>360</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>362</v>
       </c>
       <c r="E6" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="G6" s="69" t="s">
         <v>370</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>371</v>
       </c>
       <c r="H6" s="69">
         <v>512</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
@@ -9914,31 +9963,31 @@
     </row>
     <row r="8" spans="1:18" s="68" customFormat="1" ht="94.5">
       <c r="A8" s="74" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>360</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>362</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>370</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>371</v>
       </c>
       <c r="H8" s="69">
         <v>512</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="377">
   <si>
     <t>列8</t>
   </si>
@@ -491,18 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_firmware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,11 +600,6 @@
   </si>
   <si>
     <t>0：用户，1：设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businesstype:0，访客记录。
-businesstype:1，路人消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1176,10 +1159,6 @@
   </si>
   <si>
     <t>current_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/access.cgi?action=query_firmware_upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1353,10 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/access.cgi?action=query_app_upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1506,25 +1481,6 @@
          "type" : "mp4",
          "createdate" : "2015-08-11",
          "url" : "http://xxx.xxx"
-      }
-   ],
-   "retcode" : "0",
-   "retmsg" : "Ok"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   "data" : [
-      {
-         "firmware_downloadpath" : "http://xxx.downloadxxxx",
-         "fireware_name" : "jks.bin"
-         "firmware_version" : "1.0"
-      },
-      {
-         "firmware_downloadpath" : "http://xxx.downloadxxxx",
-         "fireware_name" : "ma.bin"
-         "firmware_version" : "1.5"
       }
    ],
    "retcode" : "0",
@@ -1594,10 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询APP升级版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询固件升级版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1847,9 +1799,6 @@
   </si>
   <si>
     <t>文件删除</t>
-  </si>
-  <si>
-    <t>/filemgr.cgi?action=delete_file</t>
   </si>
   <si>
     <t>{
@@ -1927,12 +1876,38 @@
     <t>/filemgr.cgi?action=download_file&amp;fileid=xxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/filemgr.cgi?action=delete_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_firmware_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询APP升级版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/access.cgi?action=query_app_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p_type，1：浪涛，2：尚云，3：tutk</t>
+  </si>
+  <si>
+    <t>p2p_type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,14 +2004,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <strike/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -2275,7 +2242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2351,12 +2318,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2392,10 +2353,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3521,630 +3482,630 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4158,11 +4119,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4178,62 +4139,62 @@
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="50" customFormat="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="81">
       <c r="A2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -4245,7 +4206,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="11"/>
       <c r="M2" s="16"/>
@@ -4254,7 +4215,7 @@
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J3" s="11"/>
       <c r="M3" s="16"/>
@@ -4350,7 +4311,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="F10" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>12</v>
@@ -4368,16 +4329,16 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="F11" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="11">
         <v>64</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J11" s="11"/>
       <c r="M11" s="16"/>
@@ -4491,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>28</v>
@@ -4587,7 +4548,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>12</v>
@@ -4607,7 +4568,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>12</v>
@@ -4619,7 +4580,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M26" s="16"/>
     </row>
@@ -4629,7 +4590,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>12</v>
@@ -4689,7 +4650,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>12</v>
@@ -4698,7 +4659,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J30" s="11"/>
       <c r="M30" s="16"/>
@@ -4713,13 +4674,13 @@
     </row>
     <row r="32" spans="1:13" ht="54">
       <c r="A32" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>21</v>
@@ -4748,7 +4709,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>12</v>
@@ -4757,7 +4718,7 @@
         <v>64</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J33" s="11"/>
       <c r="M33" s="16"/>
@@ -4775,7 +4736,7 @@
     </row>
     <row r="36" spans="1:13" ht="351">
       <c r="A36" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>83</v>
@@ -4787,7 +4748,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>77</v>
@@ -4820,19 +4781,19 @@
     </row>
     <row r="38" spans="1:13" ht="31.5" customHeight="1">
       <c r="E38" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H38" s="11">
         <v>2</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J38" s="11"/>
     </row>
@@ -5202,10 +5163,10 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H58" s="27">
         <v>80</v>
@@ -5232,13 +5193,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>12</v>
@@ -5259,34 +5220,34 @@
         <v>25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H61" s="11">
         <v>32</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A62" s="18"/>
       <c r="F62" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H62" s="19">
         <v>80</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="31.5" customHeight="1">
       <c r="F63" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>12</v>
@@ -5295,67 +5256,67 @@
         <v>80</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A64" s="18"/>
       <c r="F64" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H64" s="19">
         <v>32</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="31.5" customHeight="1">
       <c r="F65" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H65" s="11">
         <v>2</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A66" s="18"/>
       <c r="F66" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H66" s="19">
         <v>256</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1">
       <c r="F67" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H67" s="11">
         <v>1024</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J67" s="11"/>
     </row>
@@ -5379,32 +5340,32 @@
         <v>80</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H69" s="11">
         <v>32</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A70" s="18"/>
       <c r="F70" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H70" s="19">
         <v>80</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1">
@@ -5424,49 +5385,49 @@
         <v>21</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H72" s="19">
         <v>32</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1">
       <c r="F73" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H73" s="35">
         <v>32</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A74" s="18"/>
       <c r="F74" s="19" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H74" s="19">
         <v>4</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="31.5" customHeight="1">
@@ -5486,49 +5447,49 @@
         <v>21</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H76" s="19">
         <v>32</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="31.5" customHeight="1">
       <c r="F77" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H77" s="11">
         <v>80</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A78" s="18"/>
       <c r="F78" s="19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H78" s="19">
         <v>4</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="31.5" customHeight="1">
@@ -5551,16 +5512,16 @@
         <v>32</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H80" s="19">
         <v>32</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1">
@@ -5568,76 +5529,76 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H81" s="35">
         <v>32</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A82" s="18"/>
       <c r="F82" s="24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H82" s="24">
         <v>32</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1">
       <c r="F83" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H83" s="11">
         <v>80</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A84" s="18"/>
       <c r="F84" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H84" s="19">
         <v>32</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1">
       <c r="F85" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H85" s="11">
         <v>32</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -5664,16 +5625,16 @@
         <v>32</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H88" s="19">
         <v>32</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="31.5" customHeight="1">
@@ -5681,7 +5642,7 @@
         <v>25</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H89" s="35">
         <v>32</v>
@@ -5694,30 +5655,30 @@
     <row r="90" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A90" s="18"/>
       <c r="F90" s="24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H90" s="24">
         <v>32</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="31.5" customHeight="1">
       <c r="F91" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H91" s="11">
         <v>80</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J91" s="11"/>
     </row>
@@ -5741,46 +5702,46 @@
         <v>32</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H93" s="11">
         <v>32</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A94" s="18"/>
       <c r="F94" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H94" s="24">
         <v>32</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1">
       <c r="F95" s="35" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H95" s="35">
         <v>32</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J95" s="11"/>
     </row>
@@ -5804,26 +5765,26 @@
         <v>32</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H97" s="11">
         <v>32</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A98" s="18"/>
       <c r="F98" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H98" s="24">
         <v>32</v>
@@ -5834,7 +5795,7 @@
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1">
       <c r="F99" s="35" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>12</v>
@@ -5843,7 +5804,7 @@
         <v>32</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J99" s="11"/>
     </row>
@@ -5867,46 +5828,46 @@
         <v>73</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H101" s="11">
         <v>32</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A102" s="18"/>
       <c r="F102" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H102" s="24">
         <v>32</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1">
       <c r="F103" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H103" s="11">
         <v>4</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J103" s="11"/>
     </row>
@@ -5927,507 +5888,444 @@
         <v>21</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H105" s="11">
         <v>32</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A106" s="18"/>
       <c r="E106" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H106" s="24">
         <v>32</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="31.5" customHeight="1">
       <c r="F107" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H107" s="11">
         <v>80</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A108" s="18"/>
-    </row>
-    <row r="109" spans="1:10" ht="175.5">
-      <c r="A109" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B109" s="22" t="s">
+      <c r="E108" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H108" s="19">
+        <v>2</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A109" s="18"/>
+    </row>
+    <row r="110" spans="1:10" ht="175.5">
+      <c r="A110" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G109" s="22" t="s">
+      <c r="C110" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H110" s="22">
+        <v>32</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="J110" s="11"/>
+    </row>
+    <row r="111" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A111" s="18"/>
+      <c r="F111" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H111" s="24">
+        <v>50</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112" s="22">
+        <v>100</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:11" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H113" s="19">
+        <v>20</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A115" s="18"/>
+    </row>
+    <row r="116" spans="1:11" ht="324" hidden="1">
+      <c r="A116" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H116" s="11">
+        <v>32</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A117" s="18"/>
+      <c r="F117" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H117" s="24">
+        <v>32</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="F118" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H118" s="11">
+        <v>80</v>
+      </c>
+      <c r="I118" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H109" s="22">
+      <c r="J118" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K118" s="74"/>
+    </row>
+    <row r="119" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A119" s="18"/>
+      <c r="F119" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119" s="19">
+        <v>4</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="F120" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H120" s="11">
         <v>32</v>
       </c>
-      <c r="I109" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="J109" s="11"/>
-    </row>
-    <row r="110" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A110" s="18"/>
-      <c r="F110" s="24" t="s">
+      <c r="I120" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A121" s="18"/>
+      <c r="F121" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H121" s="19">
+        <v>32</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="F122" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" s="11">
+        <v>2</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A123" s="18"/>
+    </row>
+    <row r="124" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="1:11" s="19" customFormat="1" ht="67.5" hidden="1">
+      <c r="A125" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H125" s="19">
+        <v>32</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="F126" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G126" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H126" s="35">
+        <v>32</v>
+      </c>
+      <c r="I126" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A127" s="18"/>
+      <c r="F127" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H127" s="19">
+        <v>256</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="31.5" hidden="1" customHeight="1">
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="1:10" s="19" customFormat="1" ht="54" hidden="1">
+      <c r="A129" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G110" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H110" s="24">
-        <v>50</v>
-      </c>
-      <c r="I110" s="24" t="s">
+      <c r="E129" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F129" s="19" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H111" s="22">
-        <v>100</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="J111" s="11"/>
-    </row>
-    <row r="112" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H112" s="19">
-        <v>20</v>
-      </c>
-      <c r="I112" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="1:11" s="19" customFormat="1" ht="243">
-      <c r="A114" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="E114" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="F114" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="G114" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="H114" s="43">
+      <c r="G129" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H129" s="19">
         <v>32</v>
       </c>
-      <c r="I114" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="94.5">
-      <c r="A115" s="47"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="G115" s="48" t="s">
+      <c r="I129" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H115" s="48">
+    </row>
+    <row r="130" spans="1:10" ht="31.5" hidden="1" customHeight="1">
+      <c r="F130" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G130" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H130" s="35">
         <v>32</v>
       </c>
-      <c r="I115" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A116" s="45"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="G116" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="H116" s="43">
-        <v>80</v>
-      </c>
-      <c r="I116" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A117" s="47"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G117" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="H117" s="44">
-        <v>2</v>
-      </c>
-      <c r="I117" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A118" s="18"/>
-    </row>
-    <row r="119" spans="1:11" ht="324">
-      <c r="A119" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H119" s="11">
-        <v>32</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J119" s="11"/>
-    </row>
-    <row r="120" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A120" s="18"/>
-      <c r="F120" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G120" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H120" s="24">
-        <v>32</v>
-      </c>
-      <c r="I120" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="31.5" customHeight="1">
-      <c r="F121" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H121" s="11">
-        <v>80</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J121" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="K121" s="78"/>
-    </row>
-    <row r="122" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A122" s="18"/>
-      <c r="F122" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H122" s="19">
-        <v>4</v>
-      </c>
-      <c r="I122" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="31.5" customHeight="1">
-      <c r="F123" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H123" s="11">
-        <v>32</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J123" s="11"/>
-    </row>
-    <row r="124" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A124" s="18"/>
-      <c r="F124" s="19" t="s">
+      <c r="I130" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="1:10" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
+      <c r="A131" s="18"/>
+      <c r="F131" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="G124" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H124" s="19">
-        <v>32</v>
-      </c>
-      <c r="I124" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="31.5" customHeight="1">
-      <c r="F125" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H125" s="11">
-        <v>2</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A126" s="18"/>
-    </row>
-    <row r="127" spans="1:11" ht="31.5" customHeight="1">
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="1:11" s="19" customFormat="1" ht="67.5">
-      <c r="A128" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G128" s="19" t="s">
+      <c r="G131" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H131" s="19">
+        <v>256</v>
+      </c>
+      <c r="I131" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H128" s="19">
-        <v>32</v>
-      </c>
-      <c r="I128" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="31.5" customHeight="1">
-      <c r="F129" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G129" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="H129" s="35">
-        <v>32</v>
-      </c>
-      <c r="I129" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A130" s="18"/>
-      <c r="F130" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H130" s="19">
-        <v>256</v>
-      </c>
-      <c r="I130" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="1:10" s="19" customFormat="1" ht="54">
-      <c r="A132" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H132" s="19">
-        <v>32</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="31.5" customHeight="1">
-      <c r="F133" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G133" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="H133" s="35">
-        <v>32</v>
-      </c>
-      <c r="I133" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A134" s="18"/>
-      <c r="F134" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H134" s="19">
-        <v>256</v>
-      </c>
-      <c r="I134" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A136" s="18"/>
+    </row>
+    <row r="132" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A133" s="18"/>
+    </row>
+    <row r="134" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A135" s="18"/>
+    </row>
+    <row r="136" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="31.5" customHeight="1">
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A138" s="18"/>
+    <row r="138" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" ht="31.5" customHeight="1">
       <c r="J139" s="11"/>
@@ -6762,18 +6660,9 @@
     <row r="249" spans="10:10" ht="31.5" customHeight="1">
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J250" s="11"/>
-    </row>
-    <row r="251" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J251" s="11"/>
-    </row>
-    <row r="252" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J252" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="J118:K118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6786,11 +6675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6806,62 +6695,62 @@
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="50" customFormat="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="81">
       <c r="A2" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>35</v>
@@ -6873,7 +6762,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J2" s="11"/>
       <c r="M2" s="16"/>
@@ -6882,7 +6771,7 @@
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J3" s="11"/>
       <c r="M3" s="16"/>
@@ -6895,7 +6784,7 @@
     </row>
     <row r="5" spans="1:13" ht="162">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>83</v>
@@ -6907,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
@@ -6925,7 +6814,7 @@
     </row>
     <row r="6" spans="1:13" ht="31.5" customHeight="1">
       <c r="F6" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>12</v>
@@ -6940,19 +6829,19 @@
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="E7" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="11">
         <v>2</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7070,13 +6959,13 @@
         <v>89</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>28</v>
@@ -7093,7 +6982,7 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1">
       <c r="E17" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>35</v>
@@ -7111,243 +7000,258 @@
     </row>
     <row r="18" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="108">
-      <c r="A19" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="E18" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="108">
+      <c r="A20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <v>32</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="F20" s="19" t="s">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="F21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>80</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" s="19" customFormat="1" ht="81">
-      <c r="A22" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="20" t="s">
+    <row r="22" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" s="19" customFormat="1" ht="81" hidden="1">
+      <c r="A23" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="E23" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>32</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I23" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1">
-      <c r="E23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="11" t="s">
+    <row r="24" spans="1:10" ht="31.5" hidden="1" customHeight="1">
+      <c r="E24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <v>80</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="175.5">
-      <c r="A25" s="21" t="s">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="175.5">
+      <c r="A26" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="22">
+        <v>32</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="F27" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="22">
-        <v>32</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="F26" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="H27" s="24">
+        <v>50</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="24">
-        <v>50</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="H28" s="22">
+        <v>100</v>
+      </c>
+      <c r="I28" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="22" t="s">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="F29" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="22">
-        <v>100</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="H29" s="19">
+        <v>20</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="F28" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="19">
-        <v>20</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5" customHeight="1">
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A32" s="18"/>
-    </row>
-    <row r="33" spans="10:10" ht="31.5" customHeight="1">
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="10:10" ht="31.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.5" customHeight="1">
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.5" customHeight="1">
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="10:10" ht="31.5" customHeight="1">
+    <row r="35" spans="1:10" ht="31.5" customHeight="1">
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="10:10" ht="31.5" customHeight="1">
+    <row r="36" spans="1:10" ht="31.5" customHeight="1">
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="10:10" ht="31.5" customHeight="1">
+    <row r="37" spans="1:10" ht="31.5" customHeight="1">
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="10:10" ht="31.5" customHeight="1">
+    <row r="38" spans="1:10" ht="31.5" customHeight="1">
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="10:10" ht="31.5" customHeight="1">
+    <row r="39" spans="1:10" ht="31.5" customHeight="1">
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="10:10" ht="31.5" customHeight="1">
+    <row r="40" spans="1:10" ht="31.5" customHeight="1">
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="10:10" ht="31.5" customHeight="1">
+    <row r="41" spans="1:10" ht="31.5" customHeight="1">
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="10:10" ht="31.5" customHeight="1">
+    <row r="42" spans="1:10" ht="31.5" customHeight="1">
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="10:10" ht="31.5" customHeight="1">
+    <row r="43" spans="1:10" ht="31.5" customHeight="1">
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="10:10" ht="31.5" customHeight="1">
+    <row r="44" spans="1:10" ht="31.5" customHeight="1">
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="10:10" ht="31.5" customHeight="1">
+    <row r="45" spans="1:10" ht="31.5" customHeight="1">
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="10:10" ht="31.5" customHeight="1">
+    <row r="46" spans="1:10" ht="31.5" customHeight="1">
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="10:10" ht="31.5" customHeight="1">
+    <row r="47" spans="1:10" ht="31.5" customHeight="1">
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="10:10" ht="31.5" customHeight="1">
+    <row r="48" spans="1:10" ht="31.5" customHeight="1">
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="10:10" ht="31.5" customHeight="1">
@@ -7688,6 +7592,9 @@
     </row>
     <row r="161" spans="10:10" ht="31.5" customHeight="1">
       <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="10:10" ht="31.5" customHeight="1">
+      <c r="J162" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7703,7 +7610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -7722,7 +7629,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>82</v>
@@ -7731,40 +7638,40 @@
         <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" s="63" customFormat="1" ht="67.5">
+      <c r="K1" s="63"/>
+    </row>
+    <row r="2" spans="1:11" s="59" customFormat="1" ht="67.5">
       <c r="A2" s="18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -7772,7 +7679,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="3" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -7784,24 +7691,24 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="63" customFormat="1" ht="54">
+    <row r="4" spans="1:11" s="59" customFormat="1" ht="54">
       <c r="A4" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>12</v>
@@ -7814,14 +7721,14 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="5" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>12</v>
@@ -7834,57 +7741,57 @@
       </c>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="6" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H6" s="19">
         <v>20</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="51">
+      <c r="F7" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="47">
         <v>500</v>
       </c>
-      <c r="I7" s="51" t="s">
-        <v>256</v>
+      <c r="I7" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="8" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H8" s="19">
         <v>20</v>
@@ -7894,14 +7801,14 @@
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="9" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>12</v>
@@ -7914,17 +7821,17 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="10" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H10" s="19">
         <v>100</v>
@@ -7934,34 +7841,34 @@
       </c>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="11" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="51">
+      <c r="F11" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="47">
         <v>32</v>
       </c>
-      <c r="I11" s="51" t="s">
-        <v>250</v>
+      <c r="I11" s="47" t="s">
+        <v>245</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="12" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="24" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>12</v>
@@ -7970,21 +7877,21 @@
         <v>11</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="13" spans="1:11" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H13" s="22">
         <v>11</v>
@@ -7994,7 +7901,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="14" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -8006,27 +7913,27 @@
       <c r="I14" s="24"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="55" customFormat="1" ht="54">
+    <row r="15" spans="1:11" s="51" customFormat="1" ht="54">
       <c r="A15" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H15" s="22">
         <v>50</v>
@@ -8036,14 +7943,14 @@
       </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="16" spans="1:11" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="24" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>12</v>
@@ -8052,11 +7959,11 @@
         <v>100</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="17" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -8068,27 +7975,27 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" s="63" customFormat="1" ht="54">
+    <row r="18" spans="1:10" s="59" customFormat="1" ht="54">
       <c r="A18" s="18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H18" s="19">
         <v>50</v>
@@ -8096,21 +8003,21 @@
       <c r="I18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+      <c r="J18" s="75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H19" s="22">
         <v>100</v>
@@ -8118,56 +8025,56 @@
       <c r="I19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="79"/>
-    </row>
-    <row r="20" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H20" s="19">
         <v>20</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="21" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="51">
+      <c r="F21" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="47">
         <v>500</v>
       </c>
-      <c r="I21" s="51" t="s">
-        <v>250</v>
+      <c r="I21" s="47" t="s">
+        <v>245</v>
       </c>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="22" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>12</v>
@@ -8176,18 +8083,18 @@
         <v>20</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="23" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>12</v>
@@ -8196,7 +8103,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J23" s="22"/>
     </row>
@@ -8207,7 +8114,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>12</v>
@@ -8216,7 +8123,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J24" s="11"/>
     </row>
@@ -8226,61 +8133,61 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="51">
+      <c r="F25" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="47">
         <v>32</v>
       </c>
-      <c r="I25" s="51" t="s">
-        <v>261</v>
+      <c r="I25" s="47" t="s">
+        <v>256</v>
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="26" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H26" s="24">
         <v>11</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="27" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H27" s="22">
         <v>11</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="28" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -8292,37 +8199,37 @@
       <c r="I28" s="24"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" s="55" customFormat="1" ht="405">
+    <row r="29" spans="1:10" s="51" customFormat="1" ht="405">
       <c r="A29" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C29" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="H29" s="22">
         <v>11</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="30" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
@@ -8334,7 +8241,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="31" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -8346,7 +8253,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="32" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -8358,7 +8265,7 @@
       <c r="I32" s="24"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="33" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -8370,7 +8277,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="34" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -8382,7 +8289,7 @@
       <c r="I34" s="24"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="35" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -8394,7 +8301,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="36" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -8406,7 +8313,7 @@
       <c r="I36" s="24"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="37" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -8418,7 +8325,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="38" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
@@ -8430,7 +8337,7 @@
       <c r="I38" s="24"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="39" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -8442,7 +8349,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="40" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
@@ -8454,7 +8361,7 @@
       <c r="I40" s="24"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="41" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -8466,7 +8373,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" s="63" customFormat="1" ht="31.5" customHeight="1">
+    <row r="42" spans="1:10" s="59" customFormat="1" ht="31.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
@@ -8478,7 +8385,7 @@
       <c r="I42" s="24"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" s="55" customFormat="1" ht="31.5" customHeight="1">
+    <row r="43" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -8522,7 +8429,7 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="54" customFormat="1">
+    <row r="1" spans="1:10" s="50" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -8553,22 +8460,22 @@
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="54">
       <c r="A2" s="18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>304</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>12</v>
@@ -8587,7 +8494,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>12</v>
@@ -8599,17 +8506,17 @@
         <v>13</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="58"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>12</v>
@@ -8618,7 +8525,7 @@
         <v>256</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -8628,7 +8535,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>12</v>
@@ -8637,17 +8544,17 @@
         <v>512</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="58"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>12</v>
@@ -8666,7 +8573,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>12</v>
@@ -8681,11 +8588,11 @@
     <row r="8" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="58"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>12</v>
@@ -8704,7 +8611,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>12</v>
@@ -8719,7 +8626,7 @@
     <row r="10" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19" t="s">
@@ -8732,7 +8639,7 @@
         <v>256</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="44" customFormat="1" ht="54">
@@ -8742,19 +8649,19 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="11">
         <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>313</v>
+        <v>127</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="31.5" customHeight="1">
@@ -8770,7 +8677,7 @@
     </row>
     <row r="13" spans="1:10" s="22" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
@@ -8804,7 +8711,7 @@
     <col min="10" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1">
+    <row r="1" spans="1:9" s="50" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -8833,24 +8740,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="55" customFormat="1" ht="54">
-      <c r="A2" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:9" s="51" customFormat="1" ht="54">
+      <c r="A2" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>196</v>
+      <c r="E2" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>12</v>
@@ -8859,17 +8766,17 @@
         <v>512</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="63" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="59" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>12</v>
@@ -8881,9 +8788,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="55" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
+    <row r="4" spans="1:9" s="51" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -8892,15 +8799,15 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" ht="54">
-      <c r="A5" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="1:9" s="59" customFormat="1" ht="54">
+      <c r="A5" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>21</v>
@@ -8909,7 +8816,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>12</v>
@@ -8921,26 +8828,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="55" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:9" s="51" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="63" customFormat="1" ht="54">
-      <c r="A7" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="62" t="s">
+    <row r="7" spans="1:9" s="59" customFormat="1" ht="54">
+      <c r="A7" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>21</v>
@@ -8949,7 +8856,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>12</v>
@@ -8966,7 +8873,7 @@
       <c r="B8" s="32"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="53"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -8974,22 +8881,22 @@
     </row>
     <row r="9" spans="1:9" ht="67.5">
       <c r="A9" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>12</v>
@@ -9008,7 +8915,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>12</v>
@@ -9020,14 +8927,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="63" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:9" s="59" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>12</v>
@@ -9050,15 +8957,15 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="63" customFormat="1" ht="54">
-      <c r="A13" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:9" s="59" customFormat="1" ht="54">
+      <c r="A13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>21</v>
@@ -9067,7 +8974,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>12</v>
@@ -9090,15 +8997,15 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" s="63" customFormat="1" ht="54">
-      <c r="A15" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:9" s="59" customFormat="1" ht="54">
+      <c r="A15" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>21</v>
@@ -9107,7 +9014,7 @@
         <v>88</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>12</v>
@@ -9126,7 +9033,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>12</v>
@@ -9138,9 +9045,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="63" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
+    <row r="17" spans="1:9" s="59" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -9151,22 +9058,22 @@
     </row>
     <row r="18" spans="1:9" ht="148.5">
       <c r="A18" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>305</v>
+      <c r="E18" s="49" t="s">
+        <v>298</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
@@ -9178,48 +9085,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="63" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
+    <row r="19" spans="1:9" s="59" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="55" customFormat="1" ht="40.5" customHeight="1">
+    <row r="20" spans="1:9" s="51" customFormat="1" ht="40.5" customHeight="1">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="63" customFormat="1" ht="351">
-      <c r="A21" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:9" s="59" customFormat="1" ht="351">
+      <c r="A21" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>12</v>
@@ -9228,36 +9135,36 @@
         <v>512</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="1:9" s="63" customFormat="1" ht="310.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:9" s="59" customFormat="1" ht="310.5">
       <c r="A23" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>12</v>
@@ -9269,66 +9176,66 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="52">
+    <row r="24" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="48">
         <v>64</v>
       </c>
-      <c r="I24" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="63" customFormat="1" ht="45.75" customHeight="1">
+      <c r="I24" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="59" customFormat="1" ht="45.75" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H25" s="28">
         <v>64</v>
       </c>
       <c r="I25" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="51" customFormat="1" ht="40.5">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="55" customFormat="1" ht="40.5">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="52" t="s">
+      <c r="F26" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="48">
         <v>2</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="63" customFormat="1" ht="45.75" customHeight="1">
+    <row r="27" spans="1:9" s="59" customFormat="1" ht="45.75" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -9347,33 +9254,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+    <row r="28" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="63" customFormat="1" ht="337.5">
+    <row r="29" spans="1:9" s="59" customFormat="1" ht="337.5">
       <c r="A29" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>12</v>
@@ -9385,26 +9292,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52" t="s">
+    <row r="30" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="48">
         <v>64</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="63" customFormat="1" ht="45.75" customHeight="1">
+    <row r="31" spans="1:9" s="59" customFormat="1" ht="45.75" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
@@ -9423,28 +9330,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="52" t="s">
+    <row r="32" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="48">
         <v>2</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="63" customFormat="1" ht="45.75" customHeight="1">
+    <row r="33" spans="1:9" s="59" customFormat="1" ht="45.75" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
@@ -9463,18 +9370,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="1:9" s="63" customFormat="1" ht="45.75" customHeight="1">
+    <row r="34" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="1:9" s="59" customFormat="1" ht="45.75" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
@@ -9485,247 +9392,247 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-    </row>
-    <row r="45" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-    </row>
-    <row r="46" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-    </row>
-    <row r="48" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-    </row>
-    <row r="49" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-    </row>
-    <row r="50" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-    </row>
-    <row r="51" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-    </row>
-    <row r="52" spans="1:9" s="55" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-    </row>
-    <row r="53" spans="1:9" s="55" customFormat="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-    </row>
-    <row r="54" spans="1:9" s="55" customFormat="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
+    <row r="36" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+    </row>
+    <row r="47" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+    </row>
+    <row r="49" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+    </row>
+    <row r="50" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+    </row>
+    <row r="51" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+    </row>
+    <row r="52" spans="1:9" s="51" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="1:9" s="51" customFormat="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="1:9" s="51" customFormat="1">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9738,8 +9645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9751,353 +9658,353 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="73" customFormat="1">
-      <c r="A1" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:18" s="69" customFormat="1">
+      <c r="A1" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="K1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="M1" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="N1" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="O1" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="P1" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="Q1" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="R1" s="68"/>
+    </row>
+    <row r="2" spans="1:18" s="64" customFormat="1" ht="81">
+      <c r="A2" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="B2" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="72" t="s">
+      <c r="C2" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="D2" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="N1" s="72" t="s">
+      <c r="E2" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+    </row>
+    <row r="3" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+    </row>
+    <row r="4" spans="1:18" s="64" customFormat="1" ht="54">
+      <c r="A4" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="B4" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="C4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+    </row>
+    <row r="5" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+    </row>
+    <row r="6" spans="1:18" s="64" customFormat="1" ht="81">
+      <c r="A6" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="R1" s="72"/>
-    </row>
-    <row r="2" spans="1:18" s="68" customFormat="1" ht="81">
-      <c r="A2" s="74" t="s">
+      <c r="B6" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="F6" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="G6" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="H6" s="65">
+        <v>512</v>
+      </c>
+      <c r="I6" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+    </row>
+    <row r="7" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A7" s="71"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+    </row>
+    <row r="8" spans="1:18" s="64" customFormat="1" ht="94.5">
+      <c r="A8" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-    </row>
-    <row r="3" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-    </row>
-    <row r="4" spans="1:18" s="68" customFormat="1" ht="54">
-      <c r="A4" s="74" t="s">
+      <c r="B8" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="D8" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="70" t="s">
+      <c r="F8" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="65">
+        <v>512</v>
+      </c>
+      <c r="I8" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-    </row>
-    <row r="5" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-    </row>
-    <row r="6" spans="1:18" s="68" customFormat="1" ht="81">
-      <c r="A6" s="74" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="69">
-        <v>512</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-    </row>
-    <row r="7" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-    </row>
-    <row r="8" spans="1:18" s="68" customFormat="1" ht="94.5">
-      <c r="A8" s="74" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>374</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="H8" s="69">
-        <v>512</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
     </row>
     <row r="9" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-    </row>
-    <row r="10" spans="1:18" s="68" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+    </row>
+    <row r="10" spans="1:18" s="64" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="70"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-    </row>
-    <row r="12" spans="1:18" s="68" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+    </row>
+    <row r="12" spans="1:18" s="64" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="70"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10126,72 +10033,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A4" s="80" t="s">
-        <v>215</v>
+      <c r="A4" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="B4" s="2">
         <v>1002</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="80"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="2">
         <v>1003</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -10199,39 +10106,39 @@
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2">
         <v>1005</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A7" s="80" t="s">
-        <v>225</v>
+      <c r="A7" s="76" t="s">
+        <v>221</v>
       </c>
       <c r="B7" s="2">
         <v>1003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="2">
         <v>1004</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -10239,13 +10146,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -10253,13 +10160,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -10296,98 +10203,98 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2">
         <v>999</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>230</v>
+      <c r="A3" s="78" t="s">
+        <v>226</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="82"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="82"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="82"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="82"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="82"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="2">
         <v>1005</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="82"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="2">
         <v>1006</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="2">
         <v>1007</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/script/http_cmd.xlsx
+++ b/script/http_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="667" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="http报文样例" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="371">
   <si>
     <t>列8</t>
   </si>
@@ -1266,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>force_version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1579,27 +1575,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/access.cgi?action=query_all_configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1866,10 +1846,6 @@
   </si>
   <si>
     <t>server_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4748,7 +4724,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>77</v>
@@ -5163,10 +5139,10 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>292</v>
       </c>
       <c r="H58" s="27">
         <v>80</v>
@@ -5193,13 +5169,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>12</v>
@@ -5220,34 +5196,34 @@
         <v>25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H61" s="11">
         <v>32</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A62" s="18"/>
       <c r="F62" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H62" s="19">
         <v>80</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="31.5" customHeight="1">
       <c r="F63" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>12</v>
@@ -5256,67 +5232,67 @@
         <v>80</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A64" s="18"/>
       <c r="F64" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64" s="19">
         <v>32</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="31.5" customHeight="1">
       <c r="F65" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H65" s="11">
         <v>2</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A66" s="18"/>
       <c r="F66" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H66" s="19">
         <v>256</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="31.5" customHeight="1">
       <c r="F67" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H67" s="11">
         <v>1024</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J67" s="11"/>
     </row>
@@ -5340,32 +5316,32 @@
         <v>80</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H69" s="11">
         <v>32</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A70" s="18"/>
       <c r="F70" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H70" s="19">
         <v>80</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="31.5" customHeight="1">
@@ -5388,46 +5364,46 @@
         <v>201</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H72" s="19">
         <v>32</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="31.5" customHeight="1">
       <c r="F73" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H73" s="35">
         <v>32</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A74" s="18"/>
       <c r="F74" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H74" s="19">
         <v>4</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="31.5" customHeight="1">
@@ -5450,46 +5426,46 @@
         <v>200</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76" s="19">
         <v>32</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="31.5" customHeight="1">
       <c r="F77" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" s="11">
         <v>80</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A78" s="18"/>
       <c r="F78" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H78" s="19">
         <v>4</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="31.5" customHeight="1">
@@ -5512,16 +5488,16 @@
         <v>32</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H80" s="19">
         <v>32</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1">
@@ -5529,76 +5505,76 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H81" s="35">
         <v>32</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A82" s="18"/>
       <c r="F82" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H82" s="24">
         <v>32</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1">
       <c r="F83" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H83" s="11">
         <v>80</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A84" s="18"/>
       <c r="F84" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H84" s="19">
         <v>32</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="31.5" customHeight="1">
       <c r="F85" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H85" s="11">
         <v>32</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -5625,16 +5601,16 @@
         <v>32</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H88" s="19">
         <v>32</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="31.5" customHeight="1">
@@ -5642,7 +5618,7 @@
         <v>25</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H89" s="35">
         <v>32</v>
@@ -5655,30 +5631,30 @@
     <row r="90" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A90" s="18"/>
       <c r="F90" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H90" s="24">
         <v>32</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="31.5" customHeight="1">
       <c r="F91" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H91" s="11">
         <v>80</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J91" s="11"/>
     </row>
@@ -5702,46 +5678,46 @@
         <v>32</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H93" s="11">
         <v>32</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A94" s="18"/>
       <c r="F94" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H94" s="24">
         <v>32</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="31.5" customHeight="1">
       <c r="F95" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" s="35">
         <v>32</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J95" s="11"/>
     </row>
@@ -5765,26 +5741,26 @@
         <v>32</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H97" s="11">
         <v>32</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A98" s="18"/>
       <c r="F98" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" s="24">
         <v>32</v>
@@ -5795,7 +5771,7 @@
     </row>
     <row r="99" spans="1:10" ht="31.5" customHeight="1">
       <c r="F99" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>12</v>
@@ -5804,7 +5780,7 @@
         <v>32</v>
       </c>
       <c r="I99" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J99" s="11"/>
     </row>
@@ -5828,46 +5804,46 @@
         <v>73</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H101" s="11">
         <v>32</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A102" s="18"/>
       <c r="F102" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H102" s="24">
         <v>32</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="31.5" customHeight="1">
       <c r="F103" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H103" s="11">
         <v>4</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J103" s="11"/>
     </row>
@@ -5891,16 +5867,16 @@
         <v>173</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H105" s="11">
         <v>32</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J105" s="11"/>
     </row>
@@ -5910,49 +5886,49 @@
         <v>98</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H106" s="24">
         <v>32</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="31.5" customHeight="1">
       <c r="F107" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H107" s="11">
         <v>80</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A108" s="18"/>
       <c r="E108" s="19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H108" s="19">
         <v>2</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
@@ -5960,47 +5936,47 @@
     </row>
     <row r="110" spans="1:10" ht="175.5">
       <c r="A110" s="21" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H110" s="22">
         <v>32</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A111" s="18"/>
       <c r="F111" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H111" s="24">
         <v>50</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="31.5" customHeight="1">
@@ -6013,13 +5989,13 @@
         <v>228</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H112" s="22">
         <v>100</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J112" s="11"/>
     </row>
@@ -6030,16 +6006,16 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H113" s="19">
         <v>20</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6067,52 +6043,52 @@
         <v>104</v>
       </c>
       <c r="D116" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E116" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="F116" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H116" s="11">
         <v>32</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A117" s="18"/>
       <c r="F117" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H117" s="24">
         <v>32</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="31.5" hidden="1" customHeight="1">
       <c r="F118" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H118" s="11">
         <v>80</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J118" s="73" t="s">
         <v>125</v>
@@ -6122,60 +6098,60 @@
     <row r="119" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A119" s="18"/>
       <c r="F119" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H119" s="19">
         <v>4</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="31.5" hidden="1" customHeight="1">
       <c r="F120" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H120" s="11">
         <v>32</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A121" s="18"/>
       <c r="F121" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H121" s="19">
         <v>32</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="31.5" hidden="1" customHeight="1">
       <c r="F122" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H122" s="11">
         <v>2</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J122" s="11"/>
     </row>
@@ -6202,46 +6178,46 @@
         <v>107</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H125" s="19">
         <v>32</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="31.5" hidden="1" customHeight="1">
       <c r="F126" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H126" s="35">
         <v>32</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:11" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A127" s="18"/>
       <c r="F127" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H127" s="19">
         <v>256</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="31.5" hidden="1" customHeight="1">
@@ -6258,52 +6234,52 @@
         <v>110</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H129" s="19">
         <v>32</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="31.5" hidden="1" customHeight="1">
       <c r="F130" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G130" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H130" s="35">
         <v>32</v>
       </c>
       <c r="I130" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J130" s="11"/>
     </row>
     <row r="131" spans="1:10" s="19" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A131" s="18"/>
       <c r="F131" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H131" s="19">
         <v>256</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="31.5" customHeight="1">
@@ -6677,9 +6653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7001,19 +6977,19 @@
     <row r="18" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="18"/>
       <c r="E18" s="19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H18" s="19">
         <v>2</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="19" customFormat="1" ht="31.5" customHeight="1">
@@ -7119,19 +7095,19 @@
     </row>
     <row r="26" spans="1:10" ht="175.5">
       <c r="A26" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>28</v>
@@ -7143,7 +7119,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -7608,10 +7584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7659,19 +7635,19 @@
     </row>
     <row r="2" spans="1:11" s="59" customFormat="1" ht="67.5">
       <c r="A2" s="18" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -7702,10 +7678,10 @@
         <v>238</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>227</v>
@@ -7757,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J6" s="19"/>
     </row>
@@ -7808,7 +7784,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>12</v>
@@ -7828,7 +7804,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>239</v>
@@ -7848,7 +7824,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>250</v>
@@ -7868,7 +7844,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>12</v>
@@ -7877,7 +7853,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J12" s="19"/>
     </row>
@@ -7924,13 +7900,13 @@
         <v>244</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>242</v>
@@ -7950,7 +7926,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>12</v>
@@ -7986,16 +7962,16 @@
       